--- a/public/assets/data/oedos.xlsx
+++ b/public/assets/data/oedos.xlsx
@@ -15476,9 +15476,6 @@
     <t>"large sack"</t>
   </si>
   <si>
-    <t>Very late 15th cent. From &lt;a href='/term/saco&gt;saco&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>sacar</t>
   </si>
   <si>
@@ -18435,6 +18432,9 @@
   </si>
   <si>
     <t>pierna</t>
+  </si>
+  <si>
+    <t>Very late 15th cent. From &lt;a href='/term/saco'&gt;saco&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -18976,8 +18976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1218" workbookViewId="0">
-      <selection activeCell="A1234" sqref="A1234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1434" sqref="E1434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46304,7 +46305,7 @@
     </row>
     <row r="1233" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1233" s="9" t="s">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="B1233" s="10" t="s">
         <v>292</v>
@@ -50791,7 +50792,7 @@
         <v>5147</v>
       </c>
       <c r="F1437" s="10" t="s">
-        <v>5148</v>
+        <v>6134</v>
       </c>
       <c r="G1437" s="5"/>
       <c r="H1437" s="5"/>
@@ -50800,7 +50801,7 @@
     </row>
     <row r="1438" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1438" s="53" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
       <c r="B1438" s="29"/>
       <c r="C1438" s="29"/>
@@ -50808,13 +50809,13 @@
         <v>241</v>
       </c>
       <c r="E1438" s="10" t="s">
+        <v>5149</v>
+      </c>
+      <c r="F1438" s="10" t="s">
         <v>5150</v>
       </c>
-      <c r="F1438" s="10" t="s">
+      <c r="G1438" s="10" t="s">
         <v>5151</v>
-      </c>
-      <c r="G1438" s="10" t="s">
-        <v>5152</v>
       </c>
       <c r="H1438" s="5"/>
       <c r="I1438" s="5"/>
@@ -50822,7 +50823,7 @@
     </row>
     <row r="1439" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1439" s="9" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
       <c r="B1439" s="10" t="s">
         <v>245</v>
@@ -50832,13 +50833,13 @@
         <v>236</v>
       </c>
       <c r="E1439" s="10" t="s">
+        <v>5153</v>
+      </c>
+      <c r="F1439" s="10" t="s">
         <v>5154</v>
       </c>
-      <c r="F1439" s="10" t="s">
+      <c r="G1439" s="10" t="s">
         <v>5155</v>
-      </c>
-      <c r="G1439" s="10" t="s">
-        <v>5156</v>
       </c>
       <c r="H1439" s="5"/>
       <c r="I1439" s="5"/>
@@ -50846,7 +50847,7 @@
     </row>
     <row r="1440" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1440" s="12" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="B1440" s="14" t="s">
         <v>245</v>
@@ -50856,25 +50857,25 @@
         <v>236</v>
       </c>
       <c r="E1440" s="7" t="s">
+        <v>5157</v>
+      </c>
+      <c r="F1440" s="7" t="s">
         <v>5158</v>
       </c>
-      <c r="F1440" s="7" t="s">
+      <c r="G1440" s="7" t="s">
         <v>5159</v>
-      </c>
-      <c r="G1440" s="7" t="s">
-        <v>5160</v>
       </c>
       <c r="H1440" s="5"/>
       <c r="I1440" s="7" t="s">
+        <v>5160</v>
+      </c>
+      <c r="J1440" s="10" t="s">
         <v>5161</v>
-      </c>
-      <c r="J1440" s="10" t="s">
-        <v>5162</v>
       </c>
     </row>
     <row r="1441" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1441" s="4" t="s">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="B1441" s="6" t="s">
         <v>292</v>
@@ -50884,13 +50885,13 @@
         <v>236</v>
       </c>
       <c r="E1441" s="7" t="s">
+        <v>5163</v>
+      </c>
+      <c r="F1441" s="7" t="s">
         <v>5164</v>
       </c>
-      <c r="F1441" s="7" t="s">
+      <c r="G1441" s="7" t="s">
         <v>5165</v>
-      </c>
-      <c r="G1441" s="7" t="s">
-        <v>5166</v>
       </c>
       <c r="H1441" s="5"/>
       <c r="I1441" s="5"/>
@@ -50898,7 +50899,7 @@
     </row>
     <row r="1442" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1442" s="9" t="s">
-        <v>5167</v>
+        <v>5166</v>
       </c>
       <c r="B1442" s="10" t="s">
         <v>292</v>
@@ -50908,10 +50909,10 @@
         <v>236</v>
       </c>
       <c r="E1442" s="10" t="s">
+        <v>5167</v>
+      </c>
+      <c r="F1442" s="10" t="s">
         <v>5168</v>
-      </c>
-      <c r="F1442" s="10" t="s">
-        <v>5169</v>
       </c>
       <c r="G1442" s="5"/>
       <c r="H1442" s="5"/>
@@ -50920,7 +50921,7 @@
     </row>
     <row r="1443" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1443" s="9" t="s">
-        <v>5170</v>
+        <v>5169</v>
       </c>
       <c r="B1443" s="5"/>
       <c r="C1443" s="5"/>
@@ -50928,10 +50929,10 @@
         <v>232</v>
       </c>
       <c r="E1443" s="10" t="s">
+        <v>5170</v>
+      </c>
+      <c r="F1443" s="10" t="s">
         <v>5171</v>
-      </c>
-      <c r="F1443" s="10" t="s">
-        <v>5172</v>
       </c>
       <c r="G1443" s="5"/>
       <c r="H1443" s="5"/>
@@ -50940,7 +50941,7 @@
     </row>
     <row r="1444" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1444" s="4" t="s">
-        <v>5173</v>
+        <v>5172</v>
       </c>
       <c r="B1444" s="5"/>
       <c r="C1444" s="5"/>
@@ -50951,10 +50952,10 @@
         <v>1884</v>
       </c>
       <c r="F1444" s="7" t="s">
+        <v>5173</v>
+      </c>
+      <c r="G1444" s="7" t="s">
         <v>5174</v>
-      </c>
-      <c r="G1444" s="7" t="s">
-        <v>5175</v>
       </c>
       <c r="H1444" s="5"/>
       <c r="I1444" s="5"/>
@@ -50962,7 +50963,7 @@
     </row>
     <row r="1445" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1445" s="9" t="s">
-        <v>5176</v>
+        <v>5175</v>
       </c>
       <c r="B1445" s="5"/>
       <c r="C1445" s="5"/>
@@ -50970,10 +50971,10 @@
         <v>241</v>
       </c>
       <c r="E1445" s="10" t="s">
+        <v>5176</v>
+      </c>
+      <c r="F1445" s="10" t="s">
         <v>5177</v>
-      </c>
-      <c r="F1445" s="10" t="s">
-        <v>5178</v>
       </c>
       <c r="G1445" s="5"/>
       <c r="H1445" s="5"/>
@@ -50982,7 +50983,7 @@
     </row>
     <row r="1446" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1446" s="9" t="s">
-        <v>5179</v>
+        <v>5178</v>
       </c>
       <c r="B1446" s="10" t="s">
         <v>245</v>
@@ -50992,13 +50993,13 @@
         <v>236</v>
       </c>
       <c r="E1446" s="10" t="s">
+        <v>5179</v>
+      </c>
+      <c r="F1446" s="10" t="s">
         <v>5180</v>
       </c>
-      <c r="F1446" s="10" t="s">
+      <c r="G1446" s="10" t="s">
         <v>5181</v>
-      </c>
-      <c r="G1446" s="10" t="s">
-        <v>5182</v>
       </c>
       <c r="H1446" s="5"/>
       <c r="I1446" s="5"/>
@@ -51006,7 +51007,7 @@
     </row>
     <row r="1447" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1447" s="4" t="s">
-        <v>5183</v>
+        <v>5182</v>
       </c>
       <c r="B1447" s="5"/>
       <c r="C1447" s="5"/>
@@ -51014,10 +51015,10 @@
         <v>241</v>
       </c>
       <c r="E1447" s="7" t="s">
+        <v>5183</v>
+      </c>
+      <c r="F1447" s="7" t="s">
         <v>5184</v>
-      </c>
-      <c r="F1447" s="7" t="s">
-        <v>5185</v>
       </c>
       <c r="G1447" s="5"/>
       <c r="H1447" s="5"/>
@@ -51026,7 +51027,7 @@
     </row>
     <row r="1448" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1448" s="12" t="s">
-        <v>5186</v>
+        <v>5185</v>
       </c>
       <c r="B1448" s="13"/>
       <c r="C1448" s="13"/>
@@ -51034,13 +51035,13 @@
         <v>232</v>
       </c>
       <c r="E1448" s="7" t="s">
+        <v>5186</v>
+      </c>
+      <c r="F1448" s="7" t="s">
         <v>5187</v>
       </c>
-      <c r="F1448" s="7" t="s">
+      <c r="G1448" s="7" t="s">
         <v>5188</v>
-      </c>
-      <c r="G1448" s="7" t="s">
-        <v>5189</v>
       </c>
       <c r="H1448" s="5"/>
       <c r="I1448" s="5"/>
@@ -51048,7 +51049,7 @@
     </row>
     <row r="1449" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1449" s="4" t="s">
-        <v>5190</v>
+        <v>5189</v>
       </c>
       <c r="B1449" s="6" t="s">
         <v>245</v>
@@ -51058,23 +51059,23 @@
         <v>236</v>
       </c>
       <c r="E1449" s="7" t="s">
+        <v>5190</v>
+      </c>
+      <c r="F1449" s="7" t="s">
         <v>5191</v>
       </c>
-      <c r="F1449" s="7" t="s">
+      <c r="G1449" s="7" t="s">
         <v>5192</v>
-      </c>
-      <c r="G1449" s="7" t="s">
-        <v>5193</v>
       </c>
       <c r="H1449" s="5"/>
       <c r="I1449" s="7" t="s">
-        <v>5194</v>
+        <v>5193</v>
       </c>
       <c r="J1449" s="5"/>
     </row>
     <row r="1450" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1450" s="4" t="s">
-        <v>5195</v>
+        <v>5194</v>
       </c>
       <c r="B1450" s="5"/>
       <c r="C1450" s="5"/>
@@ -51082,23 +51083,23 @@
         <v>271</v>
       </c>
       <c r="E1450" s="7" t="s">
+        <v>5195</v>
+      </c>
+      <c r="F1450" s="7" t="s">
         <v>5196</v>
       </c>
-      <c r="F1450" s="7" t="s">
+      <c r="G1450" s="7" t="s">
         <v>5197</v>
       </c>
-      <c r="G1450" s="7" t="s">
+      <c r="H1450" s="10" t="s">
         <v>5198</v>
-      </c>
-      <c r="H1450" s="10" t="s">
-        <v>5199</v>
       </c>
       <c r="I1450" s="5"/>
       <c r="J1450" s="5"/>
     </row>
     <row r="1451" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1451" s="4" t="s">
-        <v>5200</v>
+        <v>5199</v>
       </c>
       <c r="B1451" s="6" t="s">
         <v>245</v>
@@ -51108,21 +51109,21 @@
         <v>236</v>
       </c>
       <c r="E1451" s="7" t="s">
+        <v>5200</v>
+      </c>
+      <c r="F1451" s="7" t="s">
         <v>5201</v>
-      </c>
-      <c r="F1451" s="7" t="s">
-        <v>5202</v>
       </c>
       <c r="G1451" s="5"/>
       <c r="H1451" s="7" t="s">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="I1451" s="5"/>
       <c r="J1451" s="5"/>
     </row>
     <row r="1452" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1452" s="4" t="s">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B1452" s="5"/>
       <c r="C1452" s="5"/>
@@ -51130,23 +51131,23 @@
         <v>439</v>
       </c>
       <c r="E1452" s="7" t="s">
+        <v>5204</v>
+      </c>
+      <c r="F1452" s="7" t="s">
         <v>5205</v>
       </c>
-      <c r="F1452" s="7" t="s">
+      <c r="G1452" s="7" t="s">
         <v>5206</v>
-      </c>
-      <c r="G1452" s="7" t="s">
-        <v>5207</v>
       </c>
       <c r="H1452" s="5"/>
       <c r="I1452" s="7" t="s">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="J1452" s="5"/>
     </row>
     <row r="1453" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1453" s="4" t="s">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B1453" s="5"/>
       <c r="C1453" s="5"/>
@@ -51154,10 +51155,10 @@
         <v>439</v>
       </c>
       <c r="E1453" s="7" t="s">
+        <v>5209</v>
+      </c>
+      <c r="F1453" s="7" t="s">
         <v>5210</v>
-      </c>
-      <c r="F1453" s="7" t="s">
-        <v>5211</v>
       </c>
       <c r="G1453" s="5"/>
       <c r="H1453" s="5"/>
@@ -51166,18 +51167,18 @@
     </row>
     <row r="1454" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1454" s="32" t="s">
-        <v>5212</v>
+        <v>5211</v>
       </c>
       <c r="B1454" s="27"/>
       <c r="C1454" s="26" t="s">
-        <v>5213</v>
+        <v>5212</v>
       </c>
       <c r="D1454" s="5"/>
       <c r="E1454" s="7" t="s">
+        <v>5213</v>
+      </c>
+      <c r="F1454" s="7" t="s">
         <v>5214</v>
-      </c>
-      <c r="F1454" s="7" t="s">
-        <v>5215</v>
       </c>
       <c r="G1454" s="5"/>
       <c r="H1454" s="5"/>
@@ -51186,21 +51187,21 @@
     </row>
     <row r="1455" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1455" s="28" t="s">
-        <v>5216</v>
+        <v>5215</v>
       </c>
       <c r="B1455" s="29"/>
       <c r="C1455" s="31" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
       <c r="D1455" s="5"/>
       <c r="E1455" s="10" t="s">
+        <v>5217</v>
+      </c>
+      <c r="F1455" s="10" t="s">
         <v>5218</v>
       </c>
-      <c r="F1455" s="10" t="s">
+      <c r="G1455" s="10" t="s">
         <v>5219</v>
-      </c>
-      <c r="G1455" s="10" t="s">
-        <v>5220</v>
       </c>
       <c r="H1455" s="5"/>
       <c r="I1455" s="5"/>
@@ -51208,7 +51209,7 @@
     </row>
     <row r="1456" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1456" s="25" t="s">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="B1456" s="26" t="s">
         <v>292</v>
@@ -51218,13 +51219,13 @@
         <v>236</v>
       </c>
       <c r="E1456" s="10" t="s">
+        <v>5221</v>
+      </c>
+      <c r="F1456" s="10" t="s">
         <v>5222</v>
       </c>
-      <c r="F1456" s="10" t="s">
+      <c r="G1456" s="10" t="s">
         <v>5223</v>
-      </c>
-      <c r="G1456" s="10" t="s">
-        <v>5224</v>
       </c>
       <c r="H1456" s="5"/>
       <c r="I1456" s="5"/>
@@ -51232,7 +51233,7 @@
     </row>
     <row r="1457" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1457" s="30" t="s">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="B1457" s="29"/>
       <c r="C1457" s="29"/>
@@ -51240,10 +51241,10 @@
         <v>232</v>
       </c>
       <c r="E1457" s="7" t="s">
+        <v>5225</v>
+      </c>
+      <c r="F1457" s="7" t="s">
         <v>5226</v>
-      </c>
-      <c r="F1457" s="7" t="s">
-        <v>5227</v>
       </c>
       <c r="G1457" s="5"/>
       <c r="H1457" s="5"/>
@@ -51252,7 +51253,7 @@
     </row>
     <row r="1458" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1458" s="30" t="s">
-        <v>5228</v>
+        <v>5227</v>
       </c>
       <c r="B1458" s="29"/>
       <c r="C1458" s="29"/>
@@ -51260,13 +51261,13 @@
         <v>241</v>
       </c>
       <c r="E1458" s="7" t="s">
+        <v>5228</v>
+      </c>
+      <c r="F1458" s="7" t="s">
         <v>5229</v>
       </c>
-      <c r="F1458" s="7" t="s">
+      <c r="G1458" s="7" t="s">
         <v>5230</v>
-      </c>
-      <c r="G1458" s="7" t="s">
-        <v>5231</v>
       </c>
       <c r="H1458" s="5"/>
       <c r="I1458" s="5"/>
@@ -51274,7 +51275,7 @@
     </row>
     <row r="1459" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1459" s="9" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="B1459" s="5"/>
       <c r="C1459" s="5"/>
@@ -51282,10 +51283,10 @@
         <v>301</v>
       </c>
       <c r="E1459" s="10" t="s">
+        <v>5232</v>
+      </c>
+      <c r="F1459" s="10" t="s">
         <v>5233</v>
-      </c>
-      <c r="F1459" s="10" t="s">
-        <v>5234</v>
       </c>
       <c r="G1459" s="5"/>
       <c r="H1459" s="5"/>
@@ -51294,7 +51295,7 @@
     </row>
     <row r="1460" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1460" s="25" t="s">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="B1460" s="26" t="s">
         <v>292</v>
@@ -51304,10 +51305,10 @@
         <v>236</v>
       </c>
       <c r="E1460" s="10" t="s">
+        <v>5235</v>
+      </c>
+      <c r="F1460" s="10" t="s">
         <v>5236</v>
-      </c>
-      <c r="F1460" s="10" t="s">
-        <v>5237</v>
       </c>
       <c r="G1460" s="5"/>
       <c r="H1460" s="5"/>
@@ -51316,7 +51317,7 @@
     </row>
     <row r="1461" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1461" s="30" t="s">
-        <v>5238</v>
+        <v>5237</v>
       </c>
       <c r="B1461" s="37" t="s">
         <v>245</v>
@@ -51326,13 +51327,13 @@
         <v>271</v>
       </c>
       <c r="E1461" s="7" t="s">
+        <v>5238</v>
+      </c>
+      <c r="F1461" s="7" t="s">
         <v>5239</v>
       </c>
-      <c r="F1461" s="7" t="s">
+      <c r="G1461" s="7" t="s">
         <v>5240</v>
-      </c>
-      <c r="G1461" s="7" t="s">
-        <v>5241</v>
       </c>
       <c r="H1461" s="5"/>
       <c r="I1461" s="5"/>
@@ -51340,7 +51341,7 @@
     </row>
     <row r="1462" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1462" s="4" t="s">
-        <v>5242</v>
+        <v>5241</v>
       </c>
       <c r="B1462" s="6" t="s">
         <v>245</v>
@@ -51350,10 +51351,10 @@
         <v>236</v>
       </c>
       <c r="E1462" s="7" t="s">
+        <v>5242</v>
+      </c>
+      <c r="F1462" s="7" t="s">
         <v>5243</v>
-      </c>
-      <c r="F1462" s="7" t="s">
-        <v>5244</v>
       </c>
       <c r="G1462" s="5"/>
       <c r="H1462" s="5"/>
@@ -51362,7 +51363,7 @@
     </row>
     <row r="1463" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1463" s="25" t="s">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="B1463" s="27"/>
       <c r="C1463" s="27"/>
@@ -51370,10 +51371,10 @@
         <v>232</v>
       </c>
       <c r="E1463" s="10" t="s">
+        <v>5245</v>
+      </c>
+      <c r="F1463" s="10" t="s">
         <v>5246</v>
-      </c>
-      <c r="F1463" s="10" t="s">
-        <v>5247</v>
       </c>
       <c r="G1463" s="5"/>
       <c r="H1463" s="5"/>
@@ -51382,7 +51383,7 @@
     </row>
     <row r="1464" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1464" s="30" t="s">
-        <v>5248</v>
+        <v>5247</v>
       </c>
       <c r="B1464" s="37" t="s">
         <v>292</v>
@@ -51392,10 +51393,10 @@
         <v>236</v>
       </c>
       <c r="E1464" s="7" t="s">
+        <v>5248</v>
+      </c>
+      <c r="F1464" s="7" t="s">
         <v>5249</v>
-      </c>
-      <c r="F1464" s="7" t="s">
-        <v>5250</v>
       </c>
       <c r="G1464" s="5"/>
       <c r="H1464" s="5"/>
@@ -51404,7 +51405,7 @@
     </row>
     <row r="1465" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1465" s="32" t="s">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="B1465" s="33" t="s">
         <v>245</v>
@@ -51414,10 +51415,10 @@
         <v>271</v>
       </c>
       <c r="E1465" s="7" t="s">
+        <v>5251</v>
+      </c>
+      <c r="F1465" s="7" t="s">
         <v>5252</v>
-      </c>
-      <c r="F1465" s="7" t="s">
-        <v>5253</v>
       </c>
       <c r="G1465" s="5"/>
       <c r="H1465" s="5"/>
@@ -51426,7 +51427,7 @@
     </row>
     <row r="1466" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1466" s="30" t="s">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="B1466" s="29"/>
       <c r="C1466" s="29"/>
@@ -51434,13 +51435,13 @@
         <v>1361</v>
       </c>
       <c r="E1466" s="7" t="s">
+        <v>5254</v>
+      </c>
+      <c r="F1466" s="7" t="s">
         <v>5255</v>
       </c>
-      <c r="F1466" s="7" t="s">
+      <c r="G1466" s="7" t="s">
         <v>5256</v>
-      </c>
-      <c r="G1466" s="7" t="s">
-        <v>5257</v>
       </c>
       <c r="H1466" s="5"/>
       <c r="I1466" s="5"/>
@@ -51448,7 +51449,7 @@
     </row>
     <row r="1467" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1467" s="30" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="B1467" s="37" t="s">
         <v>292</v>
@@ -51458,10 +51459,10 @@
         <v>236</v>
       </c>
       <c r="E1467" s="7" t="s">
+        <v>5258</v>
+      </c>
+      <c r="F1467" s="7" t="s">
         <v>5259</v>
-      </c>
-      <c r="F1467" s="7" t="s">
-        <v>5260</v>
       </c>
       <c r="G1467" s="5"/>
       <c r="H1467" s="5"/>
@@ -51470,7 +51471,7 @@
     </row>
     <row r="1468" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1468" s="30" t="s">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="B1468" s="37" t="s">
         <v>292</v>
@@ -51480,13 +51481,13 @@
         <v>236</v>
       </c>
       <c r="E1468" s="7" t="s">
+        <v>5261</v>
+      </c>
+      <c r="F1468" s="7" t="s">
         <v>5262</v>
       </c>
-      <c r="F1468" s="7" t="s">
+      <c r="G1468" s="7" t="s">
         <v>5263</v>
-      </c>
-      <c r="G1468" s="7" t="s">
-        <v>5264</v>
       </c>
       <c r="H1468" s="5"/>
       <c r="I1468" s="5"/>
@@ -51494,7 +51495,7 @@
     </row>
     <row r="1469" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1469" s="32" t="s">
-        <v>5265</v>
+        <v>5264</v>
       </c>
       <c r="B1469" s="27"/>
       <c r="C1469" s="27"/>
@@ -51502,13 +51503,13 @@
         <v>236</v>
       </c>
       <c r="E1469" s="7" t="s">
+        <v>5265</v>
+      </c>
+      <c r="F1469" s="7" t="s">
         <v>5266</v>
       </c>
-      <c r="F1469" s="7" t="s">
+      <c r="G1469" s="7" t="s">
         <v>5267</v>
-      </c>
-      <c r="G1469" s="7" t="s">
-        <v>5268</v>
       </c>
       <c r="H1469" s="5"/>
       <c r="I1469" s="5"/>
@@ -51516,7 +51517,7 @@
     </row>
     <row r="1470" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1470" s="30" t="s">
-        <v>5269</v>
+        <v>5268</v>
       </c>
       <c r="B1470" s="29"/>
       <c r="C1470" s="29"/>
@@ -51524,10 +51525,10 @@
         <v>236</v>
       </c>
       <c r="E1470" s="7" t="s">
+        <v>5269</v>
+      </c>
+      <c r="F1470" s="7" t="s">
         <v>5270</v>
-      </c>
-      <c r="F1470" s="7" t="s">
-        <v>5271</v>
       </c>
       <c r="G1470" s="5"/>
       <c r="H1470" s="5"/>
@@ -51536,7 +51537,7 @@
     </row>
     <row r="1471" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1471" s="4" t="s">
-        <v>5272</v>
+        <v>5271</v>
       </c>
       <c r="B1471" s="5"/>
       <c r="C1471" s="5"/>
@@ -51544,13 +51545,13 @@
         <v>241</v>
       </c>
       <c r="E1471" s="7" t="s">
+        <v>5272</v>
+      </c>
+      <c r="F1471" s="7" t="s">
         <v>5273</v>
       </c>
-      <c r="F1471" s="7" t="s">
+      <c r="G1471" s="7" t="s">
         <v>5274</v>
-      </c>
-      <c r="G1471" s="7" t="s">
-        <v>5275</v>
       </c>
       <c r="H1471" s="5"/>
       <c r="I1471" s="5"/>
@@ -51558,7 +51559,7 @@
     </row>
     <row r="1472" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1472" s="12" t="s">
-        <v>5276</v>
+        <v>5275</v>
       </c>
       <c r="B1472" s="13"/>
       <c r="C1472" s="13"/>
@@ -51566,10 +51567,10 @@
         <v>271</v>
       </c>
       <c r="E1472" s="7" t="s">
+        <v>5276</v>
+      </c>
+      <c r="F1472" s="7" t="s">
         <v>5277</v>
-      </c>
-      <c r="F1472" s="7" t="s">
-        <v>5278</v>
       </c>
       <c r="G1472" s="5"/>
       <c r="H1472" s="5"/>
@@ -51578,7 +51579,7 @@
     </row>
     <row r="1473" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1473" s="4" t="s">
-        <v>5279</v>
+        <v>5278</v>
       </c>
       <c r="B1473" s="5"/>
       <c r="C1473" s="5"/>
@@ -51586,13 +51587,13 @@
         <v>241</v>
       </c>
       <c r="E1473" s="7" t="s">
+        <v>5279</v>
+      </c>
+      <c r="F1473" s="7" t="s">
         <v>5280</v>
       </c>
-      <c r="F1473" s="7" t="s">
+      <c r="G1473" s="7" t="s">
         <v>5281</v>
-      </c>
-      <c r="G1473" s="7" t="s">
-        <v>5282</v>
       </c>
       <c r="H1473" s="5"/>
       <c r="I1473" s="5"/>
@@ -51600,18 +51601,18 @@
     </row>
     <row r="1474" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1474" s="12" t="s">
-        <v>5283</v>
+        <v>5282</v>
       </c>
       <c r="B1474" s="13"/>
       <c r="C1474" s="13"/>
       <c r="D1474" s="7" t="s">
+        <v>5283</v>
+      </c>
+      <c r="E1474" s="7" t="s">
         <v>5284</v>
       </c>
-      <c r="E1474" s="7" t="s">
+      <c r="F1474" s="7" t="s">
         <v>5285</v>
-      </c>
-      <c r="F1474" s="7" t="s">
-        <v>5286</v>
       </c>
       <c r="G1474" s="5"/>
       <c r="H1474" s="5"/>
@@ -51620,7 +51621,7 @@
     </row>
     <row r="1475" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1475" s="4" t="s">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="B1475" s="5"/>
       <c r="C1475" s="5"/>
@@ -51631,10 +51632,10 @@
         <v>2452</v>
       </c>
       <c r="F1475" s="7" t="s">
+        <v>5287</v>
+      </c>
+      <c r="G1475" s="7" t="s">
         <v>5288</v>
-      </c>
-      <c r="G1475" s="7" t="s">
-        <v>5289</v>
       </c>
       <c r="H1475" s="5"/>
       <c r="I1475" s="5"/>
@@ -51642,7 +51643,7 @@
     </row>
     <row r="1476" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1476" s="4" t="s">
-        <v>5290</v>
+        <v>5289</v>
       </c>
       <c r="B1476" s="6" t="s">
         <v>292</v>
@@ -51652,13 +51653,13 @@
         <v>236</v>
       </c>
       <c r="E1476" s="7" t="s">
+        <v>5290</v>
+      </c>
+      <c r="F1476" s="7" t="s">
         <v>5291</v>
       </c>
-      <c r="F1476" s="7" t="s">
+      <c r="G1476" s="7" t="s">
         <v>5292</v>
-      </c>
-      <c r="G1476" s="7" t="s">
-        <v>5293</v>
       </c>
       <c r="H1476" s="5"/>
       <c r="I1476" s="5"/>
@@ -51666,7 +51667,7 @@
     </row>
     <row r="1477" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1477" s="4" t="s">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="B1477" s="5"/>
       <c r="C1477" s="5"/>
@@ -51674,13 +51675,13 @@
         <v>232</v>
       </c>
       <c r="E1477" s="7" t="s">
+        <v>5294</v>
+      </c>
+      <c r="F1477" s="7" t="s">
         <v>5295</v>
       </c>
-      <c r="F1477" s="7" t="s">
+      <c r="G1477" s="7" t="s">
         <v>5296</v>
-      </c>
-      <c r="G1477" s="7" t="s">
-        <v>5297</v>
       </c>
       <c r="H1477" s="5"/>
       <c r="I1477" s="5"/>
@@ -51688,7 +51689,7 @@
     </row>
     <row r="1478" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1478" s="4" t="s">
-        <v>5298</v>
+        <v>5297</v>
       </c>
       <c r="B1478" s="6" t="s">
         <v>245</v>
@@ -51698,10 +51699,10 @@
         <v>236</v>
       </c>
       <c r="E1478" s="7" t="s">
+        <v>5298</v>
+      </c>
+      <c r="F1478" s="7" t="s">
         <v>5299</v>
-      </c>
-      <c r="F1478" s="7" t="s">
-        <v>5300</v>
       </c>
       <c r="G1478" s="5"/>
       <c r="H1478" s="5"/>
@@ -51710,7 +51711,7 @@
     </row>
     <row r="1479" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1479" s="4" t="s">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="B1479" s="5"/>
       <c r="C1479" s="5"/>
@@ -51718,10 +51719,10 @@
         <v>241</v>
       </c>
       <c r="E1479" s="7" t="s">
+        <v>5301</v>
+      </c>
+      <c r="F1479" s="7" t="s">
         <v>5302</v>
-      </c>
-      <c r="F1479" s="7" t="s">
-        <v>5303</v>
       </c>
       <c r="G1479" s="5"/>
       <c r="H1479" s="5"/>
@@ -51730,7 +51731,7 @@
     </row>
     <row r="1480" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1480" s="4" t="s">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="B1480" s="6" t="s">
         <v>245</v>
@@ -51740,13 +51741,13 @@
         <v>236</v>
       </c>
       <c r="E1480" s="7" t="s">
+        <v>5304</v>
+      </c>
+      <c r="F1480" s="7" t="s">
         <v>5305</v>
       </c>
-      <c r="F1480" s="7" t="s">
+      <c r="G1480" s="7" t="s">
         <v>5306</v>
-      </c>
-      <c r="G1480" s="7" t="s">
-        <v>5307</v>
       </c>
       <c r="H1480" s="5"/>
       <c r="I1480" s="5"/>
@@ -51754,7 +51755,7 @@
     </row>
     <row r="1481" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1481" s="9" t="s">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="B1481" s="5"/>
       <c r="C1481" s="5"/>
@@ -51762,10 +51763,10 @@
         <v>236</v>
       </c>
       <c r="E1481" s="10" t="s">
+        <v>5308</v>
+      </c>
+      <c r="F1481" s="10" t="s">
         <v>5309</v>
-      </c>
-      <c r="F1481" s="10" t="s">
-        <v>5310</v>
       </c>
       <c r="G1481" s="5"/>
       <c r="H1481" s="5"/>
@@ -51774,7 +51775,7 @@
     </row>
     <row r="1482" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1482" s="9" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="B1482" s="10" t="s">
         <v>245</v>
@@ -51784,13 +51785,13 @@
         <v>236</v>
       </c>
       <c r="E1482" s="10" t="s">
+        <v>5311</v>
+      </c>
+      <c r="F1482" s="10" t="s">
         <v>5312</v>
       </c>
-      <c r="F1482" s="10" t="s">
+      <c r="G1482" s="10" t="s">
         <v>5313</v>
-      </c>
-      <c r="G1482" s="10" t="s">
-        <v>5314</v>
       </c>
       <c r="H1482" s="5"/>
       <c r="I1482" s="5"/>
@@ -51798,21 +51799,21 @@
     </row>
     <row r="1483" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1483" s="4" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="B1483" s="5"/>
       <c r="C1483" s="5"/>
       <c r="D1483" s="7" t="s">
+        <v>5315</v>
+      </c>
+      <c r="E1483" s="7" t="s">
         <v>5316</v>
       </c>
-      <c r="E1483" s="7" t="s">
+      <c r="F1483" s="7" t="s">
         <v>5317</v>
       </c>
-      <c r="F1483" s="7" t="s">
+      <c r="G1483" s="7" t="s">
         <v>5318</v>
-      </c>
-      <c r="G1483" s="7" t="s">
-        <v>5319</v>
       </c>
       <c r="H1483" s="5"/>
       <c r="I1483" s="5"/>
@@ -51820,7 +51821,7 @@
     </row>
     <row r="1484" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1484" s="32" t="s">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="B1484" s="27"/>
       <c r="C1484" s="27"/>
@@ -51828,13 +51829,13 @@
         <v>210</v>
       </c>
       <c r="E1484" s="7" t="s">
+        <v>5320</v>
+      </c>
+      <c r="F1484" s="7" t="s">
         <v>5321</v>
       </c>
-      <c r="F1484" s="7" t="s">
+      <c r="G1484" s="7" t="s">
         <v>5322</v>
-      </c>
-      <c r="G1484" s="7" t="s">
-        <v>5323</v>
       </c>
       <c r="H1484" s="5"/>
       <c r="I1484" s="5"/>
@@ -51842,7 +51843,7 @@
     </row>
     <row r="1485" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1485" s="30" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="B1485" s="29"/>
       <c r="C1485" s="29"/>
@@ -51850,13 +51851,13 @@
         <v>439</v>
       </c>
       <c r="E1485" s="7" t="s">
+        <v>5324</v>
+      </c>
+      <c r="F1485" s="7" t="s">
         <v>5325</v>
       </c>
-      <c r="F1485" s="7" t="s">
+      <c r="G1485" s="7" t="s">
         <v>5326</v>
-      </c>
-      <c r="G1485" s="7" t="s">
-        <v>5327</v>
       </c>
       <c r="H1485" s="5"/>
       <c r="I1485" s="5"/>
@@ -51864,7 +51865,7 @@
     </row>
     <row r="1486" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1486" s="30" t="s">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="B1486" s="29"/>
       <c r="C1486" s="29"/>
@@ -51872,21 +51873,21 @@
         <v>210</v>
       </c>
       <c r="E1486" s="7" t="s">
+        <v>5328</v>
+      </c>
+      <c r="F1486" s="7" t="s">
         <v>5329</v>
-      </c>
-      <c r="F1486" s="7" t="s">
-        <v>5330</v>
       </c>
       <c r="G1486" s="5"/>
       <c r="H1486" s="7" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="I1486" s="5"/>
       <c r="J1486" s="5"/>
     </row>
     <row r="1487" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1487" s="4" t="s">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="B1487" s="5"/>
       <c r="C1487" s="5"/>
@@ -51894,13 +51895,13 @@
         <v>236</v>
       </c>
       <c r="E1487" s="7" t="s">
+        <v>5332</v>
+      </c>
+      <c r="F1487" s="7" t="s">
         <v>5333</v>
       </c>
-      <c r="F1487" s="7" t="s">
+      <c r="G1487" s="7" t="s">
         <v>5334</v>
-      </c>
-      <c r="G1487" s="7" t="s">
-        <v>5335</v>
       </c>
       <c r="H1487" s="5"/>
       <c r="I1487" s="5"/>
@@ -51908,7 +51909,7 @@
     </row>
     <row r="1488" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1488" s="4" t="s">
-        <v>5336</v>
+        <v>5335</v>
       </c>
       <c r="B1488" s="5"/>
       <c r="C1488" s="5"/>
@@ -51916,13 +51917,13 @@
         <v>1361</v>
       </c>
       <c r="E1488" s="7" t="s">
+        <v>5336</v>
+      </c>
+      <c r="F1488" s="7" t="s">
         <v>5337</v>
       </c>
-      <c r="F1488" s="7" t="s">
+      <c r="G1488" s="7" t="s">
         <v>5338</v>
-      </c>
-      <c r="G1488" s="7" t="s">
-        <v>5339</v>
       </c>
       <c r="H1488" s="5"/>
       <c r="I1488" s="5"/>
@@ -51930,7 +51931,7 @@
     </row>
     <row r="1489" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1489" s="4" t="s">
-        <v>5340</v>
+        <v>5339</v>
       </c>
       <c r="B1489" s="5"/>
       <c r="C1489" s="5"/>
@@ -51938,10 +51939,10 @@
         <v>241</v>
       </c>
       <c r="E1489" s="7" t="s">
+        <v>5340</v>
+      </c>
+      <c r="F1489" s="7" t="s">
         <v>5341</v>
-      </c>
-      <c r="F1489" s="7" t="s">
-        <v>5342</v>
       </c>
       <c r="G1489" s="5"/>
       <c r="H1489" s="5"/>
@@ -51950,7 +51951,7 @@
     </row>
     <row r="1490" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1490" s="4" t="s">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="B1490" s="6" t="s">
         <v>245</v>
@@ -51960,10 +51961,10 @@
         <v>236</v>
       </c>
       <c r="E1490" s="7" t="s">
+        <v>5343</v>
+      </c>
+      <c r="F1490" s="7" t="s">
         <v>5344</v>
-      </c>
-      <c r="F1490" s="7" t="s">
-        <v>5345</v>
       </c>
       <c r="G1490" s="5"/>
       <c r="H1490" s="5"/>
@@ -51972,7 +51973,7 @@
     </row>
     <row r="1491" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1491" s="4" t="s">
-        <v>5346</v>
+        <v>5345</v>
       </c>
       <c r="B1491" s="5"/>
       <c r="C1491" s="5"/>
@@ -51983,7 +51984,7 @@
         <v>4764</v>
       </c>
       <c r="F1491" s="7" t="s">
-        <v>5347</v>
+        <v>5346</v>
       </c>
       <c r="G1491" s="5"/>
       <c r="H1491" s="5"/>
@@ -51992,7 +51993,7 @@
     </row>
     <row r="1492" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1492" s="4" t="s">
-        <v>5348</v>
+        <v>5347</v>
       </c>
       <c r="B1492" s="6" t="s">
         <v>245</v>
@@ -52002,13 +52003,13 @@
         <v>236</v>
       </c>
       <c r="E1492" s="7" t="s">
+        <v>5348</v>
+      </c>
+      <c r="F1492" s="7" t="s">
         <v>5349</v>
       </c>
-      <c r="F1492" s="7" t="s">
+      <c r="G1492" s="7" t="s">
         <v>5350</v>
-      </c>
-      <c r="G1492" s="7" t="s">
-        <v>5351</v>
       </c>
       <c r="H1492" s="5"/>
       <c r="I1492" s="5"/>
@@ -52016,7 +52017,7 @@
     </row>
     <row r="1493" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1493" s="9" t="s">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="B1493" s="10" t="s">
         <v>292</v>
@@ -52026,13 +52027,13 @@
         <v>236</v>
       </c>
       <c r="E1493" s="10" t="s">
+        <v>5352</v>
+      </c>
+      <c r="F1493" s="10" t="s">
         <v>5353</v>
       </c>
-      <c r="F1493" s="10" t="s">
+      <c r="G1493" s="10" t="s">
         <v>5354</v>
-      </c>
-      <c r="G1493" s="10" t="s">
-        <v>5355</v>
       </c>
       <c r="H1493" s="5"/>
       <c r="I1493" s="5"/>
@@ -52040,7 +52041,7 @@
     </row>
     <row r="1494" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1494" s="4" t="s">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="B1494" s="5"/>
       <c r="C1494" s="5"/>
@@ -52048,13 +52049,13 @@
         <v>232</v>
       </c>
       <c r="E1494" s="7" t="s">
+        <v>5356</v>
+      </c>
+      <c r="F1494" s="7" t="s">
         <v>5357</v>
       </c>
-      <c r="F1494" s="7" t="s">
+      <c r="G1494" s="7" t="s">
         <v>5358</v>
-      </c>
-      <c r="G1494" s="7" t="s">
-        <v>5359</v>
       </c>
       <c r="H1494" s="5"/>
       <c r="I1494" s="5"/>
@@ -52062,7 +52063,7 @@
     </row>
     <row r="1495" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1495" s="4" t="s">
-        <v>5360</v>
+        <v>5359</v>
       </c>
       <c r="B1495" s="5"/>
       <c r="C1495" s="5"/>
@@ -52070,10 +52071,10 @@
         <v>210</v>
       </c>
       <c r="E1495" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="F1495" s="7" t="s">
         <v>5361</v>
-      </c>
-      <c r="F1495" s="7" t="s">
-        <v>5362</v>
       </c>
       <c r="G1495" s="5"/>
       <c r="H1495" s="5"/>
@@ -52082,7 +52083,7 @@
     </row>
     <row r="1496" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1496" s="4" t="s">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="B1496" s="5"/>
       <c r="C1496" s="5"/>
@@ -52090,13 +52091,13 @@
         <v>301</v>
       </c>
       <c r="E1496" s="7" t="s">
+        <v>5363</v>
+      </c>
+      <c r="F1496" s="7" t="s">
         <v>5364</v>
       </c>
-      <c r="F1496" s="7" t="s">
+      <c r="G1496" s="7" t="s">
         <v>5365</v>
-      </c>
-      <c r="G1496" s="7" t="s">
-        <v>5366</v>
       </c>
       <c r="H1496" s="5"/>
       <c r="I1496" s="5"/>
@@ -52104,7 +52105,7 @@
     </row>
     <row r="1497" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1497" s="4" t="s">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="B1497" s="5"/>
       <c r="C1497" s="5"/>
@@ -52112,10 +52113,10 @@
         <v>706</v>
       </c>
       <c r="E1497" s="7" t="s">
+        <v>5367</v>
+      </c>
+      <c r="F1497" s="7" t="s">
         <v>5368</v>
-      </c>
-      <c r="F1497" s="7" t="s">
-        <v>5369</v>
       </c>
       <c r="G1497" s="5"/>
       <c r="H1497" s="5"/>
@@ -52124,7 +52125,7 @@
     </row>
     <row r="1498" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1498" s="4" t="s">
-        <v>5370</v>
+        <v>5369</v>
       </c>
       <c r="B1498" s="5"/>
       <c r="C1498" s="5"/>
@@ -52132,10 +52133,10 @@
         <v>210</v>
       </c>
       <c r="E1498" s="7" t="s">
+        <v>5370</v>
+      </c>
+      <c r="F1498" s="7" t="s">
         <v>5371</v>
-      </c>
-      <c r="F1498" s="7" t="s">
-        <v>5372</v>
       </c>
       <c r="G1498" s="5"/>
       <c r="H1498" s="5"/>
@@ -52144,7 +52145,7 @@
     </row>
     <row r="1499" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1499" s="4" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
       <c r="B1499" s="6" t="s">
         <v>245</v>
@@ -52154,13 +52155,13 @@
         <v>236</v>
       </c>
       <c r="E1499" s="7" t="s">
+        <v>5373</v>
+      </c>
+      <c r="F1499" s="7" t="s">
         <v>5374</v>
       </c>
-      <c r="F1499" s="7" t="s">
+      <c r="G1499" s="7" t="s">
         <v>5375</v>
-      </c>
-      <c r="G1499" s="7" t="s">
-        <v>5376</v>
       </c>
       <c r="H1499" s="5"/>
       <c r="I1499" s="5"/>
@@ -52168,7 +52169,7 @@
     </row>
     <row r="1500" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1500" s="4" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="B1500" s="6" t="s">
         <v>245</v>
@@ -52178,13 +52179,13 @@
         <v>236</v>
       </c>
       <c r="E1500" s="7" t="s">
+        <v>5377</v>
+      </c>
+      <c r="F1500" s="7" t="s">
         <v>5378</v>
       </c>
-      <c r="F1500" s="7" t="s">
+      <c r="G1500" s="7" t="s">
         <v>5379</v>
-      </c>
-      <c r="G1500" s="7" t="s">
-        <v>5380</v>
       </c>
       <c r="H1500" s="5"/>
       <c r="I1500" s="5"/>
@@ -52192,7 +52193,7 @@
     </row>
     <row r="1501" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1501" s="4" t="s">
-        <v>5381</v>
+        <v>5380</v>
       </c>
       <c r="B1501" s="6" t="s">
         <v>292</v>
@@ -52202,10 +52203,10 @@
         <v>236</v>
       </c>
       <c r="E1501" s="7" t="s">
+        <v>5381</v>
+      </c>
+      <c r="F1501" s="7" t="s">
         <v>5382</v>
-      </c>
-      <c r="F1501" s="7" t="s">
-        <v>5383</v>
       </c>
       <c r="G1501" s="5"/>
       <c r="H1501" s="5"/>
@@ -52214,7 +52215,7 @@
     </row>
     <row r="1502" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1502" s="4" t="s">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="B1502" s="5"/>
       <c r="C1502" s="5"/>
@@ -52222,10 +52223,10 @@
         <v>241</v>
       </c>
       <c r="E1502" s="7" t="s">
+        <v>5384</v>
+      </c>
+      <c r="F1502" s="7" t="s">
         <v>5385</v>
-      </c>
-      <c r="F1502" s="7" t="s">
-        <v>5386</v>
       </c>
       <c r="G1502" s="5"/>
       <c r="H1502" s="5"/>
@@ -52234,7 +52235,7 @@
     </row>
     <row r="1503" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1503" s="32" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="B1503" s="27"/>
       <c r="C1503" s="27"/>
@@ -52242,13 +52243,13 @@
         <v>301</v>
       </c>
       <c r="E1503" s="7" t="s">
+        <v>5387</v>
+      </c>
+      <c r="F1503" s="7" t="s">
         <v>5388</v>
       </c>
-      <c r="F1503" s="7" t="s">
+      <c r="G1503" s="7" t="s">
         <v>5389</v>
-      </c>
-      <c r="G1503" s="7" t="s">
-        <v>5390</v>
       </c>
       <c r="H1503" s="5"/>
       <c r="I1503" s="5"/>
@@ -52256,7 +52257,7 @@
     </row>
     <row r="1504" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1504" s="30" t="s">
-        <v>5391</v>
+        <v>5390</v>
       </c>
       <c r="B1504" s="29"/>
       <c r="C1504" s="29"/>
@@ -52264,13 +52265,13 @@
         <v>301</v>
       </c>
       <c r="E1504" s="7" t="s">
+        <v>5391</v>
+      </c>
+      <c r="F1504" s="54" t="s">
         <v>5392</v>
       </c>
-      <c r="F1504" s="54" t="s">
+      <c r="G1504" s="7" t="s">
         <v>5393</v>
-      </c>
-      <c r="G1504" s="7" t="s">
-        <v>5394</v>
       </c>
       <c r="H1504" s="5"/>
       <c r="I1504" s="5"/>
@@ -52278,7 +52279,7 @@
     </row>
     <row r="1505" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1505" s="55" t="s">
-        <v>5395</v>
+        <v>5394</v>
       </c>
       <c r="B1505" s="29"/>
       <c r="C1505" s="29"/>
@@ -52286,10 +52287,10 @@
         <v>241</v>
       </c>
       <c r="E1505" s="56" t="s">
+        <v>5395</v>
+      </c>
+      <c r="F1505" s="31" t="s">
         <v>5396</v>
-      </c>
-      <c r="F1505" s="31" t="s">
-        <v>5397</v>
       </c>
       <c r="G1505" s="5"/>
       <c r="H1505" s="5"/>
@@ -52298,7 +52299,7 @@
     </row>
     <row r="1506" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1506" s="28" t="s">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="B1506" s="29"/>
       <c r="C1506" s="29"/>
@@ -52309,10 +52310,10 @@
         <v>3676</v>
       </c>
       <c r="F1506" s="10" t="s">
+        <v>5398</v>
+      </c>
+      <c r="G1506" s="10" t="s">
         <v>5399</v>
-      </c>
-      <c r="G1506" s="10" t="s">
-        <v>5400</v>
       </c>
       <c r="H1506" s="5"/>
       <c r="I1506" s="5"/>
@@ -52320,7 +52321,7 @@
     </row>
     <row r="1507" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1507" s="4" t="s">
-        <v>5401</v>
+        <v>5400</v>
       </c>
       <c r="B1507" s="6" t="s">
         <v>245</v>
@@ -52330,23 +52331,23 @@
         <v>236</v>
       </c>
       <c r="E1507" s="7" t="s">
+        <v>5401</v>
+      </c>
+      <c r="F1507" s="7" t="s">
         <v>5402</v>
       </c>
-      <c r="F1507" s="7" t="s">
+      <c r="G1507" s="7" t="s">
         <v>5403</v>
-      </c>
-      <c r="G1507" s="7" t="s">
-        <v>5404</v>
       </c>
       <c r="H1507" s="5"/>
       <c r="I1507" s="7" t="s">
-        <v>5405</v>
+        <v>5404</v>
       </c>
       <c r="J1507" s="5"/>
     </row>
     <row r="1508" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1508" s="9" t="s">
-        <v>5406</v>
+        <v>5405</v>
       </c>
       <c r="B1508" s="5"/>
       <c r="C1508" s="5"/>
@@ -52354,10 +52355,10 @@
         <v>232</v>
       </c>
       <c r="E1508" s="10" t="s">
+        <v>5406</v>
+      </c>
+      <c r="F1508" s="10" t="s">
         <v>5407</v>
-      </c>
-      <c r="F1508" s="10" t="s">
-        <v>5408</v>
       </c>
       <c r="G1508" s="5"/>
       <c r="H1508" s="5"/>
@@ -52366,7 +52367,7 @@
     </row>
     <row r="1509" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1509" s="9" t="s">
-        <v>5409</v>
+        <v>5408</v>
       </c>
       <c r="B1509" s="5"/>
       <c r="C1509" s="5"/>
@@ -52374,10 +52375,10 @@
         <v>236</v>
       </c>
       <c r="E1509" s="10" t="s">
+        <v>5409</v>
+      </c>
+      <c r="F1509" s="10" t="s">
         <v>5410</v>
-      </c>
-      <c r="F1509" s="10" t="s">
-        <v>5411</v>
       </c>
       <c r="G1509" s="5"/>
       <c r="H1509" s="5"/>
@@ -52386,7 +52387,7 @@
     </row>
     <row r="1510" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1510" s="9" t="s">
-        <v>5412</v>
+        <v>5411</v>
       </c>
       <c r="B1510" s="5"/>
       <c r="C1510" s="5"/>
@@ -52394,13 +52395,13 @@
         <v>232</v>
       </c>
       <c r="E1510" s="10" t="s">
+        <v>5412</v>
+      </c>
+      <c r="F1510" s="10" t="s">
         <v>5413</v>
       </c>
-      <c r="F1510" s="10" t="s">
+      <c r="G1510" s="10" t="s">
         <v>5414</v>
-      </c>
-      <c r="G1510" s="10" t="s">
-        <v>5415</v>
       </c>
       <c r="H1510" s="5"/>
       <c r="I1510" s="5"/>
@@ -52408,7 +52409,7 @@
     </row>
     <row r="1511" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1511" s="9" t="s">
-        <v>5416</v>
+        <v>5415</v>
       </c>
       <c r="B1511" s="10" t="s">
         <v>245</v>
@@ -52418,13 +52419,13 @@
         <v>236</v>
       </c>
       <c r="E1511" s="10" t="s">
+        <v>5416</v>
+      </c>
+      <c r="F1511" s="10" t="s">
         <v>5417</v>
       </c>
-      <c r="F1511" s="10" t="s">
+      <c r="G1511" s="10" t="s">
         <v>5418</v>
-      </c>
-      <c r="G1511" s="10" t="s">
-        <v>5419</v>
       </c>
       <c r="H1511" s="5"/>
       <c r="I1511" s="5"/>
@@ -52432,7 +52433,7 @@
     </row>
     <row r="1512" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1512" s="4" t="s">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="B1512" s="5"/>
       <c r="C1512" s="5"/>
@@ -52440,10 +52441,10 @@
         <v>232</v>
       </c>
       <c r="E1512" s="7" t="s">
+        <v>5420</v>
+      </c>
+      <c r="F1512" s="7" t="s">
         <v>5421</v>
-      </c>
-      <c r="F1512" s="7" t="s">
-        <v>5422</v>
       </c>
       <c r="G1512" s="5"/>
       <c r="H1512" s="5"/>
@@ -52452,7 +52453,7 @@
     </row>
     <row r="1513" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1513" s="9" t="s">
-        <v>5423</v>
+        <v>5422</v>
       </c>
       <c r="B1513" s="5"/>
       <c r="C1513" s="5"/>
@@ -52460,13 +52461,13 @@
         <v>241</v>
       </c>
       <c r="E1513" s="10" t="s">
+        <v>5423</v>
+      </c>
+      <c r="F1513" s="10" t="s">
         <v>5424</v>
       </c>
-      <c r="F1513" s="10" t="s">
+      <c r="G1513" s="10" t="s">
         <v>5425</v>
-      </c>
-      <c r="G1513" s="10" t="s">
-        <v>5426</v>
       </c>
       <c r="H1513" s="5"/>
       <c r="I1513" s="5"/>
@@ -52474,7 +52475,7 @@
     </row>
     <row r="1514" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1514" s="9" t="s">
-        <v>5427</v>
+        <v>5426</v>
       </c>
       <c r="B1514" s="10" t="s">
         <v>292</v>
@@ -52484,10 +52485,10 @@
         <v>236</v>
       </c>
       <c r="E1514" s="10" t="s">
+        <v>5427</v>
+      </c>
+      <c r="F1514" s="10" t="s">
         <v>5428</v>
-      </c>
-      <c r="F1514" s="10" t="s">
-        <v>5429</v>
       </c>
       <c r="G1514" s="5"/>
       <c r="H1514" s="5"/>
@@ -52496,7 +52497,7 @@
     </row>
     <row r="1515" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1515" s="9" t="s">
-        <v>5430</v>
+        <v>5429</v>
       </c>
       <c r="B1515" s="5"/>
       <c r="C1515" s="5"/>
@@ -52504,10 +52505,10 @@
         <v>241</v>
       </c>
       <c r="E1515" s="10" t="s">
+        <v>5430</v>
+      </c>
+      <c r="F1515" s="10" t="s">
         <v>5431</v>
-      </c>
-      <c r="F1515" s="10" t="s">
-        <v>5432</v>
       </c>
       <c r="G1515" s="5"/>
       <c r="H1515" s="5"/>
@@ -52516,7 +52517,7 @@
     </row>
     <row r="1516" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1516" s="9" t="s">
-        <v>5433</v>
+        <v>5432</v>
       </c>
       <c r="B1516" s="10" t="s">
         <v>245</v>
@@ -52526,10 +52527,10 @@
         <v>236</v>
       </c>
       <c r="E1516" s="10" t="s">
+        <v>5433</v>
+      </c>
+      <c r="F1516" s="10" t="s">
         <v>5434</v>
-      </c>
-      <c r="F1516" s="10" t="s">
-        <v>5435</v>
       </c>
       <c r="G1516" s="5"/>
       <c r="H1516" s="5"/>
@@ -52538,7 +52539,7 @@
     </row>
     <row r="1517" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1517" s="4" t="s">
-        <v>5436</v>
+        <v>5435</v>
       </c>
       <c r="B1517" s="5"/>
       <c r="C1517" s="5"/>
@@ -52546,13 +52547,13 @@
         <v>241</v>
       </c>
       <c r="E1517" s="7" t="s">
+        <v>5436</v>
+      </c>
+      <c r="F1517" s="7" t="s">
         <v>5437</v>
       </c>
-      <c r="F1517" s="7" t="s">
+      <c r="G1517" s="7" t="s">
         <v>5438</v>
-      </c>
-      <c r="G1517" s="7" t="s">
-        <v>5439</v>
       </c>
       <c r="H1517" s="5"/>
       <c r="I1517" s="5"/>
@@ -52560,7 +52561,7 @@
     </row>
     <row r="1518" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1518" s="12" t="s">
-        <v>5440</v>
+        <v>5439</v>
       </c>
       <c r="B1518" s="13"/>
       <c r="C1518" s="13"/>
@@ -52568,10 +52569,10 @@
         <v>241</v>
       </c>
       <c r="E1518" s="7" t="s">
+        <v>5440</v>
+      </c>
+      <c r="F1518" s="7" t="s">
         <v>5441</v>
-      </c>
-      <c r="F1518" s="7" t="s">
-        <v>5442</v>
       </c>
       <c r="G1518" s="5"/>
       <c r="H1518" s="5"/>
@@ -52580,7 +52581,7 @@
     </row>
     <row r="1519" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1519" s="9" t="s">
-        <v>5443</v>
+        <v>5442</v>
       </c>
       <c r="B1519" s="10" t="s">
         <v>245</v>
@@ -52593,7 +52594,7 @@
         <v>122</v>
       </c>
       <c r="F1519" s="10" t="s">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="G1519" s="5"/>
       <c r="H1519" s="5"/>
@@ -52602,7 +52603,7 @@
     </row>
     <row r="1520" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1520" s="4" t="s">
-        <v>5445</v>
+        <v>5444</v>
       </c>
       <c r="B1520" s="6" t="s">
         <v>245</v>
@@ -52612,13 +52613,13 @@
         <v>236</v>
       </c>
       <c r="E1520" s="7" t="s">
+        <v>5445</v>
+      </c>
+      <c r="F1520" s="7" t="s">
         <v>5446</v>
       </c>
-      <c r="F1520" s="7" t="s">
+      <c r="G1520" s="7" t="s">
         <v>5447</v>
-      </c>
-      <c r="G1520" s="7" t="s">
-        <v>5448</v>
       </c>
       <c r="H1520" s="5"/>
       <c r="I1520" s="5"/>
@@ -52626,7 +52627,7 @@
     </row>
     <row r="1521" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1521" s="4" t="s">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="B1521" s="6" t="s">
         <v>292</v>
@@ -52636,10 +52637,10 @@
         <v>236</v>
       </c>
       <c r="E1521" s="7" t="s">
+        <v>5449</v>
+      </c>
+      <c r="F1521" s="7" t="s">
         <v>5450</v>
-      </c>
-      <c r="F1521" s="7" t="s">
-        <v>5451</v>
       </c>
       <c r="G1521" s="5"/>
       <c r="H1521" s="5"/>
@@ -52648,7 +52649,7 @@
     </row>
     <row r="1522" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1522" s="9" t="s">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="B1522" s="5"/>
       <c r="C1522" s="5"/>
@@ -52656,13 +52657,13 @@
         <v>241</v>
       </c>
       <c r="E1522" s="10" t="s">
+        <v>5452</v>
+      </c>
+      <c r="F1522" s="10" t="s">
         <v>5453</v>
       </c>
-      <c r="F1522" s="10" t="s">
+      <c r="G1522" s="10" t="s">
         <v>5454</v>
-      </c>
-      <c r="G1522" s="10" t="s">
-        <v>5455</v>
       </c>
       <c r="H1522" s="5"/>
       <c r="I1522" s="5"/>
@@ -52670,7 +52671,7 @@
     </row>
     <row r="1523" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1523" s="25" t="s">
-        <v>5456</v>
+        <v>5455</v>
       </c>
       <c r="B1523" s="27"/>
       <c r="C1523" s="27"/>
@@ -52678,10 +52679,10 @@
         <v>232</v>
       </c>
       <c r="E1523" s="10" t="s">
+        <v>5456</v>
+      </c>
+      <c r="F1523" s="10" t="s">
         <v>5457</v>
-      </c>
-      <c r="F1523" s="10" t="s">
-        <v>5458</v>
       </c>
       <c r="G1523" s="5"/>
       <c r="H1523" s="5"/>
@@ -52690,7 +52691,7 @@
     </row>
     <row r="1524" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1524" s="30" t="s">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="B1524" s="29"/>
       <c r="C1524" s="29"/>
@@ -52698,10 +52699,10 @@
         <v>3988</v>
       </c>
       <c r="E1524" s="7" t="s">
+        <v>5459</v>
+      </c>
+      <c r="F1524" s="7" t="s">
         <v>5460</v>
-      </c>
-      <c r="F1524" s="7" t="s">
-        <v>5461</v>
       </c>
       <c r="G1524" s="5"/>
       <c r="H1524" s="5"/>
@@ -52710,7 +52711,7 @@
     </row>
     <row r="1525" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1525" s="9" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="B1525" s="5"/>
       <c r="C1525" s="5"/>
@@ -52718,10 +52719,10 @@
         <v>241</v>
       </c>
       <c r="E1525" s="10" t="s">
+        <v>5462</v>
+      </c>
+      <c r="F1525" s="10" t="s">
         <v>5463</v>
-      </c>
-      <c r="F1525" s="10" t="s">
-        <v>5464</v>
       </c>
       <c r="G1525" s="5"/>
       <c r="H1525" s="5"/>
@@ -52730,7 +52731,7 @@
     </row>
     <row r="1526" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1526" s="4" t="s">
-        <v>5465</v>
+        <v>5464</v>
       </c>
       <c r="B1526" s="5"/>
       <c r="C1526" s="5"/>
@@ -52738,10 +52739,10 @@
         <v>241</v>
       </c>
       <c r="E1526" s="7" t="s">
+        <v>5465</v>
+      </c>
+      <c r="F1526" s="7" t="s">
         <v>5466</v>
-      </c>
-      <c r="F1526" s="7" t="s">
-        <v>5467</v>
       </c>
       <c r="G1526" s="5"/>
       <c r="H1526" s="5"/>
@@ -52750,7 +52751,7 @@
     </row>
     <row r="1527" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1527" s="9" t="s">
-        <v>5468</v>
+        <v>5467</v>
       </c>
       <c r="B1527" s="10" t="s">
         <v>245</v>
@@ -52760,10 +52761,10 @@
         <v>236</v>
       </c>
       <c r="E1527" s="10" t="s">
+        <v>5468</v>
+      </c>
+      <c r="F1527" s="10" t="s">
         <v>5469</v>
-      </c>
-      <c r="F1527" s="10" t="s">
-        <v>5470</v>
       </c>
       <c r="G1527" s="5"/>
       <c r="H1527" s="5"/>
@@ -52772,7 +52773,7 @@
     </row>
     <row r="1528" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1528" s="9" t="s">
-        <v>5471</v>
+        <v>5470</v>
       </c>
       <c r="B1528" s="10" t="s">
         <v>245</v>
@@ -52782,13 +52783,13 @@
         <v>236</v>
       </c>
       <c r="E1528" s="10" t="s">
+        <v>5471</v>
+      </c>
+      <c r="F1528" s="10" t="s">
         <v>5472</v>
       </c>
-      <c r="F1528" s="10" t="s">
+      <c r="G1528" s="10" t="s">
         <v>5473</v>
-      </c>
-      <c r="G1528" s="10" t="s">
-        <v>5474</v>
       </c>
       <c r="H1528" s="5"/>
       <c r="I1528" s="5"/>
@@ -52796,7 +52797,7 @@
     </row>
     <row r="1529" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1529" s="4" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="B1529" s="6" t="s">
         <v>245</v>
@@ -52806,23 +52807,23 @@
         <v>236</v>
       </c>
       <c r="E1529" s="7" t="s">
+        <v>5475</v>
+      </c>
+      <c r="F1529" s="7" t="s">
         <v>5476</v>
       </c>
-      <c r="F1529" s="7" t="s">
+      <c r="G1529" s="7" t="s">
         <v>5477</v>
-      </c>
-      <c r="G1529" s="7" t="s">
-        <v>5478</v>
       </c>
       <c r="H1529" s="5"/>
       <c r="I1529" s="7" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
       <c r="J1529" s="5"/>
     </row>
     <row r="1530" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1530" s="4" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="B1530" s="6" t="s">
         <v>245</v>
@@ -52832,23 +52833,23 @@
         <v>236</v>
       </c>
       <c r="E1530" s="7" t="s">
+        <v>5480</v>
+      </c>
+      <c r="F1530" s="7" t="s">
         <v>5481</v>
       </c>
-      <c r="F1530" s="7" t="s">
+      <c r="G1530" s="7" t="s">
         <v>5482</v>
-      </c>
-      <c r="G1530" s="7" t="s">
-        <v>5483</v>
       </c>
       <c r="H1530" s="5"/>
       <c r="I1530" s="7" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="J1530" s="5"/>
     </row>
     <row r="1531" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1531" s="4" t="s">
-        <v>5485</v>
+        <v>5484</v>
       </c>
       <c r="B1531" s="6" t="s">
         <v>292</v>
@@ -52858,13 +52859,13 @@
         <v>236</v>
       </c>
       <c r="E1531" s="7" t="s">
+        <v>5485</v>
+      </c>
+      <c r="F1531" s="7" t="s">
         <v>5486</v>
       </c>
-      <c r="F1531" s="7" t="s">
+      <c r="G1531" s="7" t="s">
         <v>5487</v>
-      </c>
-      <c r="G1531" s="7" t="s">
-        <v>5488</v>
       </c>
       <c r="H1531" s="5"/>
       <c r="I1531" s="5"/>
@@ -52872,7 +52873,7 @@
     </row>
     <row r="1532" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1532" s="4" t="s">
-        <v>5489</v>
+        <v>5488</v>
       </c>
       <c r="B1532" s="5"/>
       <c r="C1532" s="5"/>
@@ -52880,10 +52881,10 @@
         <v>232</v>
       </c>
       <c r="E1532" s="7" t="s">
+        <v>5489</v>
+      </c>
+      <c r="F1532" s="7" t="s">
         <v>5490</v>
-      </c>
-      <c r="F1532" s="7" t="s">
-        <v>5491</v>
       </c>
       <c r="G1532" s="5"/>
       <c r="H1532" s="5"/>
@@ -52892,7 +52893,7 @@
     </row>
     <row r="1533" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1533" s="9" t="s">
-        <v>5492</v>
+        <v>5491</v>
       </c>
       <c r="B1533" s="10" t="s">
         <v>245</v>
@@ -52902,10 +52903,10 @@
         <v>236</v>
       </c>
       <c r="E1533" s="10" t="s">
+        <v>5492</v>
+      </c>
+      <c r="F1533" s="10" t="s">
         <v>5493</v>
-      </c>
-      <c r="F1533" s="10" t="s">
-        <v>5494</v>
       </c>
       <c r="G1533" s="5"/>
       <c r="H1533" s="5"/>
@@ -52914,7 +52915,7 @@
     </row>
     <row r="1534" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1534" s="25" t="s">
-        <v>5495</v>
+        <v>5494</v>
       </c>
       <c r="B1534" s="27"/>
       <c r="C1534" s="27"/>
@@ -52922,10 +52923,10 @@
         <v>232</v>
       </c>
       <c r="E1534" s="10" t="s">
+        <v>5495</v>
+      </c>
+      <c r="F1534" s="10" t="s">
         <v>5496</v>
-      </c>
-      <c r="F1534" s="10" t="s">
-        <v>5497</v>
       </c>
       <c r="G1534" s="5"/>
       <c r="H1534" s="5"/>
@@ -52934,7 +52935,7 @@
     </row>
     <row r="1535" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1535" s="28" t="s">
-        <v>5498</v>
+        <v>5497</v>
       </c>
       <c r="B1535" s="29"/>
       <c r="C1535" s="29"/>
@@ -52942,10 +52943,10 @@
         <v>241</v>
       </c>
       <c r="E1535" s="10" t="s">
+        <v>5498</v>
+      </c>
+      <c r="F1535" s="10" t="s">
         <v>5499</v>
-      </c>
-      <c r="F1535" s="10" t="s">
-        <v>5500</v>
       </c>
       <c r="G1535" s="5"/>
       <c r="H1535" s="5"/>
@@ -52954,7 +52955,7 @@
     </row>
     <row r="1536" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1536" s="4" t="s">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="B1536" s="5"/>
       <c r="C1536" s="5"/>
@@ -52962,10 +52963,10 @@
         <v>241</v>
       </c>
       <c r="E1536" s="7" t="s">
+        <v>5501</v>
+      </c>
+      <c r="F1536" s="7" t="s">
         <v>5502</v>
-      </c>
-      <c r="F1536" s="7" t="s">
-        <v>5503</v>
       </c>
       <c r="G1536" s="5"/>
       <c r="H1536" s="5"/>
@@ -52974,7 +52975,7 @@
     </row>
     <row r="1537" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1537" s="9" t="s">
-        <v>5504</v>
+        <v>5503</v>
       </c>
       <c r="B1537" s="10" t="s">
         <v>245</v>
@@ -52984,10 +52985,10 @@
         <v>236</v>
       </c>
       <c r="E1537" s="10" t="s">
+        <v>5504</v>
+      </c>
+      <c r="F1537" s="10" t="s">
         <v>5505</v>
-      </c>
-      <c r="F1537" s="10" t="s">
-        <v>5506</v>
       </c>
       <c r="G1537" s="5"/>
       <c r="H1537" s="5"/>
@@ -52996,7 +52997,7 @@
     </row>
     <row r="1538" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1538" s="4" t="s">
-        <v>5507</v>
+        <v>5506</v>
       </c>
       <c r="B1538" s="5"/>
       <c r="C1538" s="5"/>
@@ -53004,10 +53005,10 @@
         <v>1410</v>
       </c>
       <c r="E1538" s="7" t="s">
+        <v>5507</v>
+      </c>
+      <c r="F1538" s="7" t="s">
         <v>5508</v>
-      </c>
-      <c r="F1538" s="7" t="s">
-        <v>5509</v>
       </c>
       <c r="G1538" s="5"/>
       <c r="H1538" s="5"/>
@@ -53016,7 +53017,7 @@
     </row>
     <row r="1539" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1539" s="9" t="s">
-        <v>5510</v>
+        <v>5509</v>
       </c>
       <c r="B1539" s="10" t="s">
         <v>245</v>
@@ -53026,10 +53027,10 @@
         <v>236</v>
       </c>
       <c r="E1539" s="10" t="s">
+        <v>5510</v>
+      </c>
+      <c r="F1539" s="10" t="s">
         <v>5511</v>
-      </c>
-      <c r="F1539" s="10" t="s">
-        <v>5512</v>
       </c>
       <c r="G1539" s="5"/>
       <c r="H1539" s="5"/>
@@ -53038,7 +53039,7 @@
     </row>
     <row r="1540" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1540" s="9" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="B1540" s="5"/>
       <c r="C1540" s="5"/>
@@ -53046,23 +53047,23 @@
         <v>1792</v>
       </c>
       <c r="E1540" s="10" t="s">
+        <v>5513</v>
+      </c>
+      <c r="F1540" s="10" t="s">
         <v>5514</v>
       </c>
-      <c r="F1540" s="10" t="s">
+      <c r="G1540" s="10" t="s">
         <v>5515</v>
-      </c>
-      <c r="G1540" s="10" t="s">
-        <v>5516</v>
       </c>
       <c r="H1540" s="5"/>
       <c r="I1540" s="10" t="s">
-        <v>5517</v>
+        <v>5516</v>
       </c>
       <c r="J1540" s="5"/>
     </row>
     <row r="1541" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1541" s="9" t="s">
-        <v>5518</v>
+        <v>5517</v>
       </c>
       <c r="B1541" s="10" t="s">
         <v>292</v>
@@ -53072,13 +53073,13 @@
         <v>236</v>
       </c>
       <c r="E1541" s="10" t="s">
+        <v>5518</v>
+      </c>
+      <c r="F1541" s="10" t="s">
         <v>5519</v>
       </c>
-      <c r="F1541" s="10" t="s">
+      <c r="G1541" s="10" t="s">
         <v>5520</v>
-      </c>
-      <c r="G1541" s="10" t="s">
-        <v>5521</v>
       </c>
       <c r="H1541" s="5"/>
       <c r="I1541" s="5"/>
@@ -53086,7 +53087,7 @@
     </row>
     <row r="1542" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1542" s="9" t="s">
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="B1542" s="5"/>
       <c r="C1542" s="5"/>
@@ -53097,7 +53098,7 @@
         <v>1628</v>
       </c>
       <c r="F1542" s="10" t="s">
-        <v>5523</v>
+        <v>5522</v>
       </c>
       <c r="G1542" s="5"/>
       <c r="H1542" s="5"/>
@@ -53106,7 +53107,7 @@
     </row>
     <row r="1543" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1543" s="4" t="s">
-        <v>5524</v>
+        <v>5523</v>
       </c>
       <c r="B1543" s="5"/>
       <c r="C1543" s="5"/>
@@ -53114,13 +53115,13 @@
         <v>232</v>
       </c>
       <c r="E1543" s="7" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1543" s="7" t="s">
         <v>5525</v>
       </c>
-      <c r="F1543" s="7" t="s">
+      <c r="G1543" s="7" t="s">
         <v>5526</v>
-      </c>
-      <c r="G1543" s="7" t="s">
-        <v>5527</v>
       </c>
       <c r="H1543" s="5"/>
       <c r="I1543" s="5"/>
@@ -53128,7 +53129,7 @@
     </row>
     <row r="1544" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1544" s="9" t="s">
-        <v>5528</v>
+        <v>5527</v>
       </c>
       <c r="B1544" s="10" t="s">
         <v>292</v>
@@ -53138,10 +53139,10 @@
         <v>236</v>
       </c>
       <c r="E1544" s="10" t="s">
+        <v>5528</v>
+      </c>
+      <c r="F1544" s="10" t="s">
         <v>5529</v>
-      </c>
-      <c r="F1544" s="10" t="s">
-        <v>5530</v>
       </c>
       <c r="G1544" s="10" t="s">
         <v>843</v>
@@ -53152,7 +53153,7 @@
     </row>
     <row r="1545" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1545" s="9" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="B1545" s="10" t="s">
         <v>245</v>
@@ -53162,13 +53163,13 @@
         <v>236</v>
       </c>
       <c r="E1545" s="10" t="s">
+        <v>5531</v>
+      </c>
+      <c r="F1545" s="10" t="s">
         <v>5532</v>
       </c>
-      <c r="F1545" s="10" t="s">
+      <c r="G1545" s="52" t="s">
         <v>5533</v>
-      </c>
-      <c r="G1545" s="52" t="s">
-        <v>5534</v>
       </c>
       <c r="H1545" s="5"/>
       <c r="I1545" s="5"/>
@@ -53176,7 +53177,7 @@
     </row>
     <row r="1546" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1546" s="9" t="s">
-        <v>5535</v>
+        <v>5534</v>
       </c>
       <c r="B1546" s="10" t="s">
         <v>245</v>
@@ -53186,10 +53187,10 @@
         <v>271</v>
       </c>
       <c r="E1546" s="10" t="s">
+        <v>5535</v>
+      </c>
+      <c r="F1546" s="10" t="s">
         <v>5536</v>
-      </c>
-      <c r="F1546" s="10" t="s">
-        <v>5537</v>
       </c>
       <c r="G1546" s="5"/>
       <c r="H1546" s="5"/>
@@ -53198,7 +53199,7 @@
     </row>
     <row r="1547" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1547" s="4" t="s">
-        <v>5538</v>
+        <v>5537</v>
       </c>
       <c r="B1547" s="5"/>
       <c r="C1547" s="5"/>
@@ -53206,10 +53207,10 @@
         <v>210</v>
       </c>
       <c r="E1547" s="7" t="s">
+        <v>5538</v>
+      </c>
+      <c r="F1547" s="7" t="s">
         <v>5539</v>
-      </c>
-      <c r="F1547" s="7" t="s">
-        <v>5540</v>
       </c>
       <c r="G1547" s="5"/>
       <c r="H1547" s="5"/>
@@ -53218,7 +53219,7 @@
     </row>
     <row r="1548" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1548" s="4" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
       <c r="B1548" s="5"/>
       <c r="C1548" s="5"/>
@@ -53226,10 +53227,10 @@
         <v>210</v>
       </c>
       <c r="E1548" s="7" t="s">
+        <v>5541</v>
+      </c>
+      <c r="F1548" s="7" t="s">
         <v>5542</v>
-      </c>
-      <c r="F1548" s="7" t="s">
-        <v>5543</v>
       </c>
       <c r="G1548" s="5"/>
       <c r="H1548" s="5"/>
@@ -53238,7 +53239,7 @@
     </row>
     <row r="1549" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1549" s="9" t="s">
-        <v>5544</v>
+        <v>5543</v>
       </c>
       <c r="B1549" s="5"/>
       <c r="C1549" s="5"/>
@@ -53246,13 +53247,13 @@
         <v>241</v>
       </c>
       <c r="E1549" s="10" t="s">
+        <v>5544</v>
+      </c>
+      <c r="F1549" s="10" t="s">
         <v>5545</v>
       </c>
-      <c r="F1549" s="10" t="s">
+      <c r="G1549" s="10" t="s">
         <v>5546</v>
-      </c>
-      <c r="G1549" s="10" t="s">
-        <v>5547</v>
       </c>
       <c r="H1549" s="5"/>
       <c r="I1549" s="5"/>
@@ -53260,7 +53261,7 @@
     </row>
     <row r="1550" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1550" s="25" t="s">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="B1550" s="27"/>
       <c r="C1550" s="27"/>
@@ -53268,10 +53269,10 @@
         <v>241</v>
       </c>
       <c r="E1550" s="10" t="s">
+        <v>5548</v>
+      </c>
+      <c r="F1550" s="10" t="s">
         <v>5549</v>
-      </c>
-      <c r="F1550" s="10" t="s">
-        <v>5550</v>
       </c>
       <c r="G1550" s="5"/>
       <c r="H1550" s="5"/>
@@ -53280,7 +53281,7 @@
     </row>
     <row r="1551" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1551" s="28" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="B1551" s="31" t="s">
         <v>245</v>
@@ -53290,10 +53291,10 @@
         <v>236</v>
       </c>
       <c r="E1551" s="10" t="s">
+        <v>5551</v>
+      </c>
+      <c r="F1551" s="10" t="s">
         <v>5552</v>
-      </c>
-      <c r="F1551" s="10" t="s">
-        <v>5553</v>
       </c>
       <c r="G1551" s="5"/>
       <c r="H1551" s="5"/>
@@ -53302,7 +53303,7 @@
     </row>
     <row r="1552" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1552" s="28" t="s">
-        <v>5554</v>
+        <v>5553</v>
       </c>
       <c r="B1552" s="29"/>
       <c r="C1552" s="29"/>
@@ -53310,10 +53311,10 @@
         <v>210</v>
       </c>
       <c r="E1552" s="10" t="s">
+        <v>5554</v>
+      </c>
+      <c r="F1552" s="10" t="s">
         <v>5555</v>
-      </c>
-      <c r="F1552" s="10" t="s">
-        <v>5556</v>
       </c>
       <c r="G1552" s="5"/>
       <c r="H1552" s="5"/>
@@ -53322,7 +53323,7 @@
     </row>
     <row r="1553" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1553" s="30" t="s">
-        <v>5557</v>
+        <v>5556</v>
       </c>
       <c r="B1553" s="29"/>
       <c r="C1553" s="29"/>
@@ -53330,23 +53331,23 @@
         <v>232</v>
       </c>
       <c r="E1553" s="7" t="s">
+        <v>5557</v>
+      </c>
+      <c r="F1553" s="7" t="s">
         <v>5558</v>
       </c>
-      <c r="F1553" s="7" t="s">
+      <c r="G1553" s="7" t="s">
         <v>5559</v>
       </c>
-      <c r="G1553" s="7" t="s">
+      <c r="H1553" s="10" t="s">
         <v>5560</v>
-      </c>
-      <c r="H1553" s="10" t="s">
-        <v>5561</v>
       </c>
       <c r="I1553" s="5"/>
       <c r="J1553" s="5"/>
     </row>
     <row r="1554" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1554" s="38" t="s">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="B1554" s="39"/>
       <c r="C1554" s="39"/>
@@ -53354,10 +53355,10 @@
         <v>278</v>
       </c>
       <c r="E1554" s="7" t="s">
+        <v>5562</v>
+      </c>
+      <c r="F1554" s="7" t="s">
         <v>5563</v>
-      </c>
-      <c r="F1554" s="7" t="s">
-        <v>5564</v>
       </c>
       <c r="G1554" s="5"/>
       <c r="H1554" s="5"/>
@@ -53366,7 +53367,7 @@
     </row>
     <row r="1555" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1555" s="28" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="B1555" s="31" t="s">
         <v>292</v>
@@ -53376,13 +53377,13 @@
         <v>236</v>
       </c>
       <c r="E1555" s="10" t="s">
+        <v>5565</v>
+      </c>
+      <c r="F1555" s="10" t="s">
         <v>5566</v>
       </c>
-      <c r="F1555" s="10" t="s">
+      <c r="G1555" s="10" t="s">
         <v>5567</v>
-      </c>
-      <c r="G1555" s="10" t="s">
-        <v>5568</v>
       </c>
       <c r="H1555" s="5"/>
       <c r="I1555" s="5"/>
@@ -53390,7 +53391,7 @@
     </row>
     <row r="1556" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1556" s="28" t="s">
-        <v>5569</v>
+        <v>5568</v>
       </c>
       <c r="B1556" s="31" t="s">
         <v>292</v>
@@ -53400,10 +53401,10 @@
         <v>236</v>
       </c>
       <c r="E1556" s="10" t="s">
+        <v>5569</v>
+      </c>
+      <c r="F1556" s="10" t="s">
         <v>5570</v>
-      </c>
-      <c r="F1556" s="10" t="s">
-        <v>5571</v>
       </c>
       <c r="G1556" s="5"/>
       <c r="H1556" s="5"/>
@@ -53412,7 +53413,7 @@
     </row>
     <row r="1557" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1557" s="25" t="s">
-        <v>5572</v>
+        <v>5571</v>
       </c>
       <c r="B1557" s="26" t="s">
         <v>292</v>
@@ -53422,10 +53423,10 @@
         <v>236</v>
       </c>
       <c r="E1557" s="10" t="s">
+        <v>5572</v>
+      </c>
+      <c r="F1557" s="10" t="s">
         <v>5573</v>
-      </c>
-      <c r="F1557" s="10" t="s">
-        <v>5574</v>
       </c>
       <c r="G1557" s="5"/>
       <c r="H1557" s="5"/>
@@ -53434,7 +53435,7 @@
     </row>
     <row r="1558" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1558" s="28" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
       <c r="B1558" s="31" t="s">
         <v>245</v>
@@ -53444,10 +53445,10 @@
         <v>236</v>
       </c>
       <c r="E1558" s="10" t="s">
+        <v>5575</v>
+      </c>
+      <c r="F1558" s="10" t="s">
         <v>5576</v>
-      </c>
-      <c r="F1558" s="10" t="s">
-        <v>5577</v>
       </c>
       <c r="G1558" s="5"/>
       <c r="H1558" s="5"/>
@@ -53456,21 +53457,21 @@
     </row>
     <row r="1559" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1559" s="28" t="s">
-        <v>5578</v>
+        <v>5577</v>
       </c>
       <c r="B1559" s="29"/>
       <c r="C1559" s="31" t="s">
-        <v>5579</v>
+        <v>5578</v>
       </c>
       <c r="D1559" s="5"/>
       <c r="E1559" s="10" t="s">
+        <v>5579</v>
+      </c>
+      <c r="F1559" s="10" t="s">
         <v>5580</v>
       </c>
-      <c r="F1559" s="10" t="s">
+      <c r="G1559" s="10" t="s">
         <v>5581</v>
-      </c>
-      <c r="G1559" s="10" t="s">
-        <v>5582</v>
       </c>
       <c r="H1559" s="5"/>
       <c r="I1559" s="5"/>
@@ -53478,7 +53479,7 @@
     </row>
     <row r="1560" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1560" s="9" t="s">
-        <v>5583</v>
+        <v>5582</v>
       </c>
       <c r="B1560" s="10" t="s">
         <v>245</v>
@@ -53488,10 +53489,10 @@
         <v>236</v>
       </c>
       <c r="E1560" s="10" t="s">
+        <v>5583</v>
+      </c>
+      <c r="F1560" s="10" t="s">
         <v>5584</v>
-      </c>
-      <c r="F1560" s="10" t="s">
-        <v>5585</v>
       </c>
       <c r="G1560" s="18"/>
       <c r="H1560" s="5"/>
@@ -53500,7 +53501,7 @@
     </row>
     <row r="1561" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1561" s="4" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="B1561" s="5"/>
       <c r="C1561" s="5"/>
@@ -53508,13 +53509,13 @@
         <v>439</v>
       </c>
       <c r="E1561" s="7" t="s">
+        <v>5586</v>
+      </c>
+      <c r="F1561" s="7" t="s">
         <v>5587</v>
       </c>
-      <c r="F1561" s="7" t="s">
+      <c r="G1561" s="7" t="s">
         <v>5588</v>
-      </c>
-      <c r="G1561" s="7" t="s">
-        <v>5589</v>
       </c>
       <c r="H1561" s="5"/>
       <c r="I1561" s="5"/>
@@ -53522,7 +53523,7 @@
     </row>
     <row r="1562" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1562" s="9" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="B1562" s="10" t="s">
         <v>245</v>
@@ -53532,23 +53533,23 @@
         <v>236</v>
       </c>
       <c r="E1562" s="10" t="s">
+        <v>5590</v>
+      </c>
+      <c r="F1562" s="10" t="s">
         <v>5591</v>
-      </c>
-      <c r="F1562" s="10" t="s">
-        <v>5592</v>
       </c>
       <c r="G1562" s="5"/>
       <c r="H1562" s="5"/>
       <c r="I1562" s="10" t="s">
+        <v>5592</v>
+      </c>
+      <c r="J1562" s="10" t="s">
         <v>5593</v>
-      </c>
-      <c r="J1562" s="10" t="s">
-        <v>5594</v>
       </c>
     </row>
     <row r="1563" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1563" s="4" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
       <c r="B1563" s="6" t="s">
         <v>245</v>
@@ -53558,23 +53559,23 @@
         <v>236</v>
       </c>
       <c r="E1563" s="7" t="s">
+        <v>5595</v>
+      </c>
+      <c r="F1563" s="7" t="s">
         <v>5596</v>
       </c>
-      <c r="F1563" s="7" t="s">
+      <c r="G1563" s="7" t="s">
         <v>5597</v>
-      </c>
-      <c r="G1563" s="7" t="s">
-        <v>5598</v>
       </c>
       <c r="H1563" s="5"/>
       <c r="I1563" s="7" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
       <c r="J1563" s="5"/>
     </row>
     <row r="1564" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1564" s="4" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
       <c r="B1564" s="5"/>
       <c r="C1564" s="5"/>
@@ -53582,13 +53583,13 @@
         <v>241</v>
       </c>
       <c r="E1564" s="7" t="s">
+        <v>5600</v>
+      </c>
+      <c r="F1564" s="7" t="s">
         <v>5601</v>
       </c>
-      <c r="F1564" s="7" t="s">
+      <c r="G1564" s="7" t="s">
         <v>5602</v>
-      </c>
-      <c r="G1564" s="7" t="s">
-        <v>5603</v>
       </c>
       <c r="H1564" s="5"/>
       <c r="I1564" s="5"/>
@@ -53596,7 +53597,7 @@
     </row>
     <row r="1565" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1565" s="4" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="B1565" s="5"/>
       <c r="C1565" s="5"/>
@@ -53607,10 +53608,10 @@
         <v>2091</v>
       </c>
       <c r="F1565" s="7" t="s">
+        <v>5604</v>
+      </c>
+      <c r="G1565" s="7" t="s">
         <v>5605</v>
-      </c>
-      <c r="G1565" s="7" t="s">
-        <v>5606</v>
       </c>
       <c r="H1565" s="5"/>
       <c r="I1565" s="5"/>
@@ -53618,7 +53619,7 @@
     </row>
     <row r="1566" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1566" s="4" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
       <c r="B1566" s="6" t="s">
         <v>245</v>
@@ -53628,10 +53629,10 @@
         <v>236</v>
       </c>
       <c r="E1566" s="7" t="s">
+        <v>5607</v>
+      </c>
+      <c r="F1566" s="7" t="s">
         <v>5608</v>
-      </c>
-      <c r="F1566" s="7" t="s">
-        <v>5609</v>
       </c>
       <c r="G1566" s="5"/>
       <c r="H1566" s="5"/>
@@ -53640,7 +53641,7 @@
     </row>
     <row r="1567" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1567" s="9" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="B1567" s="10" t="s">
         <v>292</v>
@@ -53650,10 +53651,10 @@
         <v>236</v>
       </c>
       <c r="E1567" s="10" t="s">
+        <v>5610</v>
+      </c>
+      <c r="F1567" s="10" t="s">
         <v>5611</v>
-      </c>
-      <c r="F1567" s="10" t="s">
-        <v>5612</v>
       </c>
       <c r="G1567" s="5"/>
       <c r="H1567" s="5"/>
@@ -53662,7 +53663,7 @@
     </row>
     <row r="1568" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1568" s="25" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="B1568" s="26" t="s">
         <v>245</v>
@@ -53672,13 +53673,13 @@
         <v>236</v>
       </c>
       <c r="E1568" s="10" t="s">
+        <v>5613</v>
+      </c>
+      <c r="F1568" s="10" t="s">
         <v>5614</v>
       </c>
-      <c r="F1568" s="10" t="s">
+      <c r="G1568" s="10" t="s">
         <v>5615</v>
-      </c>
-      <c r="G1568" s="10" t="s">
-        <v>5616</v>
       </c>
       <c r="H1568" s="5"/>
       <c r="I1568" s="5"/>
@@ -53686,7 +53687,7 @@
     </row>
     <row r="1569" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1569" s="30" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="B1569" s="29"/>
       <c r="C1569" s="29"/>
@@ -53694,10 +53695,10 @@
         <v>241</v>
       </c>
       <c r="E1569" s="7" t="s">
+        <v>5617</v>
+      </c>
+      <c r="F1569" s="7" t="s">
         <v>5618</v>
-      </c>
-      <c r="F1569" s="7" t="s">
-        <v>5619</v>
       </c>
       <c r="G1569" s="5"/>
       <c r="H1569" s="5"/>
@@ -53706,7 +53707,7 @@
     </row>
     <row r="1570" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1570" s="9" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="B1570" s="5"/>
       <c r="C1570" s="5"/>
@@ -53714,10 +53715,10 @@
         <v>210</v>
       </c>
       <c r="E1570" s="10" t="s">
+        <v>5620</v>
+      </c>
+      <c r="F1570" s="10" t="s">
         <v>5621</v>
-      </c>
-      <c r="F1570" s="10" t="s">
-        <v>5622</v>
       </c>
       <c r="G1570" s="5"/>
       <c r="H1570" s="5"/>
@@ -53726,7 +53727,7 @@
     </row>
     <row r="1571" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1571" s="4" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
       <c r="B1571" s="5"/>
       <c r="C1571" s="5"/>
@@ -53734,13 +53735,13 @@
         <v>241</v>
       </c>
       <c r="E1571" s="7" t="s">
+        <v>5623</v>
+      </c>
+      <c r="F1571" s="7" t="s">
         <v>5624</v>
       </c>
-      <c r="F1571" s="7" t="s">
+      <c r="G1571" s="7" t="s">
         <v>5625</v>
-      </c>
-      <c r="G1571" s="7" t="s">
-        <v>5626</v>
       </c>
       <c r="H1571" s="5"/>
       <c r="I1571" s="5"/>
@@ -53748,7 +53749,7 @@
     </row>
     <row r="1572" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1572" s="25" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="B1572" s="26" t="s">
         <v>245</v>
@@ -53758,10 +53759,10 @@
         <v>236</v>
       </c>
       <c r="E1572" s="10" t="s">
+        <v>5627</v>
+      </c>
+      <c r="F1572" s="51" t="s">
         <v>5628</v>
-      </c>
-      <c r="F1572" s="51" t="s">
-        <v>5629</v>
       </c>
       <c r="G1572" s="5"/>
       <c r="H1572" s="5"/>
@@ -53770,7 +53771,7 @@
     </row>
     <row r="1573" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1573" s="30" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="B1573" s="29"/>
       <c r="C1573" s="29"/>
@@ -53781,10 +53782,10 @@
         <v>2848</v>
       </c>
       <c r="F1573" s="7" t="s">
+        <v>5630</v>
+      </c>
+      <c r="G1573" s="7" t="s">
         <v>5631</v>
-      </c>
-      <c r="G1573" s="7" t="s">
-        <v>5632</v>
       </c>
       <c r="H1573" s="5"/>
       <c r="I1573" s="5"/>
@@ -53792,7 +53793,7 @@
     </row>
     <row r="1574" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1574" s="4" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="B1574" s="5"/>
       <c r="C1574" s="5"/>
@@ -53800,10 +53801,10 @@
         <v>236</v>
       </c>
       <c r="E1574" s="7" t="s">
+        <v>5633</v>
+      </c>
+      <c r="F1574" s="7" t="s">
         <v>5634</v>
-      </c>
-      <c r="F1574" s="7" t="s">
-        <v>5635</v>
       </c>
       <c r="G1574" s="5"/>
       <c r="H1574" s="5"/>
@@ -53812,7 +53813,7 @@
     </row>
     <row r="1575" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1575" s="4" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="B1575" s="6" t="s">
         <v>245</v>
@@ -53822,10 +53823,10 @@
         <v>236</v>
       </c>
       <c r="E1575" s="7" t="s">
+        <v>5636</v>
+      </c>
+      <c r="F1575" s="7" t="s">
         <v>5637</v>
-      </c>
-      <c r="F1575" s="7" t="s">
-        <v>5638</v>
       </c>
       <c r="G1575" s="5"/>
       <c r="H1575" s="5"/>
@@ -53834,7 +53835,7 @@
     </row>
     <row r="1576" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1576" s="4" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
       <c r="B1576" s="5"/>
       <c r="C1576" s="5"/>
@@ -53845,7 +53846,7 @@
         <v>275</v>
       </c>
       <c r="F1576" s="7" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
       <c r="G1576" s="5"/>
       <c r="H1576" s="5"/>
@@ -53854,7 +53855,7 @@
     </row>
     <row r="1577" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1577" s="4" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="B1577" s="6" t="s">
         <v>245</v>
@@ -53864,13 +53865,13 @@
         <v>236</v>
       </c>
       <c r="E1577" s="7" t="s">
+        <v>5641</v>
+      </c>
+      <c r="F1577" s="7" t="s">
         <v>5642</v>
       </c>
-      <c r="F1577" s="7" t="s">
+      <c r="G1577" s="7" t="s">
         <v>5643</v>
-      </c>
-      <c r="G1577" s="7" t="s">
-        <v>5644</v>
       </c>
       <c r="H1577" s="5"/>
       <c r="I1577" s="5"/>
@@ -53878,7 +53879,7 @@
     </row>
     <row r="1578" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1578" s="4" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
       <c r="B1578" s="5"/>
       <c r="C1578" s="5"/>
@@ -53886,13 +53887,13 @@
         <v>232</v>
       </c>
       <c r="E1578" s="7" t="s">
+        <v>5645</v>
+      </c>
+      <c r="F1578" s="7" t="s">
         <v>5646</v>
       </c>
-      <c r="F1578" s="7" t="s">
+      <c r="G1578" s="7" t="s">
         <v>5647</v>
-      </c>
-      <c r="G1578" s="7" t="s">
-        <v>5648</v>
       </c>
       <c r="H1578" s="5"/>
       <c r="I1578" s="5"/>
@@ -53900,7 +53901,7 @@
     </row>
     <row r="1579" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1579" s="9" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="B1579" s="10" t="s">
         <v>245</v>
@@ -53910,13 +53911,13 @@
         <v>236</v>
       </c>
       <c r="E1579" s="10" t="s">
+        <v>5649</v>
+      </c>
+      <c r="F1579" s="10" t="s">
         <v>5650</v>
       </c>
-      <c r="F1579" s="10" t="s">
+      <c r="G1579" s="10" t="s">
         <v>5651</v>
-      </c>
-      <c r="G1579" s="10" t="s">
-        <v>5652</v>
       </c>
       <c r="H1579" s="5"/>
       <c r="I1579" s="5"/>
@@ -53924,7 +53925,7 @@
     </row>
     <row r="1580" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1580" s="9" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
       <c r="B1580" s="5"/>
       <c r="C1580" s="5"/>
@@ -53932,10 +53933,10 @@
         <v>236</v>
       </c>
       <c r="E1580" s="10" t="s">
+        <v>5653</v>
+      </c>
+      <c r="F1580" s="10" t="s">
         <v>5654</v>
-      </c>
-      <c r="F1580" s="10" t="s">
-        <v>5655</v>
       </c>
       <c r="G1580" s="5"/>
       <c r="H1580" s="5"/>
@@ -53944,7 +53945,7 @@
     </row>
     <row r="1581" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1581" s="4" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
       <c r="B1581" s="5"/>
       <c r="C1581" s="5"/>
@@ -53952,23 +53953,23 @@
         <v>439</v>
       </c>
       <c r="E1581" s="7" t="s">
+        <v>5656</v>
+      </c>
+      <c r="F1581" s="7" t="s">
         <v>5657</v>
       </c>
-      <c r="F1581" s="7" t="s">
+      <c r="G1581" s="7" t="s">
         <v>5658</v>
-      </c>
-      <c r="G1581" s="7" t="s">
-        <v>5659</v>
       </c>
       <c r="H1581" s="5"/>
       <c r="I1581" s="7" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
       <c r="J1581" s="5"/>
     </row>
     <row r="1582" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1582" s="4" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
       <c r="B1582" s="6" t="s">
         <v>245</v>
@@ -53978,13 +53979,13 @@
         <v>236</v>
       </c>
       <c r="E1582" s="7" t="s">
+        <v>5661</v>
+      </c>
+      <c r="F1582" s="7" t="s">
         <v>5662</v>
       </c>
-      <c r="F1582" s="7" t="s">
+      <c r="G1582" s="7" t="s">
         <v>5663</v>
-      </c>
-      <c r="G1582" s="7" t="s">
-        <v>5664</v>
       </c>
       <c r="H1582" s="5"/>
       <c r="I1582" s="5"/>
@@ -53992,7 +53993,7 @@
     </row>
     <row r="1583" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1583" s="9" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="B1583" s="10" t="s">
         <v>292</v>
@@ -54002,10 +54003,10 @@
         <v>236</v>
       </c>
       <c r="E1583" s="10" t="s">
+        <v>5665</v>
+      </c>
+      <c r="F1583" s="10" t="s">
         <v>5666</v>
-      </c>
-      <c r="F1583" s="10" t="s">
-        <v>5667</v>
       </c>
       <c r="G1583" s="5"/>
       <c r="H1583" s="5"/>
@@ -54014,7 +54015,7 @@
     </row>
     <row r="1584" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1584" s="4" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
       <c r="B1584" s="6" t="s">
         <v>292</v>
@@ -54024,13 +54025,13 @@
         <v>236</v>
       </c>
       <c r="E1584" s="7" t="s">
+        <v>5668</v>
+      </c>
+      <c r="F1584" s="7" t="s">
         <v>5669</v>
       </c>
-      <c r="F1584" s="7" t="s">
+      <c r="G1584" s="7" t="s">
         <v>5670</v>
-      </c>
-      <c r="G1584" s="7" t="s">
-        <v>5671</v>
       </c>
       <c r="H1584" s="5"/>
       <c r="I1584" s="5"/>
@@ -54038,7 +54039,7 @@
     </row>
     <row r="1585" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1585" s="4" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
       <c r="B1585" s="5"/>
       <c r="C1585" s="5"/>
@@ -54046,10 +54047,10 @@
         <v>236</v>
       </c>
       <c r="E1585" s="7" t="s">
+        <v>5672</v>
+      </c>
+      <c r="F1585" s="7" t="s">
         <v>5673</v>
-      </c>
-      <c r="F1585" s="7" t="s">
-        <v>5674</v>
       </c>
       <c r="G1585" s="5"/>
       <c r="H1585" s="5"/>
@@ -54058,7 +54059,7 @@
     </row>
     <row r="1586" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1586" s="4" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
       <c r="B1586" s="6" t="s">
         <v>245</v>
@@ -54068,13 +54069,13 @@
         <v>236</v>
       </c>
       <c r="E1586" s="7" t="s">
+        <v>5675</v>
+      </c>
+      <c r="F1586" s="7" t="s">
         <v>5676</v>
       </c>
-      <c r="F1586" s="7" t="s">
+      <c r="G1586" s="7" t="s">
         <v>5677</v>
-      </c>
-      <c r="G1586" s="7" t="s">
-        <v>5678</v>
       </c>
       <c r="H1586" s="5"/>
       <c r="I1586" s="5"/>
@@ -54082,7 +54083,7 @@
     </row>
     <row r="1587" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1587" s="9" t="s">
-        <v>5679</v>
+        <v>5678</v>
       </c>
       <c r="B1587" s="5"/>
       <c r="C1587" s="5"/>
@@ -54093,7 +54094,7 @@
         <v>2160</v>
       </c>
       <c r="F1587" s="10" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
       <c r="G1587" s="5"/>
       <c r="H1587" s="5"/>
@@ -54102,7 +54103,7 @@
     </row>
     <row r="1588" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1588" s="9" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
       <c r="B1588" s="10" t="s">
         <v>245</v>
@@ -54112,10 +54113,10 @@
         <v>236</v>
       </c>
       <c r="E1588" s="10" t="s">
+        <v>5681</v>
+      </c>
+      <c r="F1588" s="10" t="s">
         <v>5682</v>
-      </c>
-      <c r="F1588" s="10" t="s">
-        <v>5683</v>
       </c>
       <c r="G1588" s="5"/>
       <c r="H1588" s="5"/>
@@ -54124,7 +54125,7 @@
     </row>
     <row r="1589" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1589" s="9" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="B1589" s="10" t="s">
         <v>292</v>
@@ -54134,10 +54135,10 @@
         <v>236</v>
       </c>
       <c r="E1589" s="10" t="s">
+        <v>5684</v>
+      </c>
+      <c r="F1589" s="10" t="s">
         <v>5685</v>
-      </c>
-      <c r="F1589" s="10" t="s">
-        <v>5686</v>
       </c>
       <c r="G1589" s="5"/>
       <c r="H1589" s="5"/>
@@ -54146,7 +54147,7 @@
     </row>
     <row r="1590" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1590" s="9" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="B1590" s="5"/>
       <c r="C1590" s="5"/>
@@ -54154,13 +54155,13 @@
         <v>241</v>
       </c>
       <c r="E1590" s="10" t="s">
+        <v>5687</v>
+      </c>
+      <c r="F1590" s="10" t="s">
         <v>5688</v>
       </c>
-      <c r="F1590" s="10" t="s">
+      <c r="G1590" s="10" t="s">
         <v>5689</v>
-      </c>
-      <c r="G1590" s="10" t="s">
-        <v>5690</v>
       </c>
       <c r="H1590" s="5"/>
       <c r="I1590" s="5"/>
@@ -54168,7 +54169,7 @@
     </row>
     <row r="1591" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1591" s="25" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="B1591" s="27"/>
       <c r="C1591" s="27"/>
@@ -54176,10 +54177,10 @@
         <v>241</v>
       </c>
       <c r="E1591" s="10" t="s">
+        <v>5691</v>
+      </c>
+      <c r="F1591" s="10" t="s">
         <v>5692</v>
-      </c>
-      <c r="F1591" s="10" t="s">
-        <v>5693</v>
       </c>
       <c r="G1591" s="5"/>
       <c r="H1591" s="5"/>
@@ -54188,7 +54189,7 @@
     </row>
     <row r="1592" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1592" s="30" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="B1592" s="29"/>
       <c r="C1592" s="29"/>
@@ -54196,10 +54197,10 @@
         <v>210</v>
       </c>
       <c r="E1592" s="7" t="s">
+        <v>5694</v>
+      </c>
+      <c r="F1592" s="7" t="s">
         <v>5695</v>
-      </c>
-      <c r="F1592" s="7" t="s">
-        <v>5696</v>
       </c>
       <c r="G1592" s="5"/>
       <c r="H1592" s="5"/>
@@ -54208,7 +54209,7 @@
     </row>
     <row r="1593" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1593" s="32" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="B1593" s="33" t="s">
         <v>245</v>
@@ -54218,13 +54219,13 @@
         <v>271</v>
       </c>
       <c r="E1593" s="7" t="s">
+        <v>5697</v>
+      </c>
+      <c r="F1593" s="7" t="s">
         <v>5698</v>
       </c>
-      <c r="F1593" s="7" t="s">
+      <c r="G1593" s="7" t="s">
         <v>5699</v>
-      </c>
-      <c r="G1593" s="7" t="s">
-        <v>5700</v>
       </c>
       <c r="H1593" s="5"/>
       <c r="I1593" s="5"/>
@@ -54232,7 +54233,7 @@
     </row>
     <row r="1594" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1594" s="30" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
       <c r="B1594" s="29"/>
       <c r="C1594" s="29"/>
@@ -54240,21 +54241,21 @@
         <v>241</v>
       </c>
       <c r="E1594" s="7" t="s">
+        <v>5701</v>
+      </c>
+      <c r="F1594" s="7" t="s">
         <v>5702</v>
-      </c>
-      <c r="F1594" s="7" t="s">
-        <v>5703</v>
       </c>
       <c r="G1594" s="5"/>
       <c r="H1594" s="5"/>
       <c r="I1594" s="7" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
       <c r="J1594" s="5"/>
     </row>
     <row r="1595" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1595" s="9" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
       <c r="B1595" s="10" t="s">
         <v>292</v>
@@ -54264,21 +54265,21 @@
         <v>236</v>
       </c>
       <c r="E1595" s="10" t="s">
+        <v>5705</v>
+      </c>
+      <c r="F1595" s="10" t="s">
         <v>5706</v>
-      </c>
-      <c r="F1595" s="10" t="s">
-        <v>5707</v>
       </c>
       <c r="G1595" s="5"/>
       <c r="H1595" s="10" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="I1595" s="5"/>
       <c r="J1595" s="5"/>
     </row>
     <row r="1596" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1596" s="4" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
       <c r="B1596" s="5"/>
       <c r="C1596" s="5"/>
@@ -54286,10 +54287,10 @@
         <v>271</v>
       </c>
       <c r="E1596" s="7" t="s">
+        <v>5709</v>
+      </c>
+      <c r="F1596" s="7" t="s">
         <v>5710</v>
-      </c>
-      <c r="F1596" s="7" t="s">
-        <v>5711</v>
       </c>
       <c r="G1596" s="5"/>
       <c r="H1596" s="5"/>
@@ -54298,7 +54299,7 @@
     </row>
     <row r="1597" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1597" s="9" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
       <c r="B1597" s="5"/>
       <c r="C1597" s="5"/>
@@ -54306,13 +54307,13 @@
         <v>241</v>
       </c>
       <c r="E1597" s="10" t="s">
+        <v>5712</v>
+      </c>
+      <c r="F1597" s="10" t="s">
         <v>5713</v>
       </c>
-      <c r="F1597" s="10" t="s">
+      <c r="G1597" s="10" t="s">
         <v>5714</v>
-      </c>
-      <c r="G1597" s="10" t="s">
-        <v>5715</v>
       </c>
       <c r="H1597" s="5"/>
       <c r="I1597" s="5"/>
@@ -54320,7 +54321,7 @@
     </row>
     <row r="1598" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1598" s="9" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="B1598" s="10" t="s">
         <v>292</v>
@@ -54330,13 +54331,13 @@
         <v>236</v>
       </c>
       <c r="E1598" s="10" t="s">
+        <v>5716</v>
+      </c>
+      <c r="F1598" s="10" t="s">
         <v>5717</v>
       </c>
-      <c r="F1598" s="10" t="s">
+      <c r="G1598" s="10" t="s">
         <v>5718</v>
-      </c>
-      <c r="G1598" s="10" t="s">
-        <v>5719</v>
       </c>
       <c r="H1598" s="5"/>
       <c r="I1598" s="5"/>
@@ -54344,7 +54345,7 @@
     </row>
     <row r="1599" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1599" s="9" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="B1599" s="5"/>
       <c r="C1599" s="5"/>
@@ -54352,10 +54353,10 @@
         <v>241</v>
       </c>
       <c r="E1599" s="10" t="s">
+        <v>5720</v>
+      </c>
+      <c r="F1599" s="10" t="s">
         <v>5721</v>
-      </c>
-      <c r="F1599" s="10" t="s">
-        <v>5722</v>
       </c>
       <c r="G1599" s="5"/>
       <c r="H1599" s="5"/>
@@ -54364,7 +54365,7 @@
     </row>
     <row r="1600" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1600" s="9" t="s">
-        <v>5723</v>
+        <v>5722</v>
       </c>
       <c r="B1600" s="10" t="s">
         <v>245</v>
@@ -54374,13 +54375,13 @@
         <v>236</v>
       </c>
       <c r="E1600" s="10" t="s">
+        <v>5723</v>
+      </c>
+      <c r="F1600" s="10" t="s">
         <v>5724</v>
       </c>
-      <c r="F1600" s="10" t="s">
+      <c r="G1600" s="10" t="s">
         <v>5725</v>
-      </c>
-      <c r="G1600" s="10" t="s">
-        <v>5726</v>
       </c>
       <c r="H1600" s="5"/>
       <c r="I1600" s="5"/>
@@ -54388,7 +54389,7 @@
     </row>
     <row r="1601" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1601" s="9" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="B1601" s="10" t="s">
         <v>245</v>
@@ -54398,13 +54399,13 @@
         <v>236</v>
       </c>
       <c r="E1601" s="10" t="s">
+        <v>5727</v>
+      </c>
+      <c r="F1601" s="10" t="s">
         <v>5728</v>
       </c>
-      <c r="F1601" s="10" t="s">
+      <c r="G1601" s="10" t="s">
         <v>5729</v>
-      </c>
-      <c r="G1601" s="10" t="s">
-        <v>5730</v>
       </c>
       <c r="H1601" s="5"/>
       <c r="I1601" s="5"/>
@@ -54412,7 +54413,7 @@
     </row>
     <row r="1602" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1602" s="4" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="B1602" s="6" t="s">
         <v>245</v>
@@ -54422,10 +54423,10 @@
         <v>271</v>
       </c>
       <c r="E1602" s="7" t="s">
+        <v>5731</v>
+      </c>
+      <c r="F1602" s="7" t="s">
         <v>5732</v>
-      </c>
-      <c r="F1602" s="7" t="s">
-        <v>5733</v>
       </c>
       <c r="G1602" s="5"/>
       <c r="H1602" s="5"/>
@@ -54434,7 +54435,7 @@
     </row>
     <row r="1603" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1603" s="4" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
       <c r="B1603" s="5"/>
       <c r="C1603" s="5"/>
@@ -54442,10 +54443,10 @@
         <v>210</v>
       </c>
       <c r="E1603" s="7" t="s">
+        <v>5734</v>
+      </c>
+      <c r="F1603" s="7" t="s">
         <v>5735</v>
-      </c>
-      <c r="F1603" s="7" t="s">
-        <v>5736</v>
       </c>
       <c r="G1603" s="5"/>
       <c r="H1603" s="5"/>
@@ -54454,7 +54455,7 @@
     </row>
     <row r="1604" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1604" s="4" t="s">
-        <v>5737</v>
+        <v>5736</v>
       </c>
       <c r="B1604" s="5"/>
       <c r="C1604" s="5"/>
@@ -54462,21 +54463,21 @@
         <v>241</v>
       </c>
       <c r="E1604" s="7" t="s">
+        <v>5737</v>
+      </c>
+      <c r="F1604" s="7" t="s">
         <v>5738</v>
-      </c>
-      <c r="F1604" s="7" t="s">
-        <v>5739</v>
       </c>
       <c r="G1604" s="5"/>
       <c r="H1604" s="5"/>
       <c r="I1604" s="10" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="J1604" s="5"/>
     </row>
     <row r="1605" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1605" s="12" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="B1605" s="14" t="s">
         <v>245</v>
@@ -54486,10 +54487,10 @@
         <v>236</v>
       </c>
       <c r="E1605" s="7" t="s">
+        <v>5741</v>
+      </c>
+      <c r="F1605" s="7" t="s">
         <v>5742</v>
-      </c>
-      <c r="F1605" s="7" t="s">
-        <v>5743</v>
       </c>
       <c r="G1605" s="5"/>
       <c r="H1605" s="5"/>
@@ -54498,7 +54499,7 @@
     </row>
     <row r="1606" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1606" s="4" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="B1606" s="5"/>
       <c r="C1606" s="5"/>
@@ -54506,13 +54507,13 @@
         <v>241</v>
       </c>
       <c r="E1606" s="7" t="s">
+        <v>5744</v>
+      </c>
+      <c r="F1606" s="7" t="s">
         <v>5745</v>
       </c>
-      <c r="F1606" s="7" t="s">
+      <c r="G1606" s="7" t="s">
         <v>5746</v>
-      </c>
-      <c r="G1606" s="7" t="s">
-        <v>5747</v>
       </c>
       <c r="H1606" s="5"/>
       <c r="I1606" s="5"/>
@@ -54520,7 +54521,7 @@
     </row>
     <row r="1607" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1607" s="12" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="B1607" s="14" t="s">
         <v>245</v>
@@ -54530,10 +54531,10 @@
         <v>236</v>
       </c>
       <c r="E1607" s="7" t="s">
+        <v>5748</v>
+      </c>
+      <c r="F1607" s="7" t="s">
         <v>5749</v>
-      </c>
-      <c r="F1607" s="7" t="s">
-        <v>5750</v>
       </c>
       <c r="G1607" s="5"/>
       <c r="H1607" s="5"/>
@@ -54542,7 +54543,7 @@
     </row>
     <row r="1608" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1608" s="9" t="s">
-        <v>5751</v>
+        <v>5750</v>
       </c>
       <c r="B1608" s="5"/>
       <c r="C1608" s="5"/>
@@ -54550,10 +54551,10 @@
         <v>241</v>
       </c>
       <c r="E1608" s="10" t="s">
+        <v>5751</v>
+      </c>
+      <c r="F1608" s="10" t="s">
         <v>5752</v>
-      </c>
-      <c r="F1608" s="10" t="s">
-        <v>5753</v>
       </c>
       <c r="G1608" s="5"/>
       <c r="H1608" s="5"/>
@@ -54562,7 +54563,7 @@
     </row>
     <row r="1609" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1609" s="9" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="B1609" s="10" t="s">
         <v>292</v>
@@ -54572,13 +54573,13 @@
         <v>236</v>
       </c>
       <c r="E1609" s="10" t="s">
+        <v>5754</v>
+      </c>
+      <c r="F1609" s="10" t="s">
         <v>5755</v>
       </c>
-      <c r="F1609" s="10" t="s">
+      <c r="G1609" s="10" t="s">
         <v>5756</v>
-      </c>
-      <c r="G1609" s="10" t="s">
-        <v>5757</v>
       </c>
       <c r="H1609" s="5"/>
       <c r="I1609" s="5"/>
@@ -54586,7 +54587,7 @@
     </row>
     <row r="1610" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1610" s="4" t="s">
-        <v>5758</v>
+        <v>5757</v>
       </c>
       <c r="B1610" s="5"/>
       <c r="C1610" s="5"/>
@@ -54597,7 +54598,7 @@
         <v>1066</v>
       </c>
       <c r="F1610" s="7" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
       <c r="G1610" s="5"/>
       <c r="H1610" s="5"/>
@@ -54606,7 +54607,7 @@
     </row>
     <row r="1611" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1611" s="4" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="B1611" s="5"/>
       <c r="C1611" s="5"/>
@@ -54614,13 +54615,13 @@
         <v>301</v>
       </c>
       <c r="E1611" s="7" t="s">
+        <v>5760</v>
+      </c>
+      <c r="F1611" s="7" t="s">
         <v>5761</v>
       </c>
-      <c r="F1611" s="7" t="s">
+      <c r="G1611" s="7" t="s">
         <v>5762</v>
-      </c>
-      <c r="G1611" s="7" t="s">
-        <v>5763</v>
       </c>
       <c r="H1611" s="5"/>
       <c r="I1611" s="5"/>
@@ -54628,7 +54629,7 @@
     </row>
     <row r="1612" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1612" s="4" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
       <c r="B1612" s="5"/>
       <c r="C1612" s="5"/>
@@ -54636,10 +54637,10 @@
         <v>1013</v>
       </c>
       <c r="E1612" s="7" t="s">
+        <v>5764</v>
+      </c>
+      <c r="F1612" s="7" t="s">
         <v>5765</v>
-      </c>
-      <c r="F1612" s="7" t="s">
-        <v>5766</v>
       </c>
       <c r="G1612" s="5"/>
       <c r="H1612" s="5"/>
@@ -54648,7 +54649,7 @@
     </row>
     <row r="1613" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1613" s="4" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="B1613" s="5"/>
       <c r="C1613" s="5"/>
@@ -54659,7 +54660,7 @@
         <v>3086</v>
       </c>
       <c r="F1613" s="7" t="s">
-        <v>5768</v>
+        <v>5767</v>
       </c>
       <c r="G1613" s="5"/>
       <c r="H1613" s="5"/>
@@ -54668,7 +54669,7 @@
     </row>
     <row r="1614" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1614" s="4" t="s">
-        <v>5769</v>
+        <v>5768</v>
       </c>
       <c r="B1614" s="6" t="s">
         <v>245</v>
@@ -54678,21 +54679,21 @@
         <v>236</v>
       </c>
       <c r="E1614" s="7" t="s">
+        <v>5769</v>
+      </c>
+      <c r="F1614" s="7" t="s">
         <v>5770</v>
-      </c>
-      <c r="F1614" s="7" t="s">
-        <v>5771</v>
       </c>
       <c r="G1614" s="5"/>
       <c r="H1614" s="7" t="s">
-        <v>5772</v>
+        <v>5771</v>
       </c>
       <c r="I1614" s="5"/>
       <c r="J1614" s="5"/>
     </row>
     <row r="1615" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1615" s="4" t="s">
-        <v>5773</v>
+        <v>5772</v>
       </c>
       <c r="B1615" s="6" t="s">
         <v>245</v>
@@ -54702,13 +54703,13 @@
         <v>236</v>
       </c>
       <c r="E1615" s="7" t="s">
+        <v>5773</v>
+      </c>
+      <c r="F1615" s="7" t="s">
         <v>5774</v>
       </c>
-      <c r="F1615" s="7" t="s">
+      <c r="G1615" s="7" t="s">
         <v>5775</v>
-      </c>
-      <c r="G1615" s="7" t="s">
-        <v>5776</v>
       </c>
       <c r="H1615" s="5"/>
       <c r="I1615" s="5"/>
@@ -54716,7 +54717,7 @@
     </row>
     <row r="1616" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1616" s="4" t="s">
-        <v>5777</v>
+        <v>5776</v>
       </c>
       <c r="B1616" s="6" t="s">
         <v>245</v>
@@ -54726,10 +54727,10 @@
         <v>236</v>
       </c>
       <c r="E1616" s="7" t="s">
+        <v>5777</v>
+      </c>
+      <c r="F1616" s="7" t="s">
         <v>5778</v>
-      </c>
-      <c r="F1616" s="7" t="s">
-        <v>5779</v>
       </c>
       <c r="G1616" s="5"/>
       <c r="H1616" s="5"/>
@@ -54738,7 +54739,7 @@
     </row>
     <row r="1617" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1617" s="4" t="s">
-        <v>5780</v>
+        <v>5779</v>
       </c>
       <c r="B1617" s="5"/>
       <c r="C1617" s="5"/>
@@ -54746,13 +54747,13 @@
         <v>1361</v>
       </c>
       <c r="E1617" s="7" t="s">
+        <v>5780</v>
+      </c>
+      <c r="F1617" s="7" t="s">
         <v>5781</v>
       </c>
-      <c r="F1617" s="7" t="s">
+      <c r="G1617" s="7" t="s">
         <v>5782</v>
-      </c>
-      <c r="G1617" s="7" t="s">
-        <v>5783</v>
       </c>
       <c r="H1617" s="5"/>
       <c r="I1617" s="5"/>
@@ -54760,7 +54761,7 @@
     </row>
     <row r="1618" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1618" s="9" t="s">
-        <v>5784</v>
+        <v>5783</v>
       </c>
       <c r="B1618" s="5"/>
       <c r="C1618" s="5"/>
@@ -54768,10 +54769,10 @@
         <v>232</v>
       </c>
       <c r="E1618" s="10" t="s">
+        <v>5784</v>
+      </c>
+      <c r="F1618" s="10" t="s">
         <v>5785</v>
-      </c>
-      <c r="F1618" s="10" t="s">
-        <v>5786</v>
       </c>
       <c r="G1618" s="10" t="s">
         <v>2768</v>
@@ -54782,7 +54783,7 @@
     </row>
     <row r="1619" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1619" s="9" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="B1619" s="10" t="s">
         <v>292</v>
@@ -54792,13 +54793,13 @@
         <v>236</v>
       </c>
       <c r="E1619" s="10" t="s">
+        <v>5787</v>
+      </c>
+      <c r="F1619" s="10" t="s">
         <v>5788</v>
       </c>
-      <c r="F1619" s="10" t="s">
+      <c r="G1619" s="10" t="s">
         <v>5789</v>
-      </c>
-      <c r="G1619" s="10" t="s">
-        <v>5790</v>
       </c>
       <c r="H1619" s="5"/>
       <c r="I1619" s="5"/>
@@ -54806,7 +54807,7 @@
     </row>
     <row r="1620" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1620" s="4" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
       <c r="B1620" s="5"/>
       <c r="C1620" s="5"/>
@@ -54814,10 +54815,10 @@
         <v>3988</v>
       </c>
       <c r="E1620" s="7" t="s">
+        <v>5791</v>
+      </c>
+      <c r="F1620" s="7" t="s">
         <v>5792</v>
-      </c>
-      <c r="F1620" s="7" t="s">
-        <v>5793</v>
       </c>
       <c r="G1620" s="5"/>
       <c r="H1620" s="5"/>
@@ -54826,7 +54827,7 @@
     </row>
     <row r="1621" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1621" s="4" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="B1621" s="5"/>
       <c r="C1621" s="5"/>
@@ -54834,23 +54835,23 @@
         <v>439</v>
       </c>
       <c r="E1621" s="7" t="s">
+        <v>5794</v>
+      </c>
+      <c r="F1621" s="7" t="s">
         <v>5795</v>
       </c>
-      <c r="F1621" s="7" t="s">
+      <c r="G1621" s="7" t="s">
         <v>5796</v>
-      </c>
-      <c r="G1621" s="7" t="s">
-        <v>5797</v>
       </c>
       <c r="H1621" s="5"/>
       <c r="I1621" s="7" t="s">
-        <v>5798</v>
+        <v>5797</v>
       </c>
       <c r="J1621" s="5"/>
     </row>
     <row r="1622" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1622" s="9" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
       <c r="B1622" s="10" t="s">
         <v>292</v>
@@ -54860,10 +54861,10 @@
         <v>236</v>
       </c>
       <c r="E1622" s="10" t="s">
+        <v>5799</v>
+      </c>
+      <c r="F1622" s="10" t="s">
         <v>5800</v>
-      </c>
-      <c r="F1622" s="10" t="s">
-        <v>5801</v>
       </c>
       <c r="G1622" s="10" t="s">
         <v>2775</v>
@@ -54874,7 +54875,7 @@
     </row>
     <row r="1623" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1623" s="9" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="B1623" s="10" t="s">
         <v>292</v>
@@ -54884,10 +54885,10 @@
         <v>236</v>
       </c>
       <c r="E1623" s="10" t="s">
+        <v>5802</v>
+      </c>
+      <c r="F1623" s="10" t="s">
         <v>5803</v>
-      </c>
-      <c r="F1623" s="10" t="s">
-        <v>5804</v>
       </c>
       <c r="G1623" s="5"/>
       <c r="H1623" s="5"/>
@@ -54896,7 +54897,7 @@
     </row>
     <row r="1624" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1624" s="9" t="s">
-        <v>5805</v>
+        <v>5804</v>
       </c>
       <c r="B1624" s="5"/>
       <c r="C1624" s="5"/>
@@ -54904,13 +54905,13 @@
         <v>241</v>
       </c>
       <c r="E1624" s="10" t="s">
+        <v>5805</v>
+      </c>
+      <c r="F1624" s="10" t="s">
         <v>5806</v>
       </c>
-      <c r="F1624" s="10" t="s">
+      <c r="G1624" s="10" t="s">
         <v>5807</v>
-      </c>
-      <c r="G1624" s="10" t="s">
-        <v>5808</v>
       </c>
       <c r="H1624" s="5"/>
       <c r="I1624" s="5"/>
@@ -54918,7 +54919,7 @@
     </row>
     <row r="1625" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1625" s="9" t="s">
-        <v>5809</v>
+        <v>5808</v>
       </c>
       <c r="B1625" s="5"/>
       <c r="C1625" s="5"/>
@@ -54926,10 +54927,10 @@
         <v>241</v>
       </c>
       <c r="E1625" s="10" t="s">
+        <v>5809</v>
+      </c>
+      <c r="F1625" s="10" t="s">
         <v>5810</v>
-      </c>
-      <c r="F1625" s="10" t="s">
-        <v>5811</v>
       </c>
       <c r="G1625" s="5"/>
       <c r="H1625" s="5"/>
@@ -54938,7 +54939,7 @@
     </row>
     <row r="1626" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1626" s="9" t="s">
-        <v>5812</v>
+        <v>5811</v>
       </c>
       <c r="B1626" s="10" t="s">
         <v>245</v>
@@ -54948,10 +54949,10 @@
         <v>236</v>
       </c>
       <c r="E1626" s="10" t="s">
+        <v>5812</v>
+      </c>
+      <c r="F1626" s="10" t="s">
         <v>5813</v>
-      </c>
-      <c r="F1626" s="10" t="s">
-        <v>5814</v>
       </c>
       <c r="G1626" s="5"/>
       <c r="H1626" s="5"/>
@@ -54960,7 +54961,7 @@
     </row>
     <row r="1627" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1627" s="4" t="s">
-        <v>5815</v>
+        <v>5814</v>
       </c>
       <c r="B1627" s="5"/>
       <c r="C1627" s="5"/>
@@ -54968,10 +54969,10 @@
         <v>3988</v>
       </c>
       <c r="E1627" s="7" t="s">
+        <v>5815</v>
+      </c>
+      <c r="F1627" s="7" t="s">
         <v>5816</v>
-      </c>
-      <c r="F1627" s="7" t="s">
-        <v>5817</v>
       </c>
       <c r="G1627" s="5"/>
       <c r="H1627" s="5"/>
@@ -54980,7 +54981,7 @@
     </row>
     <row r="1628" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1628" s="9" t="s">
-        <v>5818</v>
+        <v>5817</v>
       </c>
       <c r="B1628" s="5"/>
       <c r="C1628" s="5"/>
@@ -54988,10 +54989,10 @@
         <v>334</v>
       </c>
       <c r="E1628" s="10" t="s">
+        <v>5818</v>
+      </c>
+      <c r="F1628" s="10" t="s">
         <v>5819</v>
-      </c>
-      <c r="F1628" s="10" t="s">
-        <v>5820</v>
       </c>
       <c r="G1628" s="5"/>
       <c r="H1628" s="5"/>
@@ -55000,7 +55001,7 @@
     </row>
     <row r="1629" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1629" s="9" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
       <c r="B1629" s="5"/>
       <c r="C1629" s="5"/>
@@ -55008,10 +55009,10 @@
         <v>232</v>
       </c>
       <c r="E1629" s="10" t="s">
+        <v>5821</v>
+      </c>
+      <c r="F1629" s="10" t="s">
         <v>5822</v>
-      </c>
-      <c r="F1629" s="10" t="s">
-        <v>5823</v>
       </c>
       <c r="G1629" s="5"/>
       <c r="H1629" s="5"/>
@@ -55020,7 +55021,7 @@
     </row>
     <row r="1630" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1630" s="9" t="s">
-        <v>5824</v>
+        <v>5823</v>
       </c>
       <c r="B1630" s="5"/>
       <c r="C1630" s="5"/>
@@ -55028,10 +55029,10 @@
         <v>241</v>
       </c>
       <c r="E1630" s="10" t="s">
+        <v>5824</v>
+      </c>
+      <c r="F1630" s="10" t="s">
         <v>5825</v>
-      </c>
-      <c r="F1630" s="10" t="s">
-        <v>5826</v>
       </c>
       <c r="G1630" s="5"/>
       <c r="H1630" s="5"/>
@@ -55040,7 +55041,7 @@
     </row>
     <row r="1631" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1631" s="4" t="s">
-        <v>5827</v>
+        <v>5826</v>
       </c>
       <c r="B1631" s="5"/>
       <c r="C1631" s="5"/>
@@ -55048,23 +55049,23 @@
         <v>232</v>
       </c>
       <c r="E1631" s="7" t="s">
+        <v>5827</v>
+      </c>
+      <c r="F1631" s="7" t="s">
         <v>5828</v>
       </c>
-      <c r="F1631" s="7" t="s">
+      <c r="G1631" s="7" t="s">
         <v>5829</v>
-      </c>
-      <c r="G1631" s="7" t="s">
-        <v>5830</v>
       </c>
       <c r="H1631" s="5"/>
       <c r="I1631" s="7" t="s">
-        <v>5831</v>
+        <v>5830</v>
       </c>
       <c r="J1631" s="5"/>
     </row>
     <row r="1632" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1632" s="32" t="s">
-        <v>5832</v>
+        <v>5831</v>
       </c>
       <c r="B1632" s="27"/>
       <c r="C1632" s="27"/>
@@ -55072,23 +55073,23 @@
         <v>210</v>
       </c>
       <c r="E1632" s="7" t="s">
+        <v>5832</v>
+      </c>
+      <c r="F1632" s="7" t="s">
         <v>5833</v>
       </c>
-      <c r="F1632" s="7" t="s">
+      <c r="G1632" s="7" t="s">
         <v>5834</v>
-      </c>
-      <c r="G1632" s="7" t="s">
-        <v>5835</v>
       </c>
       <c r="H1632" s="5"/>
       <c r="I1632" s="7" t="s">
-        <v>5836</v>
+        <v>5835</v>
       </c>
       <c r="J1632" s="5"/>
     </row>
     <row r="1633" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1633" s="28" t="s">
-        <v>5837</v>
+        <v>5836</v>
       </c>
       <c r="B1633" s="31" t="s">
         <v>292</v>
@@ -55098,13 +55099,13 @@
         <v>271</v>
       </c>
       <c r="E1633" s="10" t="s">
+        <v>5837</v>
+      </c>
+      <c r="F1633" s="10" t="s">
         <v>5838</v>
       </c>
-      <c r="F1633" s="10" t="s">
+      <c r="G1633" s="10" t="s">
         <v>5839</v>
-      </c>
-      <c r="G1633" s="10" t="s">
-        <v>5840</v>
       </c>
       <c r="H1633" s="5"/>
       <c r="I1633" s="5"/>
@@ -55112,18 +55113,18 @@
     </row>
     <row r="1634" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1634" s="4" t="s">
-        <v>5841</v>
+        <v>5840</v>
       </c>
       <c r="B1634" s="5"/>
       <c r="C1634" s="5"/>
       <c r="D1634" s="7" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E1634" s="7" t="s">
         <v>5842</v>
       </c>
-      <c r="E1634" s="7" t="s">
+      <c r="F1634" s="7" t="s">
         <v>5843</v>
-      </c>
-      <c r="F1634" s="7" t="s">
-        <v>5844</v>
       </c>
       <c r="G1634" s="5"/>
       <c r="H1634" s="5"/>
@@ -55132,7 +55133,7 @@
     </row>
     <row r="1635" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1635" s="9" t="s">
-        <v>5845</v>
+        <v>5844</v>
       </c>
       <c r="B1635" s="5"/>
       <c r="C1635" s="10" t="s">
@@ -55140,10 +55141,10 @@
       </c>
       <c r="D1635" s="5"/>
       <c r="E1635" s="10" t="s">
+        <v>5845</v>
+      </c>
+      <c r="F1635" s="10" t="s">
         <v>5846</v>
-      </c>
-      <c r="F1635" s="10" t="s">
-        <v>5847</v>
       </c>
       <c r="G1635" s="5"/>
       <c r="H1635" s="5"/>
@@ -55152,7 +55153,7 @@
     </row>
     <row r="1636" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1636" s="4" t="s">
-        <v>5848</v>
+        <v>5847</v>
       </c>
       <c r="B1636" s="5"/>
       <c r="C1636" s="5"/>
@@ -55160,10 +55161,10 @@
         <v>232</v>
       </c>
       <c r="E1636" s="7" t="s">
+        <v>5848</v>
+      </c>
+      <c r="F1636" s="7" t="s">
         <v>5849</v>
-      </c>
-      <c r="F1636" s="7" t="s">
-        <v>5850</v>
       </c>
       <c r="G1636" s="5"/>
       <c r="H1636" s="5"/>
@@ -55172,7 +55173,7 @@
     </row>
     <row r="1637" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1637" s="9" t="s">
-        <v>5851</v>
+        <v>5850</v>
       </c>
       <c r="B1637" s="10" t="s">
         <v>292</v>
@@ -55182,10 +55183,10 @@
         <v>236</v>
       </c>
       <c r="E1637" s="10" t="s">
+        <v>5851</v>
+      </c>
+      <c r="F1637" s="10" t="s">
         <v>5852</v>
-      </c>
-      <c r="F1637" s="10" t="s">
-        <v>5853</v>
       </c>
       <c r="G1637" s="5"/>
       <c r="H1637" s="5"/>
@@ -55194,7 +55195,7 @@
     </row>
     <row r="1638" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1638" s="9" t="s">
-        <v>5854</v>
+        <v>5853</v>
       </c>
       <c r="B1638" s="5"/>
       <c r="C1638" s="5"/>
@@ -55205,7 +55206,7 @@
         <v>703</v>
       </c>
       <c r="F1638" s="10" t="s">
-        <v>5855</v>
+        <v>5854</v>
       </c>
       <c r="G1638" s="5"/>
       <c r="H1638" s="5"/>
@@ -55214,7 +55215,7 @@
     </row>
     <row r="1639" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1639" s="9" t="s">
-        <v>5856</v>
+        <v>5855</v>
       </c>
       <c r="B1639" s="10" t="s">
         <v>292</v>
@@ -55224,10 +55225,10 @@
         <v>236</v>
       </c>
       <c r="E1639" s="10" t="s">
+        <v>5856</v>
+      </c>
+      <c r="F1639" s="10" t="s">
         <v>5857</v>
-      </c>
-      <c r="F1639" s="10" t="s">
-        <v>5858</v>
       </c>
       <c r="G1639" s="5"/>
       <c r="H1639" s="5"/>
@@ -55236,7 +55237,7 @@
     </row>
     <row r="1640" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1640" s="25" t="s">
-        <v>5859</v>
+        <v>5858</v>
       </c>
       <c r="B1640" s="26" t="s">
         <v>245</v>
@@ -55246,10 +55247,10 @@
         <v>236</v>
       </c>
       <c r="E1640" s="10" t="s">
+        <v>5859</v>
+      </c>
+      <c r="F1640" s="10" t="s">
         <v>5860</v>
-      </c>
-      <c r="F1640" s="10" t="s">
-        <v>5861</v>
       </c>
       <c r="G1640" s="5"/>
       <c r="H1640" s="5"/>
@@ -55258,7 +55259,7 @@
     </row>
     <row r="1641" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1641" s="30" t="s">
-        <v>5862</v>
+        <v>5861</v>
       </c>
       <c r="B1641" s="29"/>
       <c r="C1641" s="29"/>
@@ -55266,13 +55267,13 @@
         <v>1361</v>
       </c>
       <c r="E1641" s="7" t="s">
-        <v>5846</v>
+        <v>5845</v>
       </c>
       <c r="F1641" s="7" t="s">
+        <v>5862</v>
+      </c>
+      <c r="G1641" s="7" t="s">
         <v>5863</v>
-      </c>
-      <c r="G1641" s="7" t="s">
-        <v>5864</v>
       </c>
       <c r="H1641" s="5"/>
       <c r="I1641" s="5"/>
@@ -55280,7 +55281,7 @@
     </row>
     <row r="1642" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1642" s="9" t="s">
-        <v>5865</v>
+        <v>5864</v>
       </c>
       <c r="B1642" s="10" t="s">
         <v>292</v>
@@ -55290,10 +55291,10 @@
         <v>236</v>
       </c>
       <c r="E1642" s="10" t="s">
+        <v>5865</v>
+      </c>
+      <c r="F1642" s="10" t="s">
         <v>5866</v>
-      </c>
-      <c r="F1642" s="10" t="s">
-        <v>5867</v>
       </c>
       <c r="G1642" s="5"/>
       <c r="H1642" s="5"/>
@@ -55302,7 +55303,7 @@
     </row>
     <row r="1643" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1643" s="4" t="s">
-        <v>5868</v>
+        <v>5867</v>
       </c>
       <c r="B1643" s="5"/>
       <c r="C1643" s="5"/>
@@ -55310,13 +55311,13 @@
         <v>241</v>
       </c>
       <c r="E1643" s="7" t="s">
+        <v>5868</v>
+      </c>
+      <c r="F1643" s="7" t="s">
         <v>5869</v>
       </c>
-      <c r="F1643" s="7" t="s">
+      <c r="G1643" s="7" t="s">
         <v>5870</v>
-      </c>
-      <c r="G1643" s="7" t="s">
-        <v>5871</v>
       </c>
       <c r="H1643" s="5"/>
       <c r="I1643" s="5"/>
@@ -55324,7 +55325,7 @@
     </row>
     <row r="1644" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1644" s="9" t="s">
-        <v>5872</v>
+        <v>5871</v>
       </c>
       <c r="B1644" s="10" t="s">
         <v>245</v>
@@ -55334,10 +55335,10 @@
         <v>236</v>
       </c>
       <c r="E1644" s="10" t="s">
+        <v>5872</v>
+      </c>
+      <c r="F1644" s="10" t="s">
         <v>5873</v>
-      </c>
-      <c r="F1644" s="10" t="s">
-        <v>5874</v>
       </c>
       <c r="G1644" s="5"/>
       <c r="H1644" s="5"/>
@@ -55346,7 +55347,7 @@
     </row>
     <row r="1645" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1645" s="4" t="s">
-        <v>5875</v>
+        <v>5874</v>
       </c>
       <c r="B1645" s="5"/>
       <c r="C1645" s="5"/>
@@ -55354,21 +55355,21 @@
         <v>1792</v>
       </c>
       <c r="E1645" s="7" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="F1645" s="7" t="s">
-        <v>5876</v>
+        <v>5875</v>
       </c>
       <c r="G1645" s="5"/>
       <c r="H1645" s="7" t="s">
-        <v>5877</v>
+        <v>5876</v>
       </c>
       <c r="I1645" s="5"/>
       <c r="J1645" s="5"/>
     </row>
     <row r="1646" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1646" s="9" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="B1646" s="10" t="s">
         <v>292</v>
@@ -55378,10 +55379,10 @@
         <v>236</v>
       </c>
       <c r="E1646" s="10" t="s">
+        <v>5878</v>
+      </c>
+      <c r="F1646" s="10" t="s">
         <v>5879</v>
-      </c>
-      <c r="F1646" s="10" t="s">
-        <v>5880</v>
       </c>
       <c r="G1646" s="5"/>
       <c r="H1646" s="5"/>
@@ -55390,7 +55391,7 @@
     </row>
     <row r="1647" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1647" s="9" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
       <c r="B1647" s="5"/>
       <c r="C1647" s="5"/>
@@ -55398,13 +55399,13 @@
         <v>241</v>
       </c>
       <c r="E1647" s="10" t="s">
+        <v>5881</v>
+      </c>
+      <c r="F1647" s="10" t="s">
         <v>5882</v>
       </c>
-      <c r="F1647" s="10" t="s">
+      <c r="G1647" s="10" t="s">
         <v>5883</v>
-      </c>
-      <c r="G1647" s="10" t="s">
-        <v>5884</v>
       </c>
       <c r="H1647" s="5"/>
       <c r="I1647" s="5"/>
@@ -55412,7 +55413,7 @@
     </row>
     <row r="1648" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1648" s="4" t="s">
-        <v>5885</v>
+        <v>5884</v>
       </c>
       <c r="B1648" s="5"/>
       <c r="C1648" s="5"/>
@@ -55420,10 +55421,10 @@
         <v>241</v>
       </c>
       <c r="E1648" s="7" t="s">
+        <v>5885</v>
+      </c>
+      <c r="F1648" s="7" t="s">
         <v>5886</v>
-      </c>
-      <c r="F1648" s="7" t="s">
-        <v>5887</v>
       </c>
       <c r="G1648" s="5"/>
       <c r="H1648" s="5"/>
@@ -55432,7 +55433,7 @@
     </row>
     <row r="1649" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1649" s="4" t="s">
-        <v>5888</v>
+        <v>5887</v>
       </c>
       <c r="B1649" s="6" t="s">
         <v>245</v>
@@ -55442,13 +55443,13 @@
         <v>236</v>
       </c>
       <c r="E1649" s="7" t="s">
+        <v>5888</v>
+      </c>
+      <c r="F1649" s="7" t="s">
         <v>5889</v>
       </c>
-      <c r="F1649" s="7" t="s">
+      <c r="G1649" s="7" t="s">
         <v>5890</v>
-      </c>
-      <c r="G1649" s="7" t="s">
-        <v>5891</v>
       </c>
       <c r="H1649" s="5"/>
       <c r="I1649" s="5"/>
@@ -55456,7 +55457,7 @@
     </row>
     <row r="1650" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1650" s="12" t="s">
-        <v>5892</v>
+        <v>5891</v>
       </c>
       <c r="B1650" s="13"/>
       <c r="C1650" s="13"/>
@@ -55464,23 +55465,23 @@
         <v>241</v>
       </c>
       <c r="E1650" s="7" t="s">
+        <v>5892</v>
+      </c>
+      <c r="F1650" s="7" t="s">
         <v>5893</v>
       </c>
-      <c r="F1650" s="7" t="s">
+      <c r="G1650" s="7" t="s">
         <v>5894</v>
       </c>
-      <c r="G1650" s="7" t="s">
+      <c r="H1650" s="7" t="s">
         <v>5895</v>
-      </c>
-      <c r="H1650" s="7" t="s">
-        <v>5896</v>
       </c>
       <c r="I1650" s="5"/>
       <c r="J1650" s="5"/>
     </row>
     <row r="1651" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1651" s="9" t="s">
-        <v>5897</v>
+        <v>5896</v>
       </c>
       <c r="B1651" s="5"/>
       <c r="C1651" s="5"/>
@@ -55488,10 +55489,10 @@
         <v>271</v>
       </c>
       <c r="E1651" s="10" t="s">
+        <v>5897</v>
+      </c>
+      <c r="F1651" s="10" t="s">
         <v>5898</v>
-      </c>
-      <c r="F1651" s="10" t="s">
-        <v>5899</v>
       </c>
       <c r="G1651" s="5"/>
       <c r="H1651" s="5"/>
@@ -55500,7 +55501,7 @@
     </row>
     <row r="1652" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1652" s="9" t="s">
-        <v>5900</v>
+        <v>5899</v>
       </c>
       <c r="B1652" s="10" t="s">
         <v>245</v>
@@ -55510,10 +55511,10 @@
         <v>236</v>
       </c>
       <c r="E1652" s="10" t="s">
+        <v>5900</v>
+      </c>
+      <c r="F1652" s="10" t="s">
         <v>5901</v>
-      </c>
-      <c r="F1652" s="10" t="s">
-        <v>5902</v>
       </c>
       <c r="G1652" s="5"/>
       <c r="H1652" s="5"/>
@@ -55522,7 +55523,7 @@
     </row>
     <row r="1653" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1653" s="9" t="s">
-        <v>5903</v>
+        <v>5902</v>
       </c>
       <c r="B1653" s="5"/>
       <c r="C1653" s="5"/>
@@ -55530,10 +55531,10 @@
         <v>232</v>
       </c>
       <c r="E1653" s="10" t="s">
+        <v>5903</v>
+      </c>
+      <c r="F1653" s="10" t="s">
         <v>5904</v>
-      </c>
-      <c r="F1653" s="10" t="s">
-        <v>5905</v>
       </c>
       <c r="G1653" s="10" t="s">
         <v>843</v>
@@ -55544,7 +55545,7 @@
     </row>
     <row r="1654" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1654" s="9" t="s">
-        <v>5906</v>
+        <v>5905</v>
       </c>
       <c r="B1654" s="10" t="s">
         <v>292</v>
@@ -55554,10 +55555,10 @@
         <v>236</v>
       </c>
       <c r="E1654" s="10" t="s">
+        <v>5906</v>
+      </c>
+      <c r="F1654" s="10" t="s">
         <v>5907</v>
-      </c>
-      <c r="F1654" s="10" t="s">
-        <v>5908</v>
       </c>
       <c r="G1654" s="5"/>
       <c r="H1654" s="5"/>
@@ -55566,7 +55567,7 @@
     </row>
     <row r="1655" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1655" s="9" t="s">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="B1655" s="5"/>
       <c r="C1655" s="5"/>
@@ -55577,10 +55578,10 @@
         <v>1260</v>
       </c>
       <c r="F1655" s="10" t="s">
+        <v>5909</v>
+      </c>
+      <c r="G1655" s="10" t="s">
         <v>5910</v>
-      </c>
-      <c r="G1655" s="10" t="s">
-        <v>5911</v>
       </c>
       <c r="H1655" s="5"/>
       <c r="I1655" s="5"/>
@@ -55588,7 +55589,7 @@
     </row>
     <row r="1656" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1656" s="9" t="s">
-        <v>5912</v>
+        <v>5911</v>
       </c>
       <c r="B1656" s="10" t="s">
         <v>292</v>
@@ -55598,13 +55599,13 @@
         <v>236</v>
       </c>
       <c r="E1656" s="10" t="s">
+        <v>5912</v>
+      </c>
+      <c r="F1656" s="10" t="s">
         <v>5913</v>
       </c>
-      <c r="F1656" s="10" t="s">
+      <c r="G1656" s="10" t="s">
         <v>5914</v>
-      </c>
-      <c r="G1656" s="10" t="s">
-        <v>5915</v>
       </c>
       <c r="H1656" s="5"/>
       <c r="I1656" s="5"/>
@@ -55612,7 +55613,7 @@
     </row>
     <row r="1657" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1657" s="9" t="s">
-        <v>5916</v>
+        <v>5915</v>
       </c>
       <c r="B1657" s="5"/>
       <c r="C1657" s="5"/>
@@ -55620,10 +55621,10 @@
         <v>232</v>
       </c>
       <c r="E1657" s="10" t="s">
+        <v>5916</v>
+      </c>
+      <c r="F1657" s="10" t="s">
         <v>5917</v>
-      </c>
-      <c r="F1657" s="10" t="s">
-        <v>5918</v>
       </c>
       <c r="G1657" s="5"/>
       <c r="H1657" s="5"/>
@@ -55632,7 +55633,7 @@
     </row>
     <row r="1658" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1658" s="9" t="s">
-        <v>5919</v>
+        <v>5918</v>
       </c>
       <c r="B1658" s="5"/>
       <c r="C1658" s="5"/>
@@ -55640,13 +55641,13 @@
         <v>232</v>
       </c>
       <c r="E1658" s="10" t="s">
+        <v>5919</v>
+      </c>
+      <c r="F1658" s="10" t="s">
         <v>5920</v>
       </c>
-      <c r="F1658" s="10" t="s">
+      <c r="G1658" s="10" t="s">
         <v>5921</v>
-      </c>
-      <c r="G1658" s="10" t="s">
-        <v>5922</v>
       </c>
       <c r="H1658" s="5"/>
       <c r="I1658" s="5"/>
@@ -55654,7 +55655,7 @@
     </row>
     <row r="1659" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1659" s="9" t="s">
-        <v>5923</v>
+        <v>5922</v>
       </c>
       <c r="B1659" s="5"/>
       <c r="C1659" s="5"/>
@@ -55662,13 +55663,13 @@
         <v>241</v>
       </c>
       <c r="E1659" s="10" t="s">
+        <v>5923</v>
+      </c>
+      <c r="F1659" s="10" t="s">
         <v>5924</v>
       </c>
-      <c r="F1659" s="10" t="s">
+      <c r="G1659" s="10" t="s">
         <v>5925</v>
-      </c>
-      <c r="G1659" s="10" t="s">
-        <v>5926</v>
       </c>
       <c r="H1659" s="5"/>
       <c r="I1659" s="5"/>
@@ -55676,7 +55677,7 @@
     </row>
     <row r="1660" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1660" s="9" t="s">
-        <v>5927</v>
+        <v>5926</v>
       </c>
       <c r="B1660" s="5"/>
       <c r="C1660" s="5"/>
@@ -55684,10 +55685,10 @@
         <v>241</v>
       </c>
       <c r="E1660" s="10" t="s">
+        <v>5927</v>
+      </c>
+      <c r="F1660" s="10" t="s">
         <v>5928</v>
-      </c>
-      <c r="F1660" s="10" t="s">
-        <v>5929</v>
       </c>
       <c r="G1660" s="5"/>
       <c r="H1660" s="5"/>
@@ -55696,7 +55697,7 @@
     </row>
     <row r="1661" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1661" s="9" t="s">
-        <v>5930</v>
+        <v>5929</v>
       </c>
       <c r="B1661" s="10" t="s">
         <v>292</v>
@@ -55706,10 +55707,10 @@
         <v>236</v>
       </c>
       <c r="E1661" s="10" t="s">
+        <v>5930</v>
+      </c>
+      <c r="F1661" s="10" t="s">
         <v>5931</v>
-      </c>
-      <c r="F1661" s="10" t="s">
-        <v>5932</v>
       </c>
       <c r="G1661" s="5"/>
       <c r="H1661" s="5"/>
@@ -55718,7 +55719,7 @@
     </row>
     <row r="1662" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1662" s="9" t="s">
-        <v>5933</v>
+        <v>5932</v>
       </c>
       <c r="B1662" s="5"/>
       <c r="C1662" s="5"/>
@@ -55726,13 +55727,13 @@
         <v>241</v>
       </c>
       <c r="E1662" s="10" t="s">
+        <v>5933</v>
+      </c>
+      <c r="F1662" s="10" t="s">
         <v>5934</v>
       </c>
-      <c r="F1662" s="10" t="s">
+      <c r="G1662" s="10" t="s">
         <v>5935</v>
-      </c>
-      <c r="G1662" s="10" t="s">
-        <v>5936</v>
       </c>
       <c r="H1662" s="5"/>
       <c r="I1662" s="5"/>
@@ -55740,7 +55741,7 @@
     </row>
     <row r="1663" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1663" s="4" t="s">
-        <v>5937</v>
+        <v>5936</v>
       </c>
       <c r="B1663" s="5"/>
       <c r="C1663" s="5"/>
@@ -55748,13 +55749,13 @@
         <v>241</v>
       </c>
       <c r="E1663" s="7" t="s">
+        <v>5937</v>
+      </c>
+      <c r="F1663" s="7" t="s">
         <v>5938</v>
       </c>
-      <c r="F1663" s="7" t="s">
+      <c r="G1663" s="7" t="s">
         <v>5939</v>
-      </c>
-      <c r="G1663" s="7" t="s">
-        <v>5940</v>
       </c>
       <c r="H1663" s="5"/>
       <c r="I1663" s="5"/>
@@ -55762,7 +55763,7 @@
     </row>
     <row r="1664" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1664" s="9" t="s">
-        <v>5941</v>
+        <v>5940</v>
       </c>
       <c r="B1664" s="10" t="s">
         <v>292</v>
@@ -55772,10 +55773,10 @@
         <v>236</v>
       </c>
       <c r="E1664" s="10" t="s">
+        <v>5941</v>
+      </c>
+      <c r="F1664" s="10" t="s">
         <v>5942</v>
-      </c>
-      <c r="F1664" s="10" t="s">
-        <v>5943</v>
       </c>
       <c r="G1664" s="5"/>
       <c r="H1664" s="5"/>
@@ -55784,7 +55785,7 @@
     </row>
     <row r="1665" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1665" s="9" t="s">
-        <v>5944</v>
+        <v>5943</v>
       </c>
       <c r="B1665" s="10" t="s">
         <v>292</v>
@@ -55794,13 +55795,13 @@
         <v>236</v>
       </c>
       <c r="E1665" s="10" t="s">
+        <v>5944</v>
+      </c>
+      <c r="F1665" s="10" t="s">
         <v>5945</v>
       </c>
-      <c r="F1665" s="10" t="s">
+      <c r="G1665" s="10" t="s">
         <v>5946</v>
-      </c>
-      <c r="G1665" s="10" t="s">
-        <v>5947</v>
       </c>
       <c r="H1665" s="5"/>
       <c r="I1665" s="5"/>
@@ -55808,7 +55809,7 @@
     </row>
     <row r="1666" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1666" s="4" t="s">
-        <v>5948</v>
+        <v>5947</v>
       </c>
       <c r="B1666" s="5"/>
       <c r="C1666" s="5"/>
@@ -55816,13 +55817,13 @@
         <v>241</v>
       </c>
       <c r="E1666" s="7" t="s">
+        <v>5948</v>
+      </c>
+      <c r="F1666" s="7" t="s">
         <v>5949</v>
       </c>
-      <c r="F1666" s="7" t="s">
+      <c r="G1666" s="7" t="s">
         <v>5950</v>
-      </c>
-      <c r="G1666" s="7" t="s">
-        <v>5951</v>
       </c>
       <c r="H1666" s="5"/>
       <c r="I1666" s="5"/>
@@ -55830,7 +55831,7 @@
     </row>
     <row r="1667" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1667" s="25" t="s">
-        <v>5952</v>
+        <v>5951</v>
       </c>
       <c r="B1667" s="26" t="s">
         <v>245</v>
@@ -55840,13 +55841,13 @@
         <v>236</v>
       </c>
       <c r="E1667" s="10" t="s">
+        <v>5952</v>
+      </c>
+      <c r="F1667" s="10" t="s">
         <v>5953</v>
       </c>
-      <c r="F1667" s="10" t="s">
+      <c r="G1667" s="10" t="s">
         <v>5954</v>
-      </c>
-      <c r="G1667" s="10" t="s">
-        <v>5955</v>
       </c>
       <c r="H1667" s="5"/>
       <c r="I1667" s="5"/>
@@ -55854,7 +55855,7 @@
     </row>
     <row r="1668" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1668" s="30" t="s">
-        <v>5956</v>
+        <v>5955</v>
       </c>
       <c r="B1668" s="37" t="s">
         <v>292</v>
@@ -55864,10 +55865,10 @@
         <v>236</v>
       </c>
       <c r="E1668" s="7" t="s">
+        <v>5956</v>
+      </c>
+      <c r="F1668" s="7" t="s">
         <v>5957</v>
-      </c>
-      <c r="F1668" s="7" t="s">
-        <v>5958</v>
       </c>
       <c r="G1668" s="5"/>
       <c r="H1668" s="5"/>
@@ -55876,7 +55877,7 @@
     </row>
     <row r="1669" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1669" s="25" t="s">
-        <v>5959</v>
+        <v>5958</v>
       </c>
       <c r="B1669" s="27"/>
       <c r="C1669" s="27"/>
@@ -55884,10 +55885,10 @@
         <v>232</v>
       </c>
       <c r="E1669" s="10" t="s">
+        <v>5959</v>
+      </c>
+      <c r="F1669" s="10" t="s">
         <v>5960</v>
-      </c>
-      <c r="F1669" s="10" t="s">
-        <v>5961</v>
       </c>
       <c r="G1669" s="5"/>
       <c r="H1669" s="5"/>
@@ -55896,7 +55897,7 @@
     </row>
     <row r="1670" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1670" s="30" t="s">
-        <v>5959</v>
+        <v>5958</v>
       </c>
       <c r="B1670" s="29"/>
       <c r="C1670" s="29"/>
@@ -55904,10 +55905,10 @@
         <v>232</v>
       </c>
       <c r="E1670" s="7" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
       <c r="F1670" s="7" t="s">
-        <v>5962</v>
+        <v>5961</v>
       </c>
       <c r="G1670" s="5"/>
       <c r="H1670" s="5"/>
@@ -55916,7 +55917,7 @@
     </row>
     <row r="1671" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1671" s="9" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
       <c r="B1671" s="10" t="s">
         <v>245</v>
@@ -55926,13 +55927,13 @@
         <v>271</v>
       </c>
       <c r="E1671" s="10" t="s">
+        <v>5963</v>
+      </c>
+      <c r="F1671" s="10" t="s">
         <v>5964</v>
       </c>
-      <c r="F1671" s="10" t="s">
+      <c r="G1671" s="10" t="s">
         <v>5965</v>
-      </c>
-      <c r="G1671" s="10" t="s">
-        <v>5966</v>
       </c>
       <c r="H1671" s="5"/>
       <c r="I1671" s="5"/>
@@ -55940,7 +55941,7 @@
     </row>
     <row r="1672" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1672" s="9" t="s">
-        <v>5967</v>
+        <v>5966</v>
       </c>
       <c r="B1672" s="10" t="s">
         <v>292</v>
@@ -55950,13 +55951,13 @@
         <v>236</v>
       </c>
       <c r="E1672" s="10" t="s">
+        <v>5967</v>
+      </c>
+      <c r="F1672" s="10" t="s">
         <v>5968</v>
       </c>
-      <c r="F1672" s="10" t="s">
+      <c r="G1672" s="10" t="s">
         <v>5969</v>
-      </c>
-      <c r="G1672" s="10" t="s">
-        <v>5970</v>
       </c>
       <c r="H1672" s="5"/>
       <c r="I1672" s="5"/>
@@ -55964,7 +55965,7 @@
     </row>
     <row r="1673" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1673" s="9" t="s">
-        <v>5971</v>
+        <v>5970</v>
       </c>
       <c r="B1673" s="5"/>
       <c r="C1673" s="5"/>
@@ -55972,10 +55973,10 @@
         <v>241</v>
       </c>
       <c r="E1673" s="10" t="s">
+        <v>5971</v>
+      </c>
+      <c r="F1673" s="10" t="s">
         <v>5972</v>
-      </c>
-      <c r="F1673" s="10" t="s">
-        <v>5973</v>
       </c>
       <c r="G1673" s="5"/>
       <c r="H1673" s="5"/>
@@ -55984,7 +55985,7 @@
     </row>
     <row r="1674" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1674" s="9" t="s">
-        <v>5974</v>
+        <v>5973</v>
       </c>
       <c r="B1674" s="5"/>
       <c r="C1674" s="5"/>
@@ -55992,10 +55993,10 @@
         <v>236</v>
       </c>
       <c r="E1674" s="10" t="s">
+        <v>5974</v>
+      </c>
+      <c r="F1674" s="10" t="s">
         <v>5975</v>
-      </c>
-      <c r="F1674" s="10" t="s">
-        <v>5976</v>
       </c>
       <c r="G1674" s="5"/>
       <c r="H1674" s="5"/>
@@ -56004,7 +56005,7 @@
     </row>
     <row r="1675" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1675" s="9" t="s">
-        <v>5977</v>
+        <v>5976</v>
       </c>
       <c r="B1675" s="5"/>
       <c r="C1675" s="5"/>
@@ -56012,13 +56013,13 @@
         <v>232</v>
       </c>
       <c r="E1675" s="10" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
       <c r="F1675" s="10" t="s">
+        <v>5977</v>
+      </c>
+      <c r="G1675" s="10" t="s">
         <v>5978</v>
-      </c>
-      <c r="G1675" s="10" t="s">
-        <v>5979</v>
       </c>
       <c r="H1675" s="5"/>
       <c r="I1675" s="5"/>
@@ -56026,7 +56027,7 @@
     </row>
     <row r="1676" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1676" s="4" t="s">
-        <v>5980</v>
+        <v>5979</v>
       </c>
       <c r="B1676" s="6" t="s">
         <v>245</v>
@@ -56036,10 +56037,10 @@
         <v>236</v>
       </c>
       <c r="E1676" s="7" t="s">
+        <v>5980</v>
+      </c>
+      <c r="F1676" s="7" t="s">
         <v>5981</v>
-      </c>
-      <c r="F1676" s="7" t="s">
-        <v>5982</v>
       </c>
       <c r="G1676" s="5"/>
       <c r="H1676" s="5"/>
@@ -56048,7 +56049,7 @@
     </row>
     <row r="1677" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1677" s="4" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
       <c r="B1677" s="5"/>
       <c r="C1677" s="5"/>
@@ -56056,13 +56057,13 @@
         <v>241</v>
       </c>
       <c r="E1677" s="7" t="s">
+        <v>5983</v>
+      </c>
+      <c r="F1677" s="7" t="s">
         <v>5984</v>
       </c>
-      <c r="F1677" s="7" t="s">
+      <c r="G1677" s="7" t="s">
         <v>5985</v>
-      </c>
-      <c r="G1677" s="7" t="s">
-        <v>5986</v>
       </c>
       <c r="H1677" s="5"/>
       <c r="I1677" s="5"/>
@@ -56070,7 +56071,7 @@
     </row>
     <row r="1678" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1678" s="9" t="s">
-        <v>5987</v>
+        <v>5986</v>
       </c>
       <c r="B1678" s="5"/>
       <c r="C1678" s="5"/>
@@ -56078,10 +56079,10 @@
         <v>271</v>
       </c>
       <c r="E1678" s="10" t="s">
+        <v>5987</v>
+      </c>
+      <c r="F1678" s="10" t="s">
         <v>5988</v>
-      </c>
-      <c r="F1678" s="10" t="s">
-        <v>5989</v>
       </c>
       <c r="G1678" s="5"/>
       <c r="H1678" s="5"/>
@@ -56090,7 +56091,7 @@
     </row>
     <row r="1679" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1679" s="9" t="s">
-        <v>5990</v>
+        <v>5989</v>
       </c>
       <c r="B1679" s="10" t="s">
         <v>245</v>
@@ -56100,13 +56101,13 @@
         <v>236</v>
       </c>
       <c r="E1679" s="10" t="s">
+        <v>5990</v>
+      </c>
+      <c r="F1679" s="10" t="s">
         <v>5991</v>
       </c>
-      <c r="F1679" s="10" t="s">
+      <c r="G1679" s="10" t="s">
         <v>5992</v>
-      </c>
-      <c r="G1679" s="10" t="s">
-        <v>5993</v>
       </c>
       <c r="H1679" s="5"/>
       <c r="I1679" s="5"/>
@@ -56114,7 +56115,7 @@
     </row>
     <row r="1680" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1680" s="9" t="s">
-        <v>5994</v>
+        <v>5993</v>
       </c>
       <c r="B1680" s="5"/>
       <c r="C1680" s="5"/>
@@ -56122,13 +56123,13 @@
         <v>241</v>
       </c>
       <c r="E1680" s="10" t="s">
+        <v>5994</v>
+      </c>
+      <c r="F1680" s="10" t="s">
         <v>5995</v>
       </c>
-      <c r="F1680" s="10" t="s">
+      <c r="G1680" s="10" t="s">
         <v>5996</v>
-      </c>
-      <c r="G1680" s="10" t="s">
-        <v>5997</v>
       </c>
       <c r="H1680" s="5"/>
       <c r="I1680" s="5"/>
@@ -56136,7 +56137,7 @@
     </row>
     <row r="1681" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1681" s="4" t="s">
-        <v>5998</v>
+        <v>5997</v>
       </c>
       <c r="B1681" s="6" t="s">
         <v>292</v>
@@ -56146,13 +56147,13 @@
         <v>236</v>
       </c>
       <c r="E1681" s="7" t="s">
+        <v>5998</v>
+      </c>
+      <c r="F1681" s="7" t="s">
         <v>5999</v>
       </c>
-      <c r="F1681" s="7" t="s">
+      <c r="G1681" s="7" t="s">
         <v>6000</v>
-      </c>
-      <c r="G1681" s="7" t="s">
-        <v>6001</v>
       </c>
       <c r="H1681" s="5"/>
       <c r="I1681" s="5"/>
@@ -56160,7 +56161,7 @@
     </row>
     <row r="1682" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1682" s="4" t="s">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B1682" s="6" t="s">
         <v>292</v>
@@ -56170,13 +56171,13 @@
         <v>236</v>
       </c>
       <c r="E1682" s="7" t="s">
+        <v>6002</v>
+      </c>
+      <c r="F1682" s="7" t="s">
         <v>6003</v>
       </c>
-      <c r="F1682" s="7" t="s">
+      <c r="G1682" s="7" t="s">
         <v>6004</v>
-      </c>
-      <c r="G1682" s="7" t="s">
-        <v>6005</v>
       </c>
       <c r="H1682" s="5"/>
       <c r="I1682" s="5"/>
@@ -56184,7 +56185,7 @@
     </row>
     <row r="1683" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1683" s="4" t="s">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B1683" s="5"/>
       <c r="C1683" s="5"/>
@@ -56192,10 +56193,10 @@
         <v>241</v>
       </c>
       <c r="E1683" s="7" t="s">
+        <v>6006</v>
+      </c>
+      <c r="F1683" s="7" t="s">
         <v>6007</v>
-      </c>
-      <c r="F1683" s="7" t="s">
-        <v>6008</v>
       </c>
       <c r="G1683" s="5"/>
       <c r="H1683" s="5"/>
@@ -56204,7 +56205,7 @@
     </row>
     <row r="1684" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1684" s="12" t="s">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="B1684" s="14" t="s">
         <v>245</v>
@@ -56214,10 +56215,10 @@
         <v>236</v>
       </c>
       <c r="E1684" s="7" t="s">
+        <v>6009</v>
+      </c>
+      <c r="F1684" s="7" t="s">
         <v>6010</v>
-      </c>
-      <c r="F1684" s="7" t="s">
-        <v>6011</v>
       </c>
       <c r="G1684" s="5"/>
       <c r="H1684" s="5"/>
@@ -56226,7 +56227,7 @@
     </row>
     <row r="1685" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1685" s="9" t="s">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="B1685" s="10" t="s">
         <v>292</v>
@@ -56236,13 +56237,13 @@
         <v>236</v>
       </c>
       <c r="E1685" s="10" t="s">
+        <v>6012</v>
+      </c>
+      <c r="F1685" s="10" t="s">
         <v>6013</v>
       </c>
-      <c r="F1685" s="10" t="s">
+      <c r="G1685" s="10" t="s">
         <v>6014</v>
-      </c>
-      <c r="G1685" s="10" t="s">
-        <v>6015</v>
       </c>
       <c r="H1685" s="5"/>
       <c r="I1685" s="5"/>
@@ -56250,7 +56251,7 @@
     </row>
     <row r="1686" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1686" s="9" t="s">
-        <v>6016</v>
+        <v>6015</v>
       </c>
       <c r="B1686" s="10" t="s">
         <v>292</v>
@@ -56260,10 +56261,10 @@
         <v>236</v>
       </c>
       <c r="E1686" s="10" t="s">
+        <v>6016</v>
+      </c>
+      <c r="F1686" s="10" t="s">
         <v>6017</v>
-      </c>
-      <c r="F1686" s="10" t="s">
-        <v>6018</v>
       </c>
       <c r="G1686" s="5"/>
       <c r="H1686" s="5"/>
@@ -56272,7 +56273,7 @@
     </row>
     <row r="1687" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1687" s="4" t="s">
-        <v>6019</v>
+        <v>6018</v>
       </c>
       <c r="B1687" s="6" t="s">
         <v>292</v>
@@ -56282,13 +56283,13 @@
         <v>236</v>
       </c>
       <c r="E1687" s="7" t="s">
+        <v>6019</v>
+      </c>
+      <c r="F1687" s="7" t="s">
         <v>6020</v>
       </c>
-      <c r="F1687" s="7" t="s">
+      <c r="G1687" s="7" t="s">
         <v>6021</v>
-      </c>
-      <c r="G1687" s="7" t="s">
-        <v>6022</v>
       </c>
       <c r="H1687" s="5"/>
       <c r="I1687" s="5"/>
@@ -56296,7 +56297,7 @@
     </row>
     <row r="1688" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1688" s="9" t="s">
-        <v>6023</v>
+        <v>6022</v>
       </c>
       <c r="B1688" s="10" t="s">
         <v>245</v>
@@ -56306,10 +56307,10 @@
         <v>236</v>
       </c>
       <c r="E1688" s="10" t="s">
+        <v>6023</v>
+      </c>
+      <c r="F1688" s="10" t="s">
         <v>6024</v>
-      </c>
-      <c r="F1688" s="10" t="s">
-        <v>6025</v>
       </c>
       <c r="G1688" s="5"/>
       <c r="H1688" s="5"/>
@@ -56318,7 +56319,7 @@
     </row>
     <row r="1689" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1689" s="4" t="s">
-        <v>6026</v>
+        <v>6025</v>
       </c>
       <c r="B1689" s="5"/>
       <c r="C1689" s="5"/>
@@ -56326,13 +56327,13 @@
         <v>271</v>
       </c>
       <c r="E1689" s="7" t="s">
+        <v>6026</v>
+      </c>
+      <c r="F1689" s="7" t="s">
         <v>6027</v>
       </c>
-      <c r="F1689" s="7" t="s">
+      <c r="G1689" s="7" t="s">
         <v>6028</v>
-      </c>
-      <c r="G1689" s="7" t="s">
-        <v>6029</v>
       </c>
       <c r="H1689" s="5"/>
       <c r="I1689" s="5"/>
@@ -56340,7 +56341,7 @@
     </row>
     <row r="1690" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1690" s="9" t="s">
-        <v>6030</v>
+        <v>6029</v>
       </c>
       <c r="B1690" s="10" t="s">
         <v>245</v>
@@ -56350,13 +56351,13 @@
         <v>236</v>
       </c>
       <c r="E1690" s="10" t="s">
+        <v>6030</v>
+      </c>
+      <c r="F1690" s="10" t="s">
         <v>6031</v>
       </c>
-      <c r="F1690" s="10" t="s">
+      <c r="G1690" s="10" t="s">
         <v>6032</v>
-      </c>
-      <c r="G1690" s="10" t="s">
-        <v>6033</v>
       </c>
       <c r="H1690" s="5"/>
       <c r="I1690" s="5"/>
@@ -56364,7 +56365,7 @@
     </row>
     <row r="1691" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1691" s="25" t="s">
-        <v>6034</v>
+        <v>6033</v>
       </c>
       <c r="B1691" s="26" t="s">
         <v>245</v>
@@ -56374,10 +56375,10 @@
         <v>236</v>
       </c>
       <c r="E1691" s="10" t="s">
+        <v>6034</v>
+      </c>
+      <c r="F1691" s="10" t="s">
         <v>6035</v>
-      </c>
-      <c r="F1691" s="10" t="s">
-        <v>6036</v>
       </c>
       <c r="G1691" s="5"/>
       <c r="H1691" s="5"/>
@@ -56386,7 +56387,7 @@
     </row>
     <row r="1692" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1692" s="28" t="s">
-        <v>6037</v>
+        <v>6036</v>
       </c>
       <c r="B1692" s="31" t="s">
         <v>245</v>
@@ -56396,23 +56397,23 @@
         <v>236</v>
       </c>
       <c r="E1692" s="10" t="s">
+        <v>6037</v>
+      </c>
+      <c r="F1692" s="10" t="s">
         <v>6038</v>
       </c>
-      <c r="F1692" s="10" t="s">
+      <c r="G1692" s="10" t="s">
         <v>6039</v>
-      </c>
-      <c r="G1692" s="10" t="s">
-        <v>6040</v>
       </c>
       <c r="H1692" s="5"/>
       <c r="I1692" s="10" t="s">
-        <v>6041</v>
+        <v>6040</v>
       </c>
       <c r="J1692" s="5"/>
     </row>
     <row r="1693" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1693" s="9" t="s">
-        <v>6042</v>
+        <v>6041</v>
       </c>
       <c r="B1693" s="10" t="s">
         <v>245</v>
@@ -56422,13 +56423,13 @@
         <v>236</v>
       </c>
       <c r="E1693" s="10" t="s">
+        <v>6042</v>
+      </c>
+      <c r="F1693" s="10" t="s">
         <v>6043</v>
       </c>
-      <c r="F1693" s="10" t="s">
+      <c r="G1693" s="10" t="s">
         <v>6044</v>
-      </c>
-      <c r="G1693" s="10" t="s">
-        <v>6045</v>
       </c>
       <c r="H1693" s="5"/>
       <c r="I1693" s="5"/>
@@ -56436,7 +56437,7 @@
     </row>
     <row r="1694" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1694" s="9" t="s">
-        <v>6046</v>
+        <v>6045</v>
       </c>
       <c r="B1694" s="10" t="s">
         <v>292</v>
@@ -56446,10 +56447,10 @@
         <v>236</v>
       </c>
       <c r="E1694" s="10" t="s">
+        <v>6046</v>
+      </c>
+      <c r="F1694" s="10" t="s">
         <v>6047</v>
-      </c>
-      <c r="F1694" s="10" t="s">
-        <v>6048</v>
       </c>
       <c r="G1694" s="5"/>
       <c r="H1694" s="5"/>
@@ -56458,7 +56459,7 @@
     </row>
     <row r="1695" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1695" s="9" t="s">
-        <v>6049</v>
+        <v>6048</v>
       </c>
       <c r="B1695" s="10" t="s">
         <v>292</v>
@@ -56468,10 +56469,10 @@
         <v>236</v>
       </c>
       <c r="E1695" s="10" t="s">
+        <v>6049</v>
+      </c>
+      <c r="F1695" s="10" t="s">
         <v>6050</v>
-      </c>
-      <c r="F1695" s="10" t="s">
-        <v>6051</v>
       </c>
       <c r="G1695" s="5"/>
       <c r="H1695" s="5"/>
@@ -56480,7 +56481,7 @@
     </row>
     <row r="1696" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1696" s="9" t="s">
-        <v>6052</v>
+        <v>6051</v>
       </c>
       <c r="B1696" s="5"/>
       <c r="C1696" s="5"/>
@@ -56488,13 +56489,13 @@
         <v>241</v>
       </c>
       <c r="E1696" s="10" t="s">
+        <v>6052</v>
+      </c>
+      <c r="F1696" s="10" t="s">
         <v>6053</v>
       </c>
-      <c r="F1696" s="10" t="s">
+      <c r="G1696" s="10" t="s">
         <v>6054</v>
-      </c>
-      <c r="G1696" s="10" t="s">
-        <v>6055</v>
       </c>
       <c r="H1696" s="5"/>
       <c r="I1696" s="5"/>
@@ -56502,7 +56503,7 @@
     </row>
     <row r="1697" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1697" s="9" t="s">
-        <v>6056</v>
+        <v>6055</v>
       </c>
       <c r="B1697" s="10" t="s">
         <v>245</v>
@@ -56512,10 +56513,10 @@
         <v>236</v>
       </c>
       <c r="E1697" s="10" t="s">
+        <v>6056</v>
+      </c>
+      <c r="F1697" s="10" t="s">
         <v>6057</v>
-      </c>
-      <c r="F1697" s="10" t="s">
-        <v>6058</v>
       </c>
       <c r="G1697" s="5"/>
       <c r="H1697" s="5"/>
@@ -56524,7 +56525,7 @@
     </row>
     <row r="1698" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1698" s="4" t="s">
-        <v>6059</v>
+        <v>6058</v>
       </c>
       <c r="B1698" s="5"/>
       <c r="C1698" s="5"/>
@@ -56532,13 +56533,13 @@
         <v>241</v>
       </c>
       <c r="E1698" s="7" t="s">
+        <v>6059</v>
+      </c>
+      <c r="F1698" s="7" t="s">
         <v>6060</v>
       </c>
-      <c r="F1698" s="7" t="s">
+      <c r="G1698" s="7" t="s">
         <v>6061</v>
-      </c>
-      <c r="G1698" s="7" t="s">
-        <v>6062</v>
       </c>
       <c r="H1698" s="5"/>
       <c r="I1698" s="5"/>
@@ -56546,7 +56547,7 @@
     </row>
     <row r="1699" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1699" s="9" t="s">
-        <v>6063</v>
+        <v>6062</v>
       </c>
       <c r="B1699" s="5"/>
       <c r="C1699" s="5"/>
@@ -56554,13 +56555,13 @@
         <v>232</v>
       </c>
       <c r="E1699" s="10" t="s">
+        <v>6063</v>
+      </c>
+      <c r="F1699" s="10" t="s">
         <v>6064</v>
       </c>
-      <c r="F1699" s="10" t="s">
+      <c r="G1699" s="10" t="s">
         <v>6065</v>
-      </c>
-      <c r="G1699" s="10" t="s">
-        <v>6066</v>
       </c>
       <c r="H1699" s="5"/>
       <c r="I1699" s="5"/>
@@ -56568,7 +56569,7 @@
     </row>
     <row r="1700" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1700" s="9" t="s">
-        <v>6067</v>
+        <v>6066</v>
       </c>
       <c r="B1700" s="5"/>
       <c r="C1700" s="5"/>
@@ -56576,13 +56577,13 @@
         <v>241</v>
       </c>
       <c r="E1700" s="10" t="s">
+        <v>6067</v>
+      </c>
+      <c r="F1700" s="10" t="s">
         <v>6068</v>
       </c>
-      <c r="F1700" s="10" t="s">
+      <c r="G1700" s="10" t="s">
         <v>6069</v>
-      </c>
-      <c r="G1700" s="10" t="s">
-        <v>6070</v>
       </c>
       <c r="H1700" s="5"/>
       <c r="I1700" s="5"/>
@@ -56590,7 +56591,7 @@
     </row>
     <row r="1701" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1701" s="25" t="s">
-        <v>6071</v>
+        <v>6070</v>
       </c>
       <c r="B1701" s="26" t="s">
         <v>292</v>
@@ -56600,13 +56601,13 @@
         <v>236</v>
       </c>
       <c r="E1701" s="10" t="s">
+        <v>6071</v>
+      </c>
+      <c r="F1701" s="10" t="s">
         <v>6072</v>
       </c>
-      <c r="F1701" s="10" t="s">
+      <c r="G1701" s="10" t="s">
         <v>6073</v>
-      </c>
-      <c r="G1701" s="10" t="s">
-        <v>6074</v>
       </c>
       <c r="H1701" s="5"/>
       <c r="I1701" s="5"/>
@@ -56614,7 +56615,7 @@
     </row>
     <row r="1702" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1702" s="30" t="s">
-        <v>6075</v>
+        <v>6074</v>
       </c>
       <c r="B1702" s="29"/>
       <c r="C1702" s="29"/>
@@ -56625,10 +56626,10 @@
         <v>4978</v>
       </c>
       <c r="F1702" s="7" t="s">
+        <v>6075</v>
+      </c>
+      <c r="G1702" s="7" t="s">
         <v>6076</v>
-      </c>
-      <c r="G1702" s="7" t="s">
-        <v>6077</v>
       </c>
       <c r="H1702" s="5"/>
       <c r="I1702" s="5"/>
@@ -56636,7 +56637,7 @@
     </row>
     <row r="1703" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1703" s="9" t="s">
-        <v>6078</v>
+        <v>6077</v>
       </c>
       <c r="B1703" s="5"/>
       <c r="C1703" s="5"/>
@@ -56644,13 +56645,13 @@
         <v>1792</v>
       </c>
       <c r="E1703" s="10" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="F1703" s="10" t="s">
+        <v>6078</v>
+      </c>
+      <c r="G1703" s="10" t="s">
         <v>6079</v>
-      </c>
-      <c r="G1703" s="10" t="s">
-        <v>6080</v>
       </c>
       <c r="H1703" s="5"/>
       <c r="I1703" s="5"/>
@@ -56658,7 +56659,7 @@
     </row>
     <row r="1704" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1704" s="9" t="s">
-        <v>6081</v>
+        <v>6080</v>
       </c>
       <c r="B1704" s="5"/>
       <c r="C1704" s="5"/>
@@ -56666,10 +56667,10 @@
         <v>1792</v>
       </c>
       <c r="E1704" s="10" t="s">
+        <v>6081</v>
+      </c>
+      <c r="F1704" s="10" t="s">
         <v>6082</v>
-      </c>
-      <c r="F1704" s="10" t="s">
-        <v>6083</v>
       </c>
       <c r="G1704" s="5"/>
       <c r="H1704" s="5"/>
@@ -56678,7 +56679,7 @@
     </row>
     <row r="1705" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1705" s="4" t="s">
-        <v>6084</v>
+        <v>6083</v>
       </c>
       <c r="B1705" s="6" t="s">
         <v>292</v>
@@ -56688,13 +56689,13 @@
         <v>236</v>
       </c>
       <c r="E1705" s="7" t="s">
+        <v>6084</v>
+      </c>
+      <c r="F1705" s="7" t="s">
         <v>6085</v>
       </c>
-      <c r="F1705" s="7" t="s">
+      <c r="G1705" s="7" t="s">
         <v>6086</v>
-      </c>
-      <c r="G1705" s="7" t="s">
-        <v>6087</v>
       </c>
       <c r="H1705" s="5"/>
       <c r="I1705" s="5"/>
@@ -56702,7 +56703,7 @@
     </row>
     <row r="1706" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1706" s="9" t="s">
-        <v>6088</v>
+        <v>6087</v>
       </c>
       <c r="B1706" s="10" t="s">
         <v>245</v>
@@ -56712,10 +56713,10 @@
         <v>236</v>
       </c>
       <c r="E1706" s="10" t="s">
+        <v>6088</v>
+      </c>
+      <c r="F1706" s="10" t="s">
         <v>6089</v>
-      </c>
-      <c r="F1706" s="10" t="s">
-        <v>6090</v>
       </c>
       <c r="G1706" s="5"/>
       <c r="H1706" s="5"/>
@@ -56724,7 +56725,7 @@
     </row>
     <row r="1707" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1707" s="34" t="s">
-        <v>6091</v>
+        <v>6090</v>
       </c>
       <c r="B1707" s="36"/>
       <c r="C1707" s="36"/>
@@ -56732,13 +56733,13 @@
         <v>3988</v>
       </c>
       <c r="E1707" s="7" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
       <c r="F1707" s="7" t="s">
+        <v>6091</v>
+      </c>
+      <c r="G1707" s="7" t="s">
         <v>6092</v>
-      </c>
-      <c r="G1707" s="7" t="s">
-        <v>6093</v>
       </c>
       <c r="H1707" s="5"/>
       <c r="I1707" s="5"/>
@@ -56746,7 +56747,7 @@
     </row>
     <row r="1708" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1708" s="30" t="s">
-        <v>6094</v>
+        <v>6093</v>
       </c>
       <c r="B1708" s="37" t="s">
         <v>245</v>
@@ -56756,10 +56757,10 @@
         <v>236</v>
       </c>
       <c r="E1708" s="7" t="s">
+        <v>6094</v>
+      </c>
+      <c r="F1708" s="7" t="s">
         <v>6095</v>
-      </c>
-      <c r="F1708" s="7" t="s">
-        <v>6096</v>
       </c>
       <c r="G1708" s="5"/>
       <c r="H1708" s="5"/>
@@ -56768,7 +56769,7 @@
     </row>
     <row r="1709" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1709" s="4" t="s">
-        <v>6097</v>
+        <v>6096</v>
       </c>
       <c r="B1709" s="5"/>
       <c r="C1709" s="6" t="s">
@@ -56776,23 +56777,23 @@
       </c>
       <c r="D1709" s="5"/>
       <c r="E1709" s="7" t="s">
+        <v>6097</v>
+      </c>
+      <c r="F1709" s="7" t="s">
         <v>6098</v>
       </c>
-      <c r="F1709" s="7" t="s">
+      <c r="G1709" s="7" t="s">
         <v>6099</v>
-      </c>
-      <c r="G1709" s="7" t="s">
-        <v>6100</v>
       </c>
       <c r="H1709" s="5"/>
       <c r="I1709" s="7" t="s">
-        <v>6101</v>
+        <v>6100</v>
       </c>
       <c r="J1709" s="5"/>
     </row>
     <row r="1710" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1710" s="4" t="s">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="B1710" s="5"/>
       <c r="C1710" s="5"/>
@@ -56800,23 +56801,23 @@
         <v>706</v>
       </c>
       <c r="E1710" s="7" t="s">
+        <v>6102</v>
+      </c>
+      <c r="F1710" s="7" t="s">
         <v>6103</v>
       </c>
-      <c r="F1710" s="7" t="s">
+      <c r="G1710" s="7" t="s">
         <v>6104</v>
-      </c>
-      <c r="G1710" s="7" t="s">
-        <v>6105</v>
       </c>
       <c r="H1710" s="5"/>
       <c r="I1710" s="7" t="s">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="J1710" s="5"/>
     </row>
     <row r="1711" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1711" s="4" t="s">
-        <v>6107</v>
+        <v>6106</v>
       </c>
       <c r="B1711" s="5"/>
       <c r="C1711" s="5"/>
@@ -56824,13 +56825,13 @@
         <v>210</v>
       </c>
       <c r="E1711" s="7" t="s">
+        <v>6107</v>
+      </c>
+      <c r="F1711" s="7" t="s">
         <v>6108</v>
       </c>
-      <c r="F1711" s="7" t="s">
+      <c r="G1711" s="7" t="s">
         <v>6109</v>
-      </c>
-      <c r="G1711" s="7" t="s">
-        <v>6110</v>
       </c>
       <c r="H1711" s="5"/>
       <c r="I1711" s="5"/>
@@ -56838,7 +56839,7 @@
     </row>
     <row r="1712" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1712" s="9" t="s">
-        <v>6111</v>
+        <v>6110</v>
       </c>
       <c r="B1712" s="10" t="s">
         <v>292</v>
@@ -56848,13 +56849,13 @@
         <v>236</v>
       </c>
       <c r="E1712" s="10" t="s">
+        <v>6111</v>
+      </c>
+      <c r="F1712" s="10" t="s">
         <v>6112</v>
       </c>
-      <c r="F1712" s="10" t="s">
+      <c r="G1712" s="10" t="s">
         <v>6113</v>
-      </c>
-      <c r="G1712" s="10" t="s">
-        <v>6114</v>
       </c>
       <c r="H1712" s="5"/>
       <c r="I1712" s="5"/>
@@ -56862,7 +56863,7 @@
     </row>
     <row r="1713" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1713" s="4" t="s">
-        <v>6115</v>
+        <v>6114</v>
       </c>
       <c r="B1713" s="5"/>
       <c r="C1713" s="5"/>
@@ -56870,23 +56871,23 @@
         <v>1792</v>
       </c>
       <c r="E1713" s="7" t="s">
+        <v>6115</v>
+      </c>
+      <c r="F1713" s="7" t="s">
         <v>6116</v>
       </c>
-      <c r="F1713" s="7" t="s">
+      <c r="G1713" s="7" t="s">
         <v>6117</v>
-      </c>
-      <c r="G1713" s="7" t="s">
-        <v>6118</v>
       </c>
       <c r="H1713" s="5"/>
       <c r="I1713" s="7" t="s">
-        <v>6119</v>
+        <v>6118</v>
       </c>
       <c r="J1713" s="5"/>
     </row>
     <row r="1714" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1714" s="4" t="s">
-        <v>6120</v>
+        <v>6119</v>
       </c>
       <c r="B1714" s="6" t="s">
         <v>245</v>
@@ -56896,25 +56897,25 @@
         <v>236</v>
       </c>
       <c r="E1714" s="7" t="s">
+        <v>6120</v>
+      </c>
+      <c r="F1714" s="7" t="s">
         <v>6121</v>
       </c>
-      <c r="F1714" s="7" t="s">
+      <c r="G1714" s="7" t="s">
         <v>6122</v>
-      </c>
-      <c r="G1714" s="7" t="s">
-        <v>6123</v>
       </c>
       <c r="H1714" s="5"/>
       <c r="I1714" s="57" t="s">
+        <v>6123</v>
+      </c>
+      <c r="J1714" s="7" t="s">
         <v>6124</v>
-      </c>
-      <c r="J1714" s="7" t="s">
-        <v>6125</v>
       </c>
     </row>
     <row r="1715" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1715" s="9" t="s">
-        <v>6126</v>
+        <v>6125</v>
       </c>
       <c r="B1715" s="10" t="s">
         <v>245</v>
@@ -56924,21 +56925,21 @@
         <v>236</v>
       </c>
       <c r="E1715" s="10" t="s">
+        <v>6126</v>
+      </c>
+      <c r="F1715" s="10" t="s">
         <v>6127</v>
-      </c>
-      <c r="F1715" s="10" t="s">
-        <v>6128</v>
       </c>
       <c r="G1715" s="5"/>
       <c r="H1715" s="5"/>
       <c r="I1715" s="10" t="s">
-        <v>6129</v>
+        <v>6128</v>
       </c>
       <c r="J1715" s="5"/>
     </row>
     <row r="1716" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1716" s="9" t="s">
-        <v>6130</v>
+        <v>6129</v>
       </c>
       <c r="B1716" s="10" t="s">
         <v>292</v>
@@ -56948,13 +56949,13 @@
         <v>236</v>
       </c>
       <c r="E1716" s="10" t="s">
+        <v>6130</v>
+      </c>
+      <c r="F1716" s="10" t="s">
         <v>6131</v>
       </c>
-      <c r="F1716" s="10" t="s">
+      <c r="G1716" s="10" t="s">
         <v>6132</v>
-      </c>
-      <c r="G1716" s="10" t="s">
-        <v>6133</v>
       </c>
       <c r="H1716" s="5"/>
       <c r="I1716" s="5"/>

--- a/public/assets/data/oedos.xlsx
+++ b/public/assets/data/oedos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="12480" yWindow="460" windowWidth="10000" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8693" uniqueCount="6135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8812" uniqueCount="6213">
   <si>
     <t>name</t>
   </si>
@@ -18435,6 +18435,240 @@
   </si>
   <si>
     <t>Very late 15th cent. From &lt;a href='/term/saco'&gt;saco&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>agro</t>
+  </si>
+  <si>
+    <t>"field"</t>
+  </si>
+  <si>
+    <t>Very late 16th cent. From Latin &lt;i&gt;ager&lt;/i&gt; 'id.'</t>
+  </si>
+  <si>
+    <t>From Proto-Italic *&lt;i&gt;agro-&lt;/i&gt; 'id.' From Proto-Indo-European *&lt;i&gt;h&lt;sub&gt;2&lt;/sub&gt;eǵ-ro-&lt;/i&gt; 'id.'</t>
+  </si>
+  <si>
+    <t>alumno</t>
+  </si>
+  <si>
+    <t>"student," (archaic) "foster child"</t>
+  </si>
+  <si>
+    <t>Very early 17th cent. From Latin &lt;i&gt;alumnus&lt;/i&gt; "student," but originally "foster child," "nursling."</t>
+  </si>
+  <si>
+    <t>From Proto-Italic *&lt;i&gt;alo-mn-o-&lt;/i&gt; "nourished one." From Proto-Indo-European *&lt;i&gt;h&lt;sub&gt;2&lt;/sub&gt;el-o-mh&lt;sub&gt;1&lt;/sub&gt;no-&lt;/i&gt; "being fed." From a root *&lt;i&gt;h&lt;sub&gt;2&lt;/sub&gt;el-&lt;/i&gt; "to feed."</t>
+  </si>
+  <si>
+    <t>bigote</t>
+  </si>
+  <si>
+    <t>"mustache"</t>
+  </si>
+  <si>
+    <t>Late 15th cent. First recorded as &lt;i&gt;bigot de barva&lt;/i&gt; with &lt;i&gt;-e&lt;/i&gt; later added via anaptyxis. Probably borrowed from Swiss German &lt;i&gt;bî Gott&lt;/i&gt; "by God!," taken from Swiss German mercenaries during the Seige of Granada in 1483 - mercenaries who often sported prominent facial hair (Lapesa 1987). Previous theories hypothesized a borrowing from Old French &lt;i&gt;bigot&lt;/i&gt;, slang for mustachioed Norman soldiers; from the Norman surname &lt;i&gt;Bigot&lt;/i&gt;; or from Old French &lt;i&gt;bigot&lt;/i&gt; "pastry resembling a mustache" (see Corominas 1991; Roberts 2015; Covarrubias 1611 respectively). Lapesa's theory has the benefit of both time and place for the word to enter into Spanish.</t>
+  </si>
+  <si>
+    <t>Also a metaphor for the remnant of drink on the upper lip (cf. English &lt;i&gt;milk mustache&lt;/i&gt;).</t>
+  </si>
+  <si>
+    <t>manzana (1)</t>
+  </si>
+  <si>
+    <t>"apple"</t>
+  </si>
+  <si>
+    <t>12th cent. Old Spanish &lt;i&gt;mazana&lt;/i&gt;. From Vulgar Latin &lt;i&gt;mattiana&lt;/i&gt; 'id.' From Latin &lt;i&gt;mala Mattiana&lt;/i&gt;, a golden apple varietal but lit. "Matian apples." Named after the horticulturist Gaius Matius, friend of Cæsar Agustus, who introduced the technique of clipping trees. &lt;i&gt;Mala&lt;/i&gt; "apples" (singular &lt;i&gt;malum&lt;/i&gt;) was borrowed from Ancient Greek μῆλον ‎(mêlon) "fruit," "tree."</t>
+  </si>
+  <si>
+    <t>manzana (2), manzana de Adán</t>
+  </si>
+  <si>
+    <t>(Latin America) "Adam's apple"</t>
+  </si>
+  <si>
+    <t>From Latin &lt;i&gt;pomum Adami&lt;/i&gt; "Adam's apple," a mistranslation of Hebrew &lt;i&gt;tappuach ha-adam&lt;/i&gt; "man's bump" for "Adam's apple."</t>
+  </si>
+  <si>
+    <t>melón (1)</t>
+  </si>
+  <si>
+    <t>"melon"</t>
+  </si>
+  <si>
+    <t>Very early 15th cent. From Late Latin &lt;i&gt;melonem&lt;/i&gt;, accusative of &lt;i&gt;melo&lt;/i&gt; 'id.,' apocopation of earlier &lt;i&gt;melopeponem&lt;/i&gt; "fruit (in the shape of an apple)." Borrowed from Ancient Greek μηλοπέπων (melopépon) 'id.,' a compound of μῆλον ‎(mêlon) "apple," "stonefruit" (see &lt;a href='/term/manzana-1'&gt;manzana&lt;/a&gt;) and πέπων ‎(pépon) "ripe."</t>
+  </si>
+  <si>
+    <t>From Proto-Indo-European *&lt;i&gt;pek&lt;sup&gt;w&lt;/sup&gt;-&lt;/i&gt; "to cook," the same root behind &lt;a href='/term/cocer'&gt;cocer&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Also as an adjectival denoting awkward or uncomfortable behavior.</t>
+  </si>
+  <si>
+    <t>melón (2), meloncillo</t>
+  </si>
+  <si>
+    <t>"Egyptian mongoose"</t>
+  </si>
+  <si>
+    <t>alfombra (1)</t>
+  </si>
+  <si>
+    <t>"carpet"</t>
+  </si>
+  <si>
+    <t>15th cent. From Andalusian Arabic &lt;i&gt;alḥánbal&lt;/i&gt; "carpet," "Moroccan tapestry."</t>
+  </si>
+  <si>
+    <t>alfombra (2)</t>
+  </si>
+  <si>
+    <t>"rubella," "measles"</t>
+  </si>
+  <si>
+    <t>15th cent. From Andalusian Arabic &lt;i&gt;alḥúmra&lt;/i&gt; "measles."</t>
+  </si>
+  <si>
+    <t>almohada</t>
+  </si>
+  <si>
+    <t>"pillow"</t>
+  </si>
+  <si>
+    <t>Very early 15th cent. From Andalusian Arabic &lt;i&gt;almuḥádda&lt;/i&gt; 'id.'</t>
+  </si>
+  <si>
+    <t>azúcar</t>
+  </si>
+  <si>
+    <t>"sugar"</t>
+  </si>
+  <si>
+    <t>13th cent. From Andalusian Arabic &lt;i&gt;assúkkar&lt;/i&gt; 'id.,' itself borrowed from Greek σάκχαρι (sákhari) 'id.,' earlier σάκχαρ (sákk&lt;sup&gt;h&lt;/sup&gt;ar). A loan from an Indic source, perhaps Pali &lt;i&gt;sakkharā-&lt;/i&gt; 'id.' From Sanskrit &lt;i&gt;śárkarā-&lt;/i&gt; 'id.'</t>
+  </si>
+  <si>
+    <t>chingar</t>
+  </si>
+  <si>
+    <t>(obscene) "to fuck;" (Latin America) "to fail," "to miscarry"</t>
+  </si>
+  <si>
+    <t>19th cent. From Romany &lt;i&gt;chingarár&lt;/i&gt; "to fight." Corominas (1991) is skeptical the Latin American senses of failure derive from the same Romany word, and instead speculates a source in an unknown New World language or languages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;i&gt;Chingarár&lt;/i&gt; is probably from Proto-Indo-European *&lt;i&gt;g&lt;sup&gt;wh&lt;/sup&gt;en-&lt;/i&gt; "to strike" but the exact route is uncertain.</t>
+  </si>
+  <si>
+    <t>cui, cuy</t>
+  </si>
+  <si>
+    <t>"guinea pig"</t>
+  </si>
+  <si>
+    <t>16th cent. Borrowed from Quechua &lt;i&gt;quwi&lt;/i&gt; 'id.'</t>
+  </si>
+  <si>
+    <t>gimnasia</t>
+  </si>
+  <si>
+    <t>"gymnastics"</t>
+  </si>
+  <si>
+    <t>19th cent. Borrowed from Latin &lt;i&gt;gymnasia&lt;/i&gt; "bodily exercises," borrowed from Ancient Greek γῠμνᾰ́σιᾰ (gymnásia) 'id.,' the plural of γυμνάσιον (gumnásion) "gymnasium" (see &lt;a href='/term/gimnasio'&gt;gimnasio&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>gimnasio</t>
+  </si>
+  <si>
+    <t>"gymnasium"</t>
+  </si>
+  <si>
+    <t>17th cent. Borrowed form Latin &lt;i&gt;gymnasium&lt;/i&gt; 'id.,' itself borrowed from Ancient Greek γυμνάσιον ‎(gumnásion) 'id.' Formed from γυμνός (gumnós) "naked," as exercises were performed nude.</t>
+  </si>
+  <si>
+    <t>From Proto-Indo-European *&lt;i&gt;nog&lt;sup&gt;w&lt;/sup&gt;-no-&lt;/i&gt; 'id.' (whence &lt;a href='/term/nudo-1'&gt;nudo (1)&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>helado</t>
+  </si>
+  <si>
+    <t>"cold," "ice cream"</t>
+  </si>
+  <si>
+    <t>13th cent. An adjectival from &lt;a href='/term/helar'&gt;helar&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>helar</t>
+  </si>
+  <si>
+    <t>"to freeze"</t>
+  </si>
+  <si>
+    <t>impulso</t>
+  </si>
+  <si>
+    <t>"impulse"</t>
+  </si>
+  <si>
+    <t>Late 15th cent. From Latin &lt;i&gt;impulsus&lt;/i&gt; 'id.,' from &lt;i&gt;impellere&lt;/i&gt; "to push against," "to incite." From &lt;i&gt;in-&lt;/i&gt; "in" (see &lt;a href='/term/in-2-en'&gt;in-&lt;/a&gt;) and &lt;i&gt;pellare&lt;/i&gt; "to drive" (see &lt;a href='/term/pulso'&gt;pulso&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t>nudo (1)</t>
+  </si>
+  <si>
+    <t>"naked"</t>
+  </si>
+  <si>
+    <t>13th cent. From Latin &lt;i&gt;nudus&lt;/i&gt; 'id.'</t>
+  </si>
+  <si>
+    <t>From Proto-Italic *&lt;i&gt;noweþo-&lt;/i&gt; 'id.' From Proto-Indo-European *&lt;i&gt;nog&lt;sup&gt;w&lt;/sup&gt;-od&lt;sup&gt;h&lt;/sup&gt;o-&lt;/i&gt; 'id.,' derived from *&lt;i&gt;nog&lt;sup&gt;w&lt;/sup&gt;s&lt;/i&gt; 'id.'</t>
+  </si>
+  <si>
+    <t>nudo (2)</t>
+  </si>
+  <si>
+    <t>"knot"</t>
+  </si>
+  <si>
+    <t>13th cent. From Vulgar Latin *&lt;i&gt;nudus&lt;/i&gt; 'id.,' from Latin &lt;i&gt;nodus&lt;/i&gt; 'id.' The sound change from &lt;i&gt;-o-&lt;/i&gt; to &lt;i&gt;-u-&lt;/i&gt; is not understood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Proto-Italic *&lt;i&gt;nōdo-&lt;/i&gt; 'id.' From Proto-Indo-European *&lt;i&gt;neh&lt;sub&gt;3&lt;/sub&gt;-do-&lt;/i&gt; 'id.' </t>
+  </si>
+  <si>
+    <t>prever</t>
+  </si>
+  <si>
+    <t>"to foresee"</t>
+  </si>
+  <si>
+    <t>Early 17th cent. From &lt;a href='/term/pre'&gt;pre-&lt;/a&gt; and &lt;a href='/term/ver'&gt;ver&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>tripa</t>
+  </si>
+  <si>
+    <t>"intestine," "gut"</t>
+  </si>
+  <si>
+    <t>Very early 13th cent. Of unknown origin.</t>
+  </si>
+  <si>
+    <t>zanahoria</t>
+  </si>
+  <si>
+    <t>"carrot"</t>
+  </si>
+  <si>
+    <t>14th cent. Old Spanish &lt;i&gt;çanahoria&lt;/i&gt;, dialectic variant &lt;i&gt;safanòria&lt;/i&gt;. Borrowed from Andalusian Arabic *&lt;i&gt;safunnárya&lt;/i&gt; 'id.,' itself borrowed from Ancient Greek σταφυλίνη ἀγρία (stap&lt;sup&gt;h&lt;/sup&gt;ulíne agría) "wild carrot." σταφυλίνη "carrot" is a diminutive of σταφυλή (stap&lt;sup&gt;h&lt;/sup&gt;ulé) "grape," of unknown origin. ἀγρία, when referring to plants meaning "wild," is from ἀγρός (agrós) "field" (see &lt;a href='/term/agro'&gt;agro&lt;/a&gt;).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14th cent. From Vulgar Latin &lt;i&gt;melonem&lt;/i&gt;, accusative of &lt;i&gt;melo&lt;/i&gt; 'id.' From Latin &lt;i&gt;meles&lt;/i&gt; "badger." Of unknown origin, but compare Welsh &lt;i&gt;bele&lt;/i&gt; "marten." </t>
+  </si>
+  <si>
+    <t>13th cent. From Latin &lt;i&gt;gelare&lt;/i&gt; 'id.,' a verb derived from &lt;i&gt;gelus&lt;/i&gt; "frost" (see &lt;a href='/term/hielo'&gt;hielo&lt;/a&gt;).</t>
   </si>
 </sst>
 </file>
@@ -18980,11 +19214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1820"/>
+  <dimension ref="A1:J1819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J606" sqref="J606"/>
+      <pane ySplit="1" topLeftCell="A1713" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1727" sqref="B1727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42749,7 +42983,7 @@
       <c r="I1072" s="5"/>
       <c r="J1072" s="5"/>
     </row>
-    <row r="1073" spans="1:10" ht="409" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1073" s="12" t="s">
         <v>3891</v>
       </c>
@@ -48505,7 +48739,7 @@
       <c r="I1333" s="5"/>
       <c r="J1333" s="5"/>
     </row>
-    <row r="1334" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="1334" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1334" s="25" t="s">
         <v>4788</v>
       </c>
@@ -56968,278 +57202,409 @@
       <c r="J1716" s="5"/>
     </row>
     <row r="1717" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1717" s="5"/>
-      <c r="B1717" s="5"/>
-      <c r="C1717" s="5"/>
-      <c r="D1717" s="5"/>
-      <c r="E1717" s="5"/>
-      <c r="F1717" s="5"/>
-      <c r="G1717" s="5"/>
-      <c r="H1717" s="5"/>
-      <c r="I1717" s="5"/>
-      <c r="J1717" s="5"/>
+      <c r="A1717" s="5" t="s">
+        <v>6135</v>
+      </c>
+      <c r="B1717" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1717" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1717" s="5" t="s">
+        <v>6136</v>
+      </c>
+      <c r="F1717" s="5" t="s">
+        <v>6137</v>
+      </c>
+      <c r="G1717" s="5" t="s">
+        <v>6138</v>
+      </c>
     </row>
     <row r="1718" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1718" s="5"/>
-      <c r="B1718" s="5"/>
-      <c r="C1718" s="5"/>
-      <c r="D1718" s="5"/>
-      <c r="E1718" s="5"/>
-      <c r="F1718" s="5"/>
-      <c r="G1718" s="5"/>
-      <c r="H1718" s="5"/>
-      <c r="I1718" s="5"/>
-      <c r="J1718" s="5"/>
+      <c r="A1718" s="5" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D1718" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1718" s="5" t="s">
+        <v>6140</v>
+      </c>
+      <c r="F1718" s="5" t="s">
+        <v>6141</v>
+      </c>
+      <c r="G1718" s="5" t="s">
+        <v>6142</v>
+      </c>
     </row>
     <row r="1719" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1719" s="5"/>
-      <c r="B1719" s="5"/>
-      <c r="C1719" s="5"/>
-      <c r="D1719" s="5"/>
-      <c r="E1719" s="5"/>
-      <c r="F1719" s="5"/>
-      <c r="G1719" s="5"/>
-      <c r="H1719" s="5"/>
-      <c r="I1719" s="5"/>
-      <c r="J1719" s="5"/>
+      <c r="A1719" s="5" t="s">
+        <v>6143</v>
+      </c>
+      <c r="B1719" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1719" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1719" s="5" t="s">
+        <v>6144</v>
+      </c>
+      <c r="F1719" s="5" t="s">
+        <v>6145</v>
+      </c>
+      <c r="H1719" s="5" t="s">
+        <v>6146</v>
+      </c>
     </row>
     <row r="1720" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1720" s="5"/>
-      <c r="B1720" s="5"/>
-      <c r="C1720" s="5"/>
-      <c r="D1720" s="5"/>
-      <c r="E1720" s="5"/>
-      <c r="F1720" s="5"/>
-      <c r="G1720" s="5"/>
-      <c r="H1720" s="5"/>
-      <c r="I1720" s="5"/>
-      <c r="J1720" s="5"/>
+      <c r="A1720" s="5" t="s">
+        <v>6147</v>
+      </c>
+      <c r="B1720" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1720" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1720" s="5" t="s">
+        <v>6148</v>
+      </c>
+      <c r="F1720" s="5" t="s">
+        <v>6149</v>
+      </c>
+      <c r="G1720" s="5" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="1721" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1721" s="5"/>
-      <c r="B1721" s="5"/>
-      <c r="C1721" s="5"/>
-      <c r="D1721" s="5"/>
-      <c r="E1721" s="5"/>
-      <c r="F1721" s="5"/>
-      <c r="G1721" s="5"/>
-      <c r="H1721" s="5"/>
-      <c r="I1721" s="5"/>
-      <c r="J1721" s="5"/>
+      <c r="A1721" s="5" t="s">
+        <v>6150</v>
+      </c>
+      <c r="B1721" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1721" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1721" s="5" t="s">
+        <v>6151</v>
+      </c>
+      <c r="F1721" s="5" t="s">
+        <v>6152</v>
+      </c>
     </row>
     <row r="1722" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1722" s="5"/>
-      <c r="B1722" s="5"/>
-      <c r="C1722" s="5"/>
-      <c r="D1722" s="5"/>
-      <c r="E1722" s="5"/>
-      <c r="F1722" s="5"/>
-      <c r="G1722" s="5"/>
-      <c r="H1722" s="5"/>
-      <c r="I1722" s="5"/>
-      <c r="J1722" s="5"/>
+      <c r="A1722" s="5" t="s">
+        <v>6153</v>
+      </c>
+      <c r="B1722" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1722" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1722" s="5" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1722" s="5" t="s">
+        <v>6155</v>
+      </c>
+      <c r="G1722" s="5" t="s">
+        <v>6156</v>
+      </c>
+      <c r="H1722" s="5" t="s">
+        <v>6157</v>
+      </c>
     </row>
     <row r="1723" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1723" s="5"/>
-      <c r="B1723" s="5"/>
-      <c r="C1723" s="5"/>
-      <c r="D1723" s="5"/>
-      <c r="E1723" s="5"/>
-      <c r="F1723" s="5"/>
-      <c r="G1723" s="5"/>
-      <c r="H1723" s="5"/>
-      <c r="I1723" s="5"/>
-      <c r="J1723" s="5"/>
+      <c r="A1723" s="5" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D1723" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1723" s="5" t="s">
+        <v>6159</v>
+      </c>
+      <c r="F1723" s="5" t="s">
+        <v>6211</v>
+      </c>
     </row>
     <row r="1724" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1724" s="5"/>
-      <c r="B1724" s="5"/>
-      <c r="C1724" s="5"/>
-      <c r="D1724" s="5"/>
-      <c r="E1724" s="5"/>
-      <c r="F1724" s="5"/>
-      <c r="G1724" s="5"/>
-      <c r="H1724" s="5"/>
-      <c r="I1724" s="5"/>
-      <c r="J1724" s="5"/>
+      <c r="A1724" s="5" t="s">
+        <v>6160</v>
+      </c>
+      <c r="B1724" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1724" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1724" s="5" t="s">
+        <v>6161</v>
+      </c>
+      <c r="F1724" s="5" t="s">
+        <v>6162</v>
+      </c>
     </row>
     <row r="1725" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1725" s="5"/>
-      <c r="B1725" s="5"/>
-      <c r="C1725" s="5"/>
-      <c r="D1725" s="5"/>
-      <c r="E1725" s="5"/>
-      <c r="F1725" s="5"/>
-      <c r="G1725" s="5"/>
-      <c r="H1725" s="5"/>
-      <c r="I1725" s="5"/>
-      <c r="J1725" s="5"/>
+      <c r="A1725" s="5" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B1725" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1725" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1725" s="5" t="s">
+        <v>6164</v>
+      </c>
+      <c r="F1725" s="5" t="s">
+        <v>6165</v>
+      </c>
     </row>
     <row r="1726" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1726" s="5"/>
-      <c r="B1726" s="5"/>
-      <c r="C1726" s="5"/>
-      <c r="D1726" s="5"/>
-      <c r="E1726" s="5"/>
-      <c r="F1726" s="5"/>
-      <c r="G1726" s="5"/>
-      <c r="H1726" s="5"/>
-      <c r="I1726" s="5"/>
-      <c r="J1726" s="5"/>
+      <c r="A1726" s="5" t="s">
+        <v>6166</v>
+      </c>
+      <c r="B1726" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1726" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1726" s="5" t="s">
+        <v>6167</v>
+      </c>
+      <c r="F1726" s="5" t="s">
+        <v>6168</v>
+      </c>
     </row>
     <row r="1727" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1727" s="5"/>
-      <c r="B1727" s="5"/>
-      <c r="C1727" s="5"/>
-      <c r="D1727" s="5"/>
-      <c r="E1727" s="5"/>
-      <c r="F1727" s="5"/>
-      <c r="G1727" s="5"/>
-      <c r="H1727" s="5"/>
-      <c r="I1727" s="5"/>
-      <c r="J1727" s="5"/>
+      <c r="A1727" s="5" t="s">
+        <v>6169</v>
+      </c>
+      <c r="B1727" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D1727" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1727" s="5" t="s">
+        <v>6170</v>
+      </c>
+      <c r="F1727" s="5" t="s">
+        <v>6171</v>
+      </c>
     </row>
     <row r="1728" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1728" s="5"/>
-      <c r="B1728" s="5"/>
-      <c r="C1728" s="5"/>
-      <c r="D1728" s="5"/>
-      <c r="E1728" s="5"/>
-      <c r="F1728" s="5"/>
-      <c r="G1728" s="5"/>
-      <c r="H1728" s="5"/>
-      <c r="I1728" s="5"/>
-      <c r="J1728" s="5"/>
-    </row>
-    <row r="1729" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1729" s="5"/>
-      <c r="B1729" s="5"/>
-      <c r="C1729" s="5"/>
-      <c r="D1729" s="5"/>
-      <c r="E1729" s="5"/>
-      <c r="F1729" s="5"/>
-      <c r="G1729" s="5"/>
-      <c r="H1729" s="5"/>
-      <c r="I1729" s="5"/>
-      <c r="J1729" s="5"/>
-    </row>
-    <row r="1730" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1730" s="5"/>
-      <c r="B1730" s="5"/>
-      <c r="C1730" s="5"/>
-      <c r="D1730" s="5"/>
-      <c r="E1730" s="5"/>
-      <c r="F1730" s="5"/>
-      <c r="G1730" s="5"/>
-      <c r="H1730" s="5"/>
-      <c r="I1730" s="5"/>
-      <c r="J1730" s="5"/>
-    </row>
-    <row r="1731" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1731" s="5"/>
-      <c r="B1731" s="5"/>
-      <c r="C1731" s="5"/>
-      <c r="D1731" s="5"/>
-      <c r="E1731" s="5"/>
-      <c r="F1731" s="5"/>
-      <c r="G1731" s="5"/>
-      <c r="H1731" s="5"/>
-      <c r="I1731" s="5"/>
-      <c r="J1731" s="5"/>
-    </row>
-    <row r="1732" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1732" s="5"/>
-      <c r="B1732" s="5"/>
-      <c r="C1732" s="5"/>
-      <c r="D1732" s="5"/>
-      <c r="E1732" s="5"/>
-      <c r="F1732" s="5"/>
-      <c r="G1732" s="5"/>
-      <c r="H1732" s="5"/>
-      <c r="I1732" s="5"/>
-      <c r="J1732" s="5"/>
-    </row>
-    <row r="1733" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1733" s="5"/>
-      <c r="B1733" s="5"/>
-      <c r="C1733" s="5"/>
-      <c r="D1733" s="5"/>
-      <c r="E1733" s="5"/>
-      <c r="F1733" s="5"/>
-      <c r="G1733" s="5"/>
-      <c r="H1733" s="5"/>
-      <c r="I1733" s="5"/>
-      <c r="J1733" s="5"/>
-    </row>
-    <row r="1734" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1734" s="5"/>
-      <c r="B1734" s="5"/>
-      <c r="C1734" s="5"/>
-      <c r="D1734" s="5"/>
-      <c r="E1734" s="5"/>
-      <c r="F1734" s="5"/>
-      <c r="G1734" s="5"/>
-      <c r="H1734" s="5"/>
-      <c r="I1734" s="5"/>
-      <c r="J1734" s="5"/>
-    </row>
-    <row r="1735" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1735" s="5"/>
-      <c r="B1735" s="5"/>
-      <c r="C1735" s="5"/>
-      <c r="D1735" s="5"/>
-      <c r="E1735" s="5"/>
-      <c r="F1735" s="5"/>
-      <c r="G1735" s="5"/>
-      <c r="H1735" s="5"/>
-      <c r="I1735" s="5"/>
-      <c r="J1735" s="5"/>
-    </row>
-    <row r="1736" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1736" s="5"/>
-      <c r="B1736" s="5"/>
-      <c r="C1736" s="5"/>
-      <c r="D1736" s="5"/>
-      <c r="E1736" s="5"/>
-      <c r="F1736" s="5"/>
-      <c r="G1736" s="5"/>
-      <c r="H1736" s="5"/>
-      <c r="I1736" s="5"/>
-      <c r="J1736" s="5"/>
-    </row>
-    <row r="1737" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1737" s="5"/>
-      <c r="B1737" s="5"/>
-      <c r="C1737" s="5"/>
-      <c r="D1737" s="5"/>
-      <c r="E1737" s="5"/>
-      <c r="F1737" s="5"/>
-      <c r="G1737" s="5"/>
-      <c r="H1737" s="5"/>
-      <c r="I1737" s="5"/>
-      <c r="J1737" s="5"/>
-    </row>
-    <row r="1738" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1738" s="5"/>
-      <c r="B1738" s="5"/>
-      <c r="C1738" s="5"/>
-      <c r="D1738" s="5"/>
-      <c r="E1738" s="5"/>
-      <c r="F1738" s="5"/>
-      <c r="G1738" s="5"/>
-      <c r="H1738" s="5"/>
-    </row>
-    <row r="1739" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1739" s="5"/>
-      <c r="B1739" s="5"/>
-      <c r="C1739" s="5"/>
-      <c r="D1739" s="5"/>
-      <c r="E1739" s="5"/>
-      <c r="F1739" s="5"/>
-      <c r="G1739" s="5"/>
-      <c r="H1739" s="5"/>
-    </row>
-    <row r="1740" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1728" s="5" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D1728" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1728" s="5" t="s">
+        <v>6173</v>
+      </c>
+      <c r="F1728" s="5" t="s">
+        <v>6174</v>
+      </c>
+      <c r="G1728" s="5" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1729" s="5" t="s">
+        <v>6176</v>
+      </c>
+      <c r="B1729" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1729" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1729" s="5" t="s">
+        <v>6177</v>
+      </c>
+      <c r="F1729" s="5" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1730" s="5" t="s">
+        <v>6179</v>
+      </c>
+      <c r="B1730" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1730" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1730" s="5" t="s">
+        <v>6180</v>
+      </c>
+      <c r="F1730" s="5" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1731" s="5" t="s">
+        <v>6182</v>
+      </c>
+      <c r="B1731" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1731" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1731" s="5" t="s">
+        <v>6183</v>
+      </c>
+      <c r="F1731" s="5" t="s">
+        <v>6184</v>
+      </c>
+      <c r="G1731" s="5" t="s">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1732" s="5" t="s">
+        <v>6186</v>
+      </c>
+      <c r="B1732" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1732" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1732" s="5" t="s">
+        <v>6187</v>
+      </c>
+      <c r="F1732" s="5" t="s">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1733" s="5" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D1733" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1733" s="5" t="s">
+        <v>6190</v>
+      </c>
+      <c r="F1733" s="5" t="s">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1734" s="5" t="s">
+        <v>6191</v>
+      </c>
+      <c r="B1734" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1734" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1734" s="5" t="s">
+        <v>6192</v>
+      </c>
+      <c r="F1734" s="5" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1735" s="5" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D1735" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1735" s="5" t="s">
+        <v>6195</v>
+      </c>
+      <c r="F1735" s="5" t="s">
+        <v>6196</v>
+      </c>
+      <c r="G1735" s="5" t="s">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1736" s="5" t="s">
+        <v>6198</v>
+      </c>
+      <c r="B1736" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1736" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1736" s="5" t="s">
+        <v>6199</v>
+      </c>
+      <c r="F1736" s="5" t="s">
+        <v>6200</v>
+      </c>
+      <c r="G1736" s="5" t="s">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1737" s="5" t="s">
+        <v>6202</v>
+      </c>
+      <c r="D1737" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1737" s="5" t="s">
+        <v>6203</v>
+      </c>
+      <c r="F1737" s="5" t="s">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1738" s="5" t="s">
+        <v>6205</v>
+      </c>
+      <c r="B1738" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1738" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1738" s="5" t="s">
+        <v>6206</v>
+      </c>
+      <c r="F1738" s="5" t="s">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1739" s="5" t="s">
+        <v>6208</v>
+      </c>
+      <c r="B1739" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1739" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1739" s="5" t="s">
+        <v>6209</v>
+      </c>
+      <c r="F1739" s="5" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1740" s="5"/>
       <c r="B1740" s="5"/>
       <c r="C1740" s="5"/>
@@ -57249,7 +57614,7 @@
       <c r="G1740" s="5"/>
       <c r="H1740" s="5"/>
     </row>
-    <row r="1741" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1741" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1741" s="5"/>
       <c r="B1741" s="5"/>
       <c r="C1741" s="5"/>
@@ -57259,7 +57624,7 @@
       <c r="G1741" s="5"/>
       <c r="H1741" s="5"/>
     </row>
-    <row r="1742" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1742" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1742" s="5"/>
       <c r="B1742" s="5"/>
       <c r="C1742" s="5"/>
@@ -57269,7 +57634,7 @@
       <c r="G1742" s="5"/>
       <c r="H1742" s="5"/>
     </row>
-    <row r="1743" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1743" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1743" s="5"/>
       <c r="B1743" s="5"/>
       <c r="C1743" s="5"/>
@@ -57279,7 +57644,7 @@
       <c r="G1743" s="5"/>
       <c r="H1743" s="5"/>
     </row>
-    <row r="1744" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1744" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1744" s="5"/>
       <c r="B1744" s="5"/>
       <c r="C1744" s="5"/>
@@ -58039,16 +58404,6 @@
       <c r="G1819" s="5"/>
       <c r="H1819" s="5"/>
     </row>
-    <row r="1820" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1820" s="5"/>
-      <c r="B1820" s="5"/>
-      <c r="C1820" s="5"/>
-      <c r="D1820" s="5"/>
-      <c r="E1820" s="5"/>
-      <c r="F1820" s="5"/>
-      <c r="G1820" s="5"/>
-      <c r="H1820" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/assets/data/oedos.xlsx
+++ b/public/assets/data/oedos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="460" windowWidth="10000" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="3120" yWindow="460" windowWidth="10000" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
